--- a/tests/data/output/一级测试用例-17001_result.xlsx
+++ b/tests/data/output/一级测试用例-17001_result.xlsx
@@ -467,7 +467,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{"user_name":"农鑫","id_card_no":"35070019960309320X","phone":"18164748782"}</t>
+          <t>{"user_name":"粱婷婷","id_card_no":"451001193512115392","phone":"18710997984"}</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{"user_name":"茅婷婷","id_card_no":"360731198410141086","phone":"13049631252"}</t>
+          <t>{"user_name":"邬想","id_card_no":"350206194310192464","phone":"18976647215"}</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{"user_name":"魏志强","id_card_no":"320903192911056374","phone":"13557940516"}</t>
+          <t>{"user_name":"荀帅","id_card_no":"330481194311017614","phone":"18688197465"}</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{"user_name":"良桂香","id_card_no":"230208196801287884","phone":"15085965465"}</t>
+          <t>{"user_name":"纪浩","id_card_no":"520326195010316119","phone":"13188752439"}</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{"user_name":"荆云","id_card_no":"450802196103157711","phone":"15669821112"}</t>
+          <t>{"user_name":"驷金凤","id_card_no":"320600192912078836","phone":"13612803665"}</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{"user_name":"刘平","id_card_no":"620524197610219911","phone":"13599731739"}</t>
+          <t>{"user_name":"轩淑珍","id_card_no":"653100195011244361","phone":"15900270335"}</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{"user_name":"杭娜","id_card_no":"610602196407264750","phone":"15043510693"}</t>
+          <t>{"user_name":"蓬龙","id_card_no":"530127197706197484","phone":"15771867133"}</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{"user_name":"正飞","id_card_no":"440402193702210425","phone":"15989856403"}</t>
+          <t>{"user_name":"李玉华","id_card_no":"320117194207150600","phone":"18828078565"}</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{"user_name":"吕秀英","id_card_no":"620600199508197801","phone":"13238513287"}</t>
+          <t>{"user_name":"蓟旭","id_card_no":"532627197710294219","phone":"13260825242"}</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{"user_name":"桂晨","id_card_no":"150302196708072931","phone":"18567410963"}</t>
+          <t>{"user_name":"宇俊","id_card_no":"22010519340122530X","phone":"13512376499"}</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{"user_name":"于峰","id_card_no":"130110193912139373","phone":"13355833267"}</t>
+          <t>{"user_name":"蓟建华","id_card_no":"150721197507132876","phone":"15228947341"}</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{"user_name":"卜鹏","id_card_no":"230100199110180225","phone":"13222811423"}</t>
+          <t>{"user_name":"空秀云","id_card_no":"420107196811247396","phone":"14581395957"}</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{"user_name":"封利","id_card_no":"632801196202203655","phone":"15903140903"}</t>
+          <t>{"user_name":"骆杨","id_card_no":"230422199201280410","phone":"13912142706"}</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{"user_name":"桓桂荣","id_card_no":"310106195612132581","phone":"18117184109"}</t>
+          <t>{"user_name":"董帆","id_card_no":"610524197001085995","phone":"15052579303"}</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{"user_name":"卜坤","id_card_no":"23011119761209129X","phone":"13437256477"}</t>
+          <t>{"user_name":"丁旭","id_card_no":"140303194307028724","phone":"13105686124"}</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>{"user_name":"何秀英","id_card_no":"230714194910284880","phone":"13930297341"}</t>
+          <t>{"user_name":"潘阳","id_card_no":"410501198201130802","phone":"15255622950"}</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>{"user_name":"那建平","id_card_no":"231002195812034361","phone":"13933169685"}</t>
+          <t>{"user_name":"空燕","id_card_no":"420701200006018383","phone":"15367335189"}</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{"user_name":"那兰英","id_card_no":"371523194303258784","phone":"15243937727"}</t>
+          <t>{"user_name":"杜杰","id_card_no":"510300193103220752","phone":"18692966632"}</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{"user_name":"晏慧","id_card_no":"421224193709063338","phone":"14532791573"}</t>
+          <t>{"user_name":"王凤英","id_card_no":"532527198912048867","phone":"18126813713"}</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>{"user_name":"轩桂花","id_card_no":"231081194609117904","phone":"13295501571"}</t>
+          <t>{"user_name":"苍玉珍","id_card_no":"15092319380314616X","phone":"13034620200"}</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{"user_name":"逄利","id_card_no":"210300198707158517","phone":"15880240740"}</t>
+          <t>{"user_name":"狄小红","id_card_no":"371322199002056340","phone":"18256617803"}</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{"user_name":"东雷","id_card_no":"450601196010066151","phone":"13660973477"}</t>
+          <t>{"user_name":"印淑珍","id_card_no":"451202197806052943","phone":"18913177560"}</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>{"user_name":"凌桂香","id_card_no":"450923198408261970","phone":"18926168800"}</t>
+          <t>{"user_name":"关琴","id_card_no":"621021198710246617","phone":"13683169229"}</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{"user_name":"岑洋","id_card_no":"442000197408016045","phone":"18176741773"}</t>
+          <t>{"user_name":"齐颖","id_card_no":"330328199707202192","phone":"18853147396"}</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>{"user_name":"桑帆","id_card_no":"610524194410070555","phone":"13890100273"}</t>
+          <t>{"user_name":"訾秀英","id_card_no":"510524199003021341","phone":"13746494375"}</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>{"user_name":"蓟玉","id_card_no":"410205198406152553","phone":"15911629367"}</t>
+          <t>{"user_name":"于霞","id_card_no":"361101194110055014","phone":"15247969461"}</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>{"user_name":"宰凯","id_card_no":"511901193708121589","phone":"15380503980"}</t>
+          <t>{"user_name":"司帆","id_card_no":"511922194508315297","phone":"14726010603"}</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>{"user_name":"舒金凤","id_card_no":"62052219350326699X","phone":"13835271241"}</t>
+          <t>{"user_name":"皮欣","id_card_no":"530524194403198243","phone":"13239182741"}</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{"user_name":"蔡玉华","id_card_no":"14030219310125782X","phone":"18897942112"}</t>
+          <t>{"user_name":"弓凤英","id_card_no":"340521195103042060","phone":"15668434944"}</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>{"user_name":"鞠宇","id_card_no":"510300195003055568","phone":"15263202707"}</t>
+          <t>{"user_name":"费瑜","id_card_no":"411000199703079121","phone":"13321404500"}</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>{"user_name":"关岩","id_card_no":"230524197408266500","phone":"13510028990"}</t>
+          <t>{"user_name":"狐桂香","id_card_no":"350425196802054016","phone":"14772860510"}</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>{"user_name":"潘华","id_card_no":"13053019711021762X","phone":"18746571858"}</t>
+          <t>{"user_name":"安兰英","id_card_no":"360424193001251169","phone":"18680880354"}</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>{"user_name":"骆娟","id_card_no":"371400199605148938","phone":"18953960211"}</t>
+          <t>{"user_name":"敖玉华","id_card_no":"341102200001276361","phone":"15354367693"}</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>{"user_name":"钟瑜","id_card_no":"130205193012292860","phone":"13222449413"}</t>
+          <t>{"user_name":"雍超","id_card_no":"610522193312052671","phone":"15959994108"}</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>{"user_name":"连丹丹","id_card_no":"130701193411055741","phone":"15026828590"}</t>
+          <t>{"user_name":"屠强","id_card_no":"37148219750715351X","phone":"14739231347"}</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>{"user_name":"钮淑兰","id_card_no":"620111198905059768","phone":"15066215085"}</t>
+          <t>{"user_name":"封浩","id_card_no":"513337200012195035","phone":"15867908939"}</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>{"user_name":"申秀英","id_card_no":"610528199806280864","phone":"13643252721"}</t>
+          <t>{"user_name":"胥勇","id_card_no":"130400197501138909","phone":"18597408408"}</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>{"user_name":"正琴","id_card_no":"411323198810218488","phone":"14739211676"}</t>
+          <t>{"user_name":"安海燕","id_card_no":"411502194002254908","phone":"13966098190"}</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>{"user_name":"家玉珍","id_card_no":"230404199601175684","phone":"13791705549"}</t>
+          <t>{"user_name":"吴桂芝","id_card_no":"330800193205207835","phone":"14584142908"}</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>{"user_name":"宗志强","id_card_no":"411100194105231579","phone":"18618653600"}</t>
+          <t>{"user_name":"蒙博","id_card_no":"532525197412265534","phone":"15582758100"}</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>{"user_name":"李艳","id_card_no":"511922196303121762","phone":"15192296151"}</t>
+          <t>{"user_name":"湛飞","id_card_no":"130632199308275523","phone":"13611695972"}</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>{"user_name":"暴帅","id_card_no":"510601197905297509","phone":"15233995265"}</t>
+          <t>{"user_name":"厉秀梅","id_card_no":"31011719800530054X","phone":"18857330678"}</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>{"user_name":"宦桂芝","id_card_no":"445321199104221592","phone":"13319617243"}</t>
+          <t>{"user_name":"柴莹","id_card_no":"140882199312046885","phone":"13938812392"}</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>{"user_name":"马桂珍","id_card_no":"320925193910138493","phone":"13305195058"}</t>
+          <t>{"user_name":"符云","id_card_no":"371482195803088469","phone":"18075899212"}</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>{"user_name":"冉坤","id_card_no":"42011119540818193X","phone":"13170686082"}</t>
+          <t>{"user_name":"麻晶","id_card_no":"34120419460203806X","phone":"13484714386"}</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>{"user_name":"梁秀华","id_card_no":"341124199410065891","phone":"15913723007"}</t>
+          <t>{"user_name":"彭军","id_card_no":"441481199209179448","phone":"13926025789"}</t>
         </is>
       </c>
     </row>
@@ -2539,7 +2539,7 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>{"user_name":"蒙莹","id_card_no":"451026195606235543","phone":"15935987416"}</t>
+          <t>{"user_name":"古军","id_card_no":"431126193310269659","phone":"15751467578"}</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>{"user_name":"郁畅","id_card_no":"36090019520519769X","phone":"15613087118"}</t>
+          <t>{"user_name":"海利","id_card_no":"150722195103306734","phone":"15835961740"}</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>{"user_name":"乐洋","id_card_no":"320831195204030048","phone":"18674048360"}</t>
+          <t>{"user_name":"常娟","id_card_no":"441324194009172895","phone":"13021282132"}</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>{"user_name":"都秀芳","id_card_no":"130531196006069075","phone":"14536756238"}</t>
+          <t>{"user_name":"哈芳","id_card_no":"430422199803015566","phone":"18251607639"}</t>
         </is>
       </c>
     </row>
@@ -2723,7 +2723,7 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>{"user_name":"嵇娜","id_card_no":"610629197201290405","phone":"15046531917"}</t>
+          <t>{"user_name":"翁超","id_card_no":"530302195207136913","phone":"18742777957"}</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>{"user_name":"咸雪梅","id_card_no":"512000194909304701","phone":"15163922212"}</t>
+          <t>{"user_name":"徒明","id_card_no":"420602199211044156","phone":"15604046831"}</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>{"user_name":"祖畅","id_card_no":"611025198204098731","phone":"15560189299"}</t>
+          <t>{"user_name":"狐琴","id_card_no":"653000199707040466","phone":"18699114925"}</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>{"user_name":"余云","id_card_no":"610422194511153431","phone":"18962649157"}</t>
+          <t>{"user_name":"羊婷","id_card_no":"152502196209184376","phone":"15848767060"}</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>{"user_name":"索云","id_card_no":"441882194706240161","phone":"13412201489"}</t>
+          <t>{"user_name":"东慧","id_card_no":"630105197110138665","phone":"15906428121"}</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>{"user_name":"有小红","id_card_no":"411323199905319876","phone":"18650010227"}</t>
+          <t>{"user_name":"邰秀云","id_card_no":"640425199304097008","phone":"13366390427"}</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>{"user_name":"丰龙","id_card_no":"520112195809092057","phone":"18848893421"}</t>
+          <t>{"user_name":"宰桂英","id_card_no":"520323198110221015","phone":"13831820649"}</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>{"user_name":"靳亮","id_card_no":"530925199403239552","phone":"14782963442"}</t>
+          <t>{"user_name":"李丽娟","id_card_no":"370612195506050502","phone":"13667240814"}</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>{"user_name":"楚建","id_card_no":"632500197811294371","phone":"13088832261"}</t>
+          <t>{"user_name":"翟淑英","id_card_no":"610329194011219624","phone":"14708845335"}</t>
         </is>
       </c>
     </row>
@@ -3133,7 +3133,7 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>{"user_name":"费柳","id_card_no":"511503195909070159","phone":"18209420312"}</t>
+          <t>{"user_name":"荣红梅","id_card_no":"34110019401204248X","phone":"13418740402"}</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>{"user_name":"祖兰英","id_card_no":"441400199801122899","phone":"14583571129"}</t>
+          <t>{"user_name":"柏丽华","id_card_no":"420606195107021103","phone":"15728867285"}</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>{"user_name":"浦玉梅","id_card_no":"320482197305165408","phone":"13266359665"}</t>
+          <t>{"user_name":"微平","id_card_no":"430800196701132083","phone":"15544197866"}</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>{"user_name":"淳欣","id_card_no":"340501198905157693","phone":"18660372197"}</t>
+          <t>{"user_name":"东宁","id_card_no":"500243194908168100","phone":"13725974127"}</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>{"user_name":"蒲健","id_card_no":"33010319841223408X","phone":"14575434986"}</t>
+          <t>{"user_name":"红娜","id_card_no":"150103194103269228","phone":"15077475617"}</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>{"user_name":"侯娟","id_card_no":"220721199101014578","phone":"13923950977"}</t>
+          <t>{"user_name":"西桂芳","id_card_no":"350825194305316305","phone":"18900115862"}</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>{"user_name":"漆红","id_card_no":"420528194904281061","phone":"18230154565"}</t>
+          <t>{"user_name":"颜楠","id_card_no":"511921199003272654","phone":"13209450164"}</t>
         </is>
       </c>
     </row>
@@ -3459,7 +3459,7 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>{"user_name":"江霞","id_card_no":"222406194211050317","phone":"15379761772"}</t>
+          <t>{"user_name":"扈磊","id_card_no":"654221199912136663","phone":"13073899996"}</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>{"user_name":"顾文","id_card_no":"632622195802099800","phone":"13125161733"}</t>
+          <t>{"user_name":"常玉英","id_card_no":"431201195806106180","phone":"14576574793"}</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>{"user_name":"唐璐","id_card_no":"632522198601264599","phone":"13689580418"}</t>
+          <t>{"user_name":"公秀华","id_card_no":"130523198803088948","phone":"13899342480"}</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>{"user_name":"萧娟","id_card_no":"210203193405095814","phone":"15390271005"}</t>
+          <t>{"user_name":"居丽娟","id_card_no":"330825197605154168","phone":"13517872762"}</t>
         </is>
       </c>
     </row>
@@ -3643,7 +3643,7 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>{"user_name":"红金凤","id_card_no":"610701195112147527","phone":"13085239078"}</t>
+          <t>{"user_name":"桑琴","id_card_no":"350902200003283869","phone":"18834894017"}</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>{"user_name":"谷兰英","id_card_no":"350128199812205179","phone":"18608061137"}</t>
+          <t>{"user_name":"狄坤","id_card_no":"150104195812214343","phone":"13354677431"}</t>
         </is>
       </c>
     </row>
@@ -3735,7 +3735,7 @@
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>{"user_name":"杨淑珍","id_card_no":"640201198007240123","phone":"13773250363"}</t>
+          <t>{"user_name":"芮淑英","id_card_no":"520101197704145634","phone":"15024784190"}</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>{"user_name":"文华","id_card_no":"542625198401069011","phone":"15275142997"}</t>
+          <t>{"user_name":"郦文","id_card_no":"141128199212275255","phone":"14528787847"}</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
-          <t>{"user_name":"严桂珍","id_card_no":"330324193903152687","phone":"15146384703"}</t>
+          <t>{"user_name":"杭燕","id_card_no":"350702197809163238","phone":"13334502600"}</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
-          <t>{"user_name":"融强","id_card_no":"150902195301025795","phone":"18238591280"}</t>
+          <t>{"user_name":"宰林","id_card_no":"621025193703022925","phone":"13715155161"}</t>
         </is>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
-          <t>{"user_name":"简丽华","id_card_no":"32058519970503761X","phone":"15871856732"}</t>
+          <t>{"user_name":"澹璐","id_card_no":"511600198509295957","phone":"13651956927"}</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
-          <t>{"user_name":"驷秀华","id_card_no":"210181199909071075","phone":"13813801534"}</t>
+          <t>{"user_name":"翟建华","id_card_no":"451122196307225841","phone":"18277401032"}</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>{"user_name":"闾超","id_card_no":"36102319370511080X","phone":"13601821999"}</t>
+          <t>{"user_name":"樊颖","id_card_no":"510115193803115893","phone":"18861509893"}</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
-          <t>{"user_name":"南凤兰","id_card_no":"640200194507188734","phone":"15736885468"}</t>
+          <t>{"user_name":"项雷","id_card_no":"361028195302173188","phone":"14597803899"}</t>
         </is>
       </c>
     </row>
@@ -4103,7 +4103,7 @@
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
-          <t>{"user_name":"令洁","id_card_no":"371002195301091533","phone":"14584974307"}</t>
+          <t>{"user_name":"郁玉英","id_card_no":"52032719890904625X","phone":"13871525402"}</t>
         </is>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>{"user_name":"郦娜","id_card_no":"230225194010289004","phone":"13382635131"}</t>
+          <t>{"user_name":"澹建军","id_card_no":"370113194505116199","phone":"18782565502"}</t>
         </is>
       </c>
     </row>
@@ -4195,7 +4195,7 @@
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
-          <t>{"user_name":"别婷","id_card_no":"420116193608054065","phone":"13603852569"}</t>
+          <t>{"user_name":"扈刚","id_card_no":"360281197508296328","phone":"18180580089"}</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
-          <t>{"user_name":"廖明","id_card_no":"371724200007317394","phone":"15909101000"}</t>
+          <t>{"user_name":"夏成","id_card_no":"510132196609041018","phone":"15255959290"}</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
-          <t>{"user_name":"鲍秀荣","id_card_no":"230231196801138751","phone":"18996089177"}</t>
+          <t>{"user_name":"阙娜","id_card_no":"340404193102213517","phone":"14758635602"}</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
-          <t>{"user_name":"能丽娟","id_card_no":"130827197805138854","phone":"15139167351"}</t>
+          <t>{"user_name":"段阳","id_card_no":"331181197407290269","phone":"14538268307"}</t>
         </is>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>{"user_name":"跋雪","id_card_no":"350802197611166084","phone":"15723298961"}</t>
+          <t>{"user_name":"孙春梅","id_card_no":"11011219551223541X","phone":"13504734781"}</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>{"user_name":"支霞","id_card_no":"511724194807271505","phone":"15657903615"}</t>
+          <t>{"user_name":"罗小红","id_card_no":"520524199206052692","phone":"18129795377"}</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
-          <t>{"user_name":"纪辉","id_card_no":"610827194111090033","phone":"13382483235"}</t>
+          <t>{"user_name":"葛雪梅","id_card_no":"220502193412025998","phone":"15781860955"}</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
-          <t>{"user_name":"羊辉","id_card_no":"54252219431005986X","phone":"18518894884"}</t>
+          <t>{"user_name":"和阳","id_card_no":"340823197407239688","phone":"13079007877"}</t>
         </is>
       </c>
     </row>
@@ -4563,7 +4563,7 @@
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
-          <t>{"user_name":"索柳","id_card_no":"654026195109212156","phone":"13879599718"}</t>
+          <t>{"user_name":"殴华","id_card_no":"450224195303095712","phone":"14573850245"}</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
-          <t>{"user_name":"井玉梅","id_card_no":"141127196112280305","phone":"15791787439"}</t>
+          <t>{"user_name":"祝瑞","id_card_no":"440507199310118114","phone":"18869750775"}</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
-          <t>{"user_name":"松莉","id_card_no":"140829194903206401","phone":"15644035612"}</t>
+          <t>{"user_name":"国桂香","id_card_no":"430405194602227432","phone":"15655981158"}</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
-          <t>{"user_name":"钟亮","id_card_no":"220781195312171184","phone":"13562642805"}</t>
+          <t>{"user_name":"戈建平","id_card_no":"513226197101221101","phone":"18906178835"}</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
-          <t>{"user_name":"空玉梅","id_card_no":"440608198808294681","phone":"15960912027"}</t>
+          <t>{"user_name":"胥淑英","id_card_no":"540202198307038800","phone":"18630968407"}</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>{"user_name":"公鹏","id_card_no":"371403193103016056","phone":"15502481366"}</t>
+          <t>{"user_name":"鲜桂兰","id_card_no":"441284193910178524","phone":"13427847435"}</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
-          <t>{"user_name":"尤莹","id_card_no":"445101195305139013","phone":"15352168893"}</t>
+          <t>{"user_name":"能军","id_card_no":"370112194702226024","phone":"13551847949"}</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>{"user_name":"蓟燕","id_card_no":"410122199507125592","phone":"15778501805"}</t>
+          <t>{"user_name":"晁柳","id_card_no":"620825195704306075","phone":"15107325299"}</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
-          <t>{"user_name":"荆岩","id_card_no":"330205195501066676","phone":"18693643210"}</t>
+          <t>{"user_name":"洪丹","id_card_no":"450400195610094744","phone":"15243824996"}</t>
         </is>
       </c>
     </row>
@@ -4973,7 +4973,7 @@
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
-          <t>{"user_name":"丘杰","id_card_no":"440785196909231320","phone":"14792192900"}</t>
+          <t>{"user_name":"翁杨","id_card_no":"340123199703290323","phone":"13778108136"}</t>
         </is>
       </c>
     </row>
@@ -5023,7 +5023,7 @@
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
-          <t>{"user_name":"咎芳","id_card_no":"140411193109016598","phone":"15820422256"}</t>
+          <t>{"user_name":"傅红","id_card_no":"654201197611080614","phone":"15600680442"}</t>
         </is>
       </c>
     </row>
@@ -5065,7 +5065,7 @@
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>{"user_name":"贾冬梅","id_card_no":"360203197701302823","phone":"18098841946"}</t>
+          <t>{"user_name":"麻莉","id_card_no":"350783196003175508","phone":"13704273903"}</t>
         </is>
       </c>
     </row>
@@ -5115,7 +5115,7 @@
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
-          <t>{"user_name":"戚文","id_card_no":"360622196806274124","phone":"15244701290"}</t>
+          <t>{"user_name":"席秀英","id_card_no":"33011019370102053X","phone":"13994870772"}</t>
         </is>
       </c>
     </row>
@@ -5157,7 +5157,7 @@
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
-          <t>{"user_name":"蓟桂荣","id_card_no":"232721195805290074","phone":"18210402226"}</t>
+          <t>{"user_name":"仇秀芳","id_card_no":"220283195402238755","phone":"15278115275"}</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5205,7 @@
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
-          <t>{"user_name":"龙瑜","id_card_no":"230231194503155300","phone":"18691698466"}</t>
+          <t>{"user_name":"苗桂荣","id_card_no":"530103196001052239","phone":"18700548659"}</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>{"user_name":"毋成","id_card_no":"340823194707295637","phone":"18729581984"}</t>
+          <t>{"user_name":"宰兰英","id_card_no":"340124195405074997","phone":"18860305372"}</t>
         </is>
       </c>
     </row>
@@ -5296,7 +5296,7 @@
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>{"user_name":"仲雪梅","id_card_no":"131125198612105305","phone":"15129691433"}</t>
+          <t>{"user_name":"殳荣","id_card_no":"420302197711139594","phone":"15931625924"}</t>
         </is>
       </c>
     </row>
@@ -5338,7 +5338,7 @@
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
-          <t>{"user_name":"阎英","id_card_no":"511825198511128750","phone":"13569026671"}</t>
+          <t>{"user_name":"龙琴","id_card_no":"230828200106296030","phone":"15032446216"}</t>
         </is>
       </c>
     </row>
@@ -5386,7 +5386,7 @@
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
-          <t>{"user_name":"冉凤英","id_card_no":"610902196301068256","phone":"14595883922"}</t>
+          <t>{"user_name":"隗琳","id_card_no":"350982196406138968","phone":"13303898309"}</t>
         </is>
       </c>
     </row>
@@ -5428,7 +5428,7 @@
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
-          <t>{"user_name":"包琳","id_card_no":"654000194609025914","phone":"18540158895"}</t>
+          <t>{"user_name":"石金凤","id_card_no":"653227195609303368","phone":"13004017577"}</t>
         </is>
       </c>
     </row>
@@ -5470,7 +5470,7 @@
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
-          <t>{"user_name":"易秀梅","id_card_no":"230231194601239508","phone":"13425658880"}</t>
+          <t>{"user_name":"郗鑫","id_card_no":"610900196501128505","phone":"15282588902"}</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
-          <t>{"user_name":"杭波","id_card_no":"441301196511018978","phone":"18722106095"}</t>
+          <t>{"user_name":"席兵","id_card_no":"420202198302156229","phone":"15928727171"}</t>
         </is>
       </c>
     </row>
@@ -5561,7 +5561,7 @@
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
-          <t>{"user_name":"咸利","id_card_no":"42050119571115938X","phone":"15570228852"}</t>
+          <t>{"user_name":"宫勇","id_card_no":"623025198005016493","phone":"18632019551"}</t>
         </is>
       </c>
     </row>
@@ -5603,7 +5603,7 @@
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
-          <t>{"user_name":"乜桂芝","id_card_no":"231003196010179359","phone":"18776742661"}</t>
+          <t>{"user_name":"饶晶","id_card_no":"35020019500330432X","phone":"15724175990"}</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
-          <t>{"user_name":"计桂香","id_card_no":"150825195503282262","phone":"18196452641"}</t>
+          <t>{"user_name":"宓建国","id_card_no":"370521193502270526","phone":"15948370426"}</t>
         </is>
       </c>
     </row>
@@ -5693,7 +5693,7 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
-          <t>{"user_name":"寇帅","id_card_no":"371700197201044806","phone":"15398937642"}</t>
+          <t>{"user_name":"牧淑华","id_card_no":"632621195906045165","phone":"15081337800"}</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
-          <t>{"user_name":"唐龙","id_card_no":"530322194303030060","phone":"18159299342"}</t>
+          <t>{"user_name":"权华","id_card_no":"440232194407219680","phone":"15261178081"}</t>
         </is>
       </c>
     </row>
@@ -5790,7 +5790,7 @@
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
-          <t>{"user_name":"隆艳","id_card_no":"420601197006270300","phone":"18930316508"}</t>
+          <t>{"user_name":"弘晶","id_card_no":"341124198908100143","phone":"18144731633"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-17001_result.xlsx
+++ b/tests/data/output/一级测试用例-17001_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,55 +369,60 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>用例编号</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>测试模块</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>用例标题</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>table_main</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>table_main_subA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>table_main_subB</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>预期测试结果</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>测试用例key</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>实际测试结果</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>是否通过</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>key_value_main</t>
         </is>
@@ -428,48 +433,55 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>115</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>net_tel_small</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='个人基本信息核查';
 info_fraud_verification_item.item_name[0]='手机号命中通信小号库'</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>net_tel_small=1</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{"user_name":"公雪","id_card_no":"513227197210128316","phone":"13638941547"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>{"user_name":"白志强","id_card_no":"652301196312157369","phone":"15308661321"}</t>
         </is>
       </c>
     </row>
@@ -478,42 +490,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>116</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>net_tel_small</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
         <is>
           <t>net_tel_small=0</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{"user_name":"申鑫","id_card_no":"632623198702189294","phone":"18864913695"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>{"user_name":"贲秀珍","id_card_no":"140721196005122321","phone":"18700891789"}</t>
         </is>
       </c>
     </row>
@@ -522,48 +541,55 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
         <v>117</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>net_tel_virtual</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='个人基本信息核查';
 info_fraud_verification_item.item_name[0]='手机号命中虚假号码库'</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>net_tel_virtual=1</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{"user_name":"商婷","id_card_no":"371501198603027646","phone":"14537379664"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>{"user_name":"融秀珍","id_card_no":"411330195112301161","phone":"18217760899"}</t>
         </is>
       </c>
     </row>
@@ -572,42 +598,49 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
         <v>118</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>net_tel_virtual</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>net_tel_virtual=0</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{"user_name":"卞斌","id_card_no":"340121193610310954","phone":"18292968740"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>{"user_name":"萧玉英","id_card_no":"430902193211030695","phone":"15175793659"}</t>
         </is>
       </c>
     </row>
@@ -616,48 +649,55 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
         <v>119</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>net_tel_fraud</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='个人基本信息核查';
 info_fraud_verification_item.item_name[0]='手机号命中诈骗骚扰库'</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
         <is>
           <t>net_tel_fraud=1</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{"user_name":"后静","id_card_no":"510411197203250804","phone":"15598721980"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>{"user_name":"房莉","id_card_no":"370522195007090777","phone":"13969327163"}</t>
         </is>
       </c>
     </row>
@@ -666,42 +706,49 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
         <v>120</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>net_tel_fraud</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
         <is>
           <t>net_tel_fraud=0</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{"user_name":"韩瑞","id_card_no":"532822198506249879","phone":"14570945918"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>{"user_name":"彭磊","id_card_no":"13042119940723599X","phone":"15274168784"}</t>
         </is>
       </c>
     </row>
@@ -710,48 +757,55 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>121</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>net_tel_risk_m</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='手机号命中中风险关注名单'</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
         <is>
           <t>net_tel_risk_m=1</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{"user_name":"令慧","id_card_no":"320322193807081765","phone":"15647374497"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>{"user_name":"宣红霞","id_card_no":"610304199405174129","phone":"13395613546"}</t>
         </is>
       </c>
     </row>
@@ -760,42 +814,49 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
         <v>122</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>net_tel_risk_m</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
         <is>
           <t>net_tel_risk_m=0</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{"user_name":"穆晨","id_card_no":"230224196903031046","phone":"18248421272"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>{"user_name":"马洋","id_card_no":"620500192910137850","phone":"13271027984"}</t>
         </is>
       </c>
     </row>
@@ -804,48 +865,55 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
         <v>123</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>net_tel_risk_l</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='手机号命中低风险关注名单'</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
         <is>
           <t>net_tel_risk_l=1</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{"user_name":"政华","id_card_no":"150201199110178354","phone":"13776000067"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>{"user_name":"惠坤","id_card_no":"140702195309062950","phone":"14507755255"}</t>
         </is>
       </c>
     </row>
@@ -854,42 +922,49 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
         <v>124</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>net_tel_risk_l</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
         <is>
           <t>net_tel_risk_l=0</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{"user_name":"唐刚","id_card_no":"440117197307183136","phone":"18700927962"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>{"user_name":"包桂兰","id_card_no":"110102195610224455","phone":"15144179238"}</t>
         </is>
       </c>
     </row>
@@ -898,48 +973,55 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
         <v>125</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>net_tel_veh</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='手机号命中车辆租赁违约名单'</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
         <is>
           <t>net_tel_veh=1</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{"user_name":"爱欢","id_card_no":"510183198005306248","phone":"18956998232"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>{"user_name":"石峰","id_card_no":"211204195712117995","phone":"13832400598"}</t>
         </is>
       </c>
     </row>
@@ -948,42 +1030,49 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
         <v>126</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>net_tel_veh</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
         <is>
           <t>net_tel_veh=0</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{"user_name":"卓秀荣","id_card_no":"610302195108292048","phone":"14757173538"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>{"user_name":"巫红","id_card_no":"620901193112207562","phone":"15323006189"}</t>
         </is>
       </c>
     </row>
@@ -992,48 +1081,55 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
         <v>127</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>net_tel_debt</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='手机号命中欠款公司法人代表名单'</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
         <is>
           <t>net_tel_debt=1</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{"user_name":"门柳","id_card_no":"131122199004254847","phone":"15809266395"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>{"user_name":"毕红霞","id_card_no":"130111198607146795","phone":"15144392501"}</t>
         </is>
       </c>
     </row>
@@ -1042,42 +1138,49 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
         <v>128</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>net_tel_debt</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
         <is>
           <t>net_tel_debt=0</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{"user_name":"濮宁","id_card_no":"542621196807237244","phone":"14559982301"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>{"user_name":"祝勇","id_card_no":"520400198910038578","phone":"15331397966"}</t>
         </is>
       </c>
     </row>
@@ -1086,48 +1189,55 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
         <v>129</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>net_tel_repay</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='手机号命中信贷逾期后还款名单'</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
         <is>
           <t>net_tel_repay=1</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{"user_name":"狐飞","id_card_no":"420117194311233194","phone":"13455419160"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>{"user_name":"阳浩","id_card_no":"370125198401202053","phone":"18572396171"}</t>
         </is>
       </c>
     </row>
@@ -1136,42 +1246,49 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
         <v>130</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>net_tel_repay</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
         <is>
           <t>net_tel_repay=0</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>{"user_name":"寿颖","id_card_no":"533325199109225651","phone":"13197082840"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>{"user_name":"强秀珍","id_card_no":"210727199701092680","phone":"15676364905"}</t>
         </is>
       </c>
     </row>
@@ -1180,48 +1297,55 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
         <v>131</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>net_idno_crime</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='身份证命中犯罪通缉名单'</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
         <is>
           <t>net_idno_crime=1</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>{"user_name":"堵秀荣","id_card_no":"652100193407140729","phone":"15753637865"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>{"user_name":"红建军","id_card_no":"430681198409108314","phone":"15927681011"}</t>
         </is>
       </c>
     </row>
@@ -1230,42 +1354,49 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
         <v>132</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>net_idno_crime</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
         <is>
           <t>net_idno_crime=0</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{"user_name":"柳柳","id_card_no":"500236199104107352","phone":"15148730874"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>{"user_name":"文艳","id_card_no":"421124193810233578","phone":"18901280560"}</t>
         </is>
       </c>
     </row>
@@ -1274,48 +1405,55 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
         <v>133</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>net_idno_exec</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='手身份证命中法院执行名单'</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
         <is>
           <t>net_idno_exec=1</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{"user_name":"钦秀芳","id_card_no":"450401197308100256","phone":"15340095489"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>{"user_name":"冉红霞","id_card_no":"429005194311230038","phone":"15153947454"}</t>
         </is>
       </c>
     </row>
@@ -1324,42 +1462,49 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
         <v>134</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>net_idno_exec</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
         <is>
           <t>net_idno_exec=0</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>{"user_name":"危婷婷","id_card_no":"360222196103223310","phone":"13870678357"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>{"user_name":"时杰","id_card_no":"150783197107284722","phone":"18687097095"}</t>
         </is>
       </c>
     </row>
@@ -1368,48 +1513,55 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
         <v>135</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>net_idno_end</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='身份证命中法院结案名单'</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
         <is>
           <t>net_idno_end=1</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{"user_name":"关冬梅","id_card_no":"13020419400808037X","phone":"15863095590"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>{"user_name":"巴志强","id_card_no":"152900193711128797","phone":"18261531896"}</t>
         </is>
       </c>
     </row>
@@ -1418,42 +1570,49 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
         <v>136</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>net_idno_end</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
         <is>
           <t>net_idno_end=0</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{"user_name":"门霞","id_card_no":"430703195006186601","phone":"13086836119"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>{"user_name":"盛秀荣","id_card_no":"513437198910142344","phone":"15982252818"}</t>
         </is>
       </c>
     </row>
@@ -1462,48 +1621,55 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
         <v>137</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>net_idno_veh</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='身份证命中车辆租赁违约名单'</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
         <is>
           <t>net_idno_veh=1</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>{"user_name":"娄桂香","id_card_no":"210404196204114397","phone":"15179964083"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>{"user_name":"孟志强","id_card_no":"371422193809071849","phone":"18597901763"}</t>
         </is>
       </c>
     </row>
@@ -1512,42 +1678,49 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
         <v>138</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>net_idno_veh</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
         <is>
           <t>net_idno_veh=0</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{"user_name":"汪勇","id_card_no":"150502199401219171","phone":"13655454808"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>{"user_name":"汝霞","id_card_no":"640122193008138909","phone":"18090210777"}</t>
         </is>
       </c>
     </row>
@@ -1556,48 +1729,55 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
         <v>139</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>net_idno_risk_m</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='身份证命中中风险关注名单'</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
         <is>
           <t>net_idno_risk_m=1</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>{"user_name":"边云","id_card_no":"530127198009030122","phone":"13697344464"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>{"user_name":"魏晶","id_card_no":"350781197412036201","phone":"13873338959"}</t>
         </is>
       </c>
     </row>
@@ -1606,42 +1786,49 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
         <v>140</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>net_idno_risk_m</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
         <is>
           <t>net_idno_risk_m=0</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>{"user_name":"家婷婷","id_card_no":"140200199709058609","phone":"15635659715"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>{"user_name":"司丹","id_card_no":"340802198301164553","phone":"13278269299"}</t>
         </is>
       </c>
     </row>
@@ -1650,48 +1837,55 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
         <v>141</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>net_idno_risk_l</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='身份证命中低风险关注名单'</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
         <is>
           <t>net_idno_risk_l=1</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>{"user_name":"聂英","id_card_no":"410221193607058472","phone":"15960534431"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>{"user_name":"有颖","id_card_no":"500243196602255366","phone":"15841926687"}</t>
         </is>
       </c>
     </row>
@@ -1700,42 +1894,49 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
         <v>142</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>net_idno_risk_l</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
         <is>
           <t>net_idno_risk_l=0</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>{"user_name":"解红","id_card_no":"411701199301280126","phone":"13842735937"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>{"user_name":"茅亮","id_card_no":"21081119390327915X","phone":"15097609051"}</t>
         </is>
       </c>
     </row>
@@ -1744,48 +1945,55 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
         <v>143</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>net_idno_debt</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='身份证命中欠款公司法人代表名单'</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
         <is>
           <t>net_idno_debt=1</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{"user_name":"薄强","id_card_no":"420582196606091582","phone":"18671369987"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>{"user_name":"漆英","id_card_no":"430781195406137322","phone":"18234367294"}</t>
         </is>
       </c>
     </row>
@@ -1794,42 +2002,49 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
         <v>144</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>net_idno_debt</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
         <is>
           <t>net_idno_debt=0</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>{"user_name":"雷欣","id_card_no":"230406194105030865","phone":"18130397905"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>{"user_name":"靳成","id_card_no":"44090419580420659X","phone":"15820833958"}</t>
         </is>
       </c>
     </row>
@@ -1838,48 +2053,55 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
         <v>145</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>net_idno_tax</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='身份证命中欠税名单'</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
         <is>
           <t>net_idno_tax=1</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>{"user_name":"巴倩","id_card_no":"520201196610283578","phone":"14510425855"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>{"user_name":"洪丹丹","id_card_no":"330327193705168134","phone":"15325301802"}</t>
         </is>
       </c>
     </row>
@@ -1888,42 +2110,49 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
         <v>146</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>net_idno_tax</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
         <is>
           <t>net_idno_tax=0</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>{"user_name":"鲜洁","id_card_no":"530630197704252449","phone":"18273199986"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>{"user_name":"皇秀荣","id_card_no":"330421196007297810","phone":"15627462894"}</t>
         </is>
       </c>
     </row>
@@ -1932,48 +2161,55 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
         <v>147</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>net_idno_tax_rep</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='身份证命中欠税公司法人代表名单'</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
         <is>
           <t>net_idno_tax_rep=1</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>{"user_name":"谷荣","id_card_no":"150422195211173290","phone":"18806632600"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>{"user_name":"路志强","id_card_no":"330108196002095200","phone":"13140410450"}</t>
         </is>
       </c>
     </row>
@@ -1982,42 +2218,49 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
         <v>148</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>net_idno_tax_rep</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
         <is>
           <t>net_idno_tax_rep=0</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>{"user_name":"戴雪","id_card_no":"510113199804266647","phone":"18177813568"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>{"user_name":"那玉","id_card_no":"610900192908047178","phone":"14599333616"}</t>
         </is>
       </c>
     </row>
@@ -2026,48 +2269,55 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
         <v>149</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>net_idno_repay</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='身份证命中信贷逾期后还款名单'</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
         <is>
           <t>net_idno_repay=1</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>{"user_name":"薄彬","id_card_no":"420529196606067951","phone":"15869656762"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>{"user_name":"公雪梅","id_card_no":"361130197209051756","phone":"14747994438"}</t>
         </is>
       </c>
     </row>
@@ -2076,42 +2326,49 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
         <v>150</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>net_idno_repay</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
         <is>
           <t>net_idno_repay=0</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>{"user_name":"李平","id_card_no":"530825198710101166","phone":"18823688621"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>{"user_name":"古岩","id_card_no":"51068319710824517X","phone":"13533213474"}</t>
         </is>
       </c>
     </row>
@@ -2120,48 +2377,55 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
         <v>151</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>net_risk_tel_hit_ovdu</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='手机号命中信贷逾期后还款名单'</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
         <is>
           <t>net_risk_tel_hit_ovdu=1</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>{"user_name":"羊慧","id_card_no":"150202196307141312","phone":"15368822990"}</t>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>{"user_name":"经秀云","id_card_no":"141081196104119573","phone":"13997914549"}</t>
         </is>
       </c>
     </row>
@@ -2170,42 +2434,49 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
         <v>152</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>net_risk_tel_hit_ovdu</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
         <is>
           <t>net_risk_tel_hit_ovdu=0</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>{"user_name":"燕倩","id_card_no":"451025195307090288","phone":"13411129193"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>{"user_name":"木静","id_card_no":"341522194102043865","phone":"15182382981"}</t>
         </is>
       </c>
     </row>
@@ -2214,48 +2485,55 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
         <v>153</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>net_risk_tel_hit_high_att</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='手机号命中高风险关注名单'</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
         <is>
           <t>net_risk_tel_hit_high_att=1</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>{"user_name":"虞欢","id_card_no":"421123196612099555","phone":"15621505828"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>{"user_name":"岳红霞","id_card_no":"440982193102221189","phone":"13088965905"}</t>
         </is>
       </c>
     </row>
@@ -2264,42 +2542,49 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
         <v>154</v>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>net_risk_tel_hit_high_att</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
         <is>
           <t>net_risk_tel_hit_high_att=0</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>{"user_name":"谷凤英","id_card_no":"51060019651024273X","phone":"14582255492"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>{"user_name":"乐娜","id_card_no":"500226197310039424","phone":"13657942361"}</t>
         </is>
       </c>
     </row>
@@ -2308,48 +2593,55 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
         <v>155</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>net_risk_idc_hit_ovdu</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='身份证命中信贷逾期名单'</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
         <is>
           <t>net_risk_idc_hit_ovdu=1</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>{"user_name":"延建平","id_card_no":"321301198610177220","phone":"15252075346"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>{"user_name":"宋志强","id_card_no":"350402197009157028","phone":"15272941805"}</t>
         </is>
       </c>
     </row>
@@ -2358,42 +2650,49 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
         <v>156</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>net_risk_idc_hit_ovdu</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
         <is>
           <t>net_risk_idc_hit_ovdu=0</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>{"user_name":"殳兰英","id_card_no":"370124193111240757","phone":"18576858399"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>{"user_name":"雷婷婷","id_card_no":"542121197802101855","phone":"18062178839"}</t>
         </is>
       </c>
     </row>
@@ -2402,48 +2701,55 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
         <v>157</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>net_risk_idc_hit_court_dish</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='身份证命中法院失信名单'</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
         <is>
           <t>net_risk_idc_hit_court_dish=1</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>{"user_name":"郜洋","id_card_no":"520423194602011783","phone":"15918745171"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>{"user_name":"于红霞","id_card_no":"632621194407137407","phone":"13493928942"}</t>
         </is>
       </c>
     </row>
@@ -2452,42 +2758,49 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
         <v>158</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>net_risk_idc_hit_court_dish</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
         <is>
           <t>net_risk_idc_hit_court_dish=0</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>{"user_name":"邵梅","id_card_no":"33070019521022051X","phone":"13356899478"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>{"user_name":"景秀英","id_card_no":"620522199411184759","phone":"15537644996"}</t>
         </is>
       </c>
     </row>
@@ -2496,48 +2809,55 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
         <v>159</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
+      <c r="D46" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>net_risk_idc_hit_high_att</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='身份证命中高风险关注名单'</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
         <is>
           <t>net_risk_idc_hit_high_att=1</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>{"user_name":"竺玉兰","id_card_no":"420600194807127336","phone":"15315101069"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>{"user_name":"蔺莉","id_card_no":"130404193405072660","phone":"15711860908"}</t>
         </is>
       </c>
     </row>
@@ -2546,42 +2866,49 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
         <v>160</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
+      <c r="D47" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>net_risk_idc_hit_high_att</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
         <is>
           <t>net_risk_idc_hit_high_att=0</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>{"user_name":"宫云","id_card_no":"522625197004104989","phone":"14597555066"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>{"user_name":"边丽丽","id_card_no":"522628194204296343","phone":"13055130448"}</t>
         </is>
       </c>
     </row>
@@ -2590,50 +2917,57 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
         <v>161</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
+      <c r="D48" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>net_bah_1d_dev_rel_tel</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='1天内设备使用过多的身份证或手机号进行申请';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1天内设备关联手机号数：7"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
         <is>
           <t>net_bah_1d_dev_rel_tel=7</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>7</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>{"user_name":"燕桂芳","id_card_no":"420115196211130143","phone":"14774089923"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>{"user_name":"龚帅","id_card_no":"410800194311306161","phone":"15037910667"}</t>
         </is>
       </c>
     </row>
@@ -2642,42 +2976,49 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
         <v>162</v>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>net_bah_1d_dev_rel_tel</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
         <is>
           <t>net_bah_1d_dev_rel_tel=0</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>{"user_name":"段强","id_card_no":"140421198812232407","phone":"18513812490"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>{"user_name":"娄琳","id_card_no":"610824194608319367","phone":"13348842158"}</t>
         </is>
       </c>
     </row>
@@ -2686,50 +3027,57 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
         <v>163</v>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
+      <c r="D50" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>net_bah_1d_dev_rel_idc</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='1天内设备使用过多的身份证或手机号进行申请';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1天内设备关联身份证数：9"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
         <is>
           <t>net_bah_1d_dev_rel_idc=9</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>9</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>{"user_name":"江欢","id_card_no":"653128198503191470","phone":"15986950945"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>{"user_name":"湛丹","id_card_no":"37152519520403503X","phone":"14725704034"}</t>
         </is>
       </c>
     </row>
@@ -2738,42 +3086,49 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
         <v>164</v>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>net_bah_1d_dev_rel_idc</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
         <is>
           <t>net_bah_1d_dev_rel_idc=0</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>{"user_name":"弓健","id_card_no":"44011819330413146X","phone":"18866484586"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>{"user_name":"于浩","id_card_no":"371400194712110959","phone":"13596490344"}</t>
         </is>
       </c>
     </row>
@@ -2782,50 +3137,57 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
         <v>165</v>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>net_bah_1d_idc_rel_dev</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='1天内身份证使用过多设备进行申请';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1天内身份证关联设备数：19"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
         <is>
           <t>net_bah_1d_idc_rel_dev=19</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>19</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>{"user_name":"籍雪","id_card_no":"140322196510232083","phone":"13350166086"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>{"user_name":"爱鑫","id_card_no":"63282119391228704X","phone":"14775154257"}</t>
         </is>
       </c>
     </row>
@@ -2834,42 +3196,49 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
         <v>166</v>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>net_bah_1d_idc_rel_dev</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
         <is>
           <t>net_bah_1d_idc_rel_dev=0</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>{"user_name":"慕华","id_card_no":"654323193501244337","phone":"13608997233"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>{"user_name":"宫浩","id_card_no":"140200198211208708","phone":"14707258750"}</t>
         </is>
       </c>
     </row>
@@ -2878,50 +3247,57 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
         <v>167</v>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
+      <c r="D54" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>net_bah_1d_tel_rel_dev</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='1天内手机号使用过多设备进行申请';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1天内手机号关联设备数：5"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
         <is>
           <t>net_bah_1d_tel_rel_dev=5</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>5</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>{"user_name":"弓丹","id_card_no":"330624193703318212","phone":"15280200394"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>{"user_name":"端斌","id_card_no":"130981194802104982","phone":"14580513875"}</t>
         </is>
       </c>
     </row>
@@ -2930,42 +3306,49 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
         <v>168</v>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
+      <c r="D55" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>net_bah_1d_tel_rel_dev</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
         <is>
           <t>net_bah_1d_tel_rel_dev=0</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>{"user_name":"惠燕","id_card_no":"640502194202133440","phone":"15954359117"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>{"user_name":"桓龙","id_card_no":"36102819620503923X","phone":"15526725172"}</t>
         </is>
       </c>
     </row>
@@ -2974,50 +3357,57 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
         <v>169</v>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>net_bah_7d_dev_app</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='7天内设备或身份证或手机号申请次数过多';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"7天内设备申请次数：7"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
         <is>
           <t>net_bah_7d_dev_app=7</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>7</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>{"user_name":"益华","id_card_no":"130729195802205167","phone":"15323454107"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>{"user_name":"乔欢","id_card_no":"331004197911237004","phone":"18979720539"}</t>
         </is>
       </c>
     </row>
@@ -3026,42 +3416,49 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
         <v>170</v>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
+      <c r="D57" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>net_bah_7d_dev_app</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
         <is>
           <t>net_bah_7d_dev_app=0</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>{"user_name":"慕丽丽","id_card_no":"32030320000206067X","phone":"13312984880"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>{"user_name":"娄红","id_card_no":"610629199402141659","phone":"13184930380"}</t>
         </is>
       </c>
     </row>
@@ -3070,50 +3467,57 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
         <v>171</v>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
+      <c r="D58" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>net_bah_7d_idc_app</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='7天内设备或身份证或手机号申请次数过多';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"7天内身份证申请次数：27"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
         <is>
           <t>net_bah_7d_idc_app=27</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>27</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>{"user_name":"东丽华","id_card_no":"640425196307301007","phone":"15593421817"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>{"user_name":"笪军","id_card_no":"35032219980531103X","phone":"18027281234"}</t>
         </is>
       </c>
     </row>
@@ -3122,42 +3526,49 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
         <v>172</v>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>net_bah_7d_idc_app</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
         <is>
           <t>net_bah_7d_idc_app=0</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>{"user_name":"鲁明","id_card_no":"511722199108286441","phone":"18628682420"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>{"user_name":"延坤","id_card_no":"510723198710168625","phone":"18835831205"}</t>
         </is>
       </c>
     </row>
@@ -3166,50 +3577,57 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
         <v>173</v>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
+      <c r="D60" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>net_bah_7d_tel_app</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='7天内设备或身份证或手机号申请次数过多';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"7天内手机号申请次数：34"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
         <is>
           <t>net_bah_7d_tel_app=34</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>34</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>{"user_name":"吉建","id_card_no":"420200196505300591","phone":"15356165581"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>{"user_name":"花小红","id_card_no":"340201195301316358","phone":"18744273558"}</t>
         </is>
       </c>
     </row>
@@ -3218,42 +3636,49 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
         <v>174</v>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>net_bah_7d_tel_app</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
         <is>
           <t>net_bah_7d_tel_app=0</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>{"user_name":"羊娟","id_card_no":"440224198308265196","phone":"14592468075"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>{"user_name":"燕欣","id_card_no":"310115196107296850","phone":"13986459422"}</t>
         </is>
       </c>
     </row>
@@ -3262,50 +3687,57 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
         <v>175</v>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
+      <c r="D62" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>net_bah_7d_dev_rel_idc</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='7天内设备使用过多的身份证或手机号进行申请';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"7天内设备关联身份证数：65"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr">
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
         <is>
           <t>net_bah_7d_dev_rel_idc=65</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>65</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>{"user_name":"费楠","id_card_no":"34112519570921436X","phone":"18678928738"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>{"user_name":"薄建华","id_card_no":"410381193001278632","phone":"13189144474"}</t>
         </is>
       </c>
     </row>
@@ -3314,42 +3746,49 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
         <v>176</v>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>net_bah_7d_dev_rel_idc</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr">
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
         <is>
           <t>net_bah_7d_dev_rel_idc=0</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>{"user_name":"茹利","id_card_no":"460000195704126137","phone":"13980326777"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>{"user_name":"廖杨","id_card_no":"53042419800319123X","phone":"15066423829"}</t>
         </is>
       </c>
     </row>
@@ -3358,50 +3797,57 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
         <v>177</v>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
+      <c r="D64" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>net_bah_7d_dev_rel_tel</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='7天内设备使用过多的身份证或手机号进行申请';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"7天内设备关联手机号数：23"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr">
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
         <is>
           <t>net_bah_7d_dev_rel_tel=23</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>23</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>{"user_name":"乐帅","id_card_no":"140425196604186385","phone":"15924642257"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>{"user_name":"长玉华","id_card_no":"131102193510152509","phone":"13968641269"}</t>
         </is>
       </c>
     </row>
@@ -3410,42 +3856,49 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
         <v>178</v>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
+      <c r="D65" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>net_bah_7d_dev_rel_tel</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr">
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
         <is>
           <t>net_bah_7d_dev_rel_tel=0</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>{"user_name":"邴玉","id_card_no":"500109195205257971","phone":"18579413120"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>{"user_name":"双玉兰","id_card_no":"513332198702179508","phone":"15393529980"}</t>
         </is>
       </c>
     </row>
@@ -3454,50 +3907,57 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
         <v>179</v>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
+      <c r="D66" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>net_bah_7d_idc_rel_dev</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='7天内身份证使用过多设备进行申请';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"7天内身份证关联设备数：45"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr">
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
         <is>
           <t>net_bah_7d_idc_rel_dev=45</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>45</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>{"user_name":"谯莉","id_card_no":"513226196910028470","phone":"14595554489"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>{"user_name":"邵桂芳","id_card_no":"430581198112117222","phone":"15005102227"}</t>
         </is>
       </c>
     </row>
@@ -3506,42 +3966,49 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
         <v>180</v>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
+      <c r="D67" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>net_bah_7d_idc_rel_dev</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
         <is>
           <t>net_bah_7d_idc_rel_dev=0</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>{"user_name":"虞晨","id_card_no":"130427200010220427","phone":"14546105250"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>{"user_name":"洪秀芳","id_card_no":"460105195310158272","phone":"13608033739"}</t>
         </is>
       </c>
     </row>
@@ -3550,50 +4017,57 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
         <v>181</v>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
+      <c r="D68" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t>net_bah_7d_tel_rel_dev</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='7天内手机号使用过多设备进行申请';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"7天内手机号关联设备数：7"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr">
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
         <is>
           <t>net_bah_7d_tel_rel_dev=7</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>7</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>{"user_name":"裴佳","id_card_no":"442000195510177321","phone":"14702476329"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>{"user_name":"咸金凤","id_card_no":"110117197806068072","phone":"18722482548"}</t>
         </is>
       </c>
     </row>
@@ -3602,42 +4076,49 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
         <v>182</v>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
+      <c r="D69" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>net_bah_7d_tel_rel_dev</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr">
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
         <is>
           <t>net_bah_7d_tel_rel_dev=0</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>{"user_name":"相俊","id_card_no":"341723195006136510","phone":"15778140514"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>{"user_name":"麻利","id_card_no":"210102195402266144","phone":"18291904553"}</t>
         </is>
       </c>
     </row>
@@ -3646,50 +4127,57 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
         <v>183</v>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
+      <c r="D70" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>net_bah_1m_dev_app</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='1个月内设备或身份证或手机号申请次数过多';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1个月内设备申请次数：7"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr">
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
         <is>
           <t>net_bah_1m_dev_app=7</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>7</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>{"user_name":"葛云","id_card_no":"44180119401120385X","phone":"15381217031"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>{"user_name":"石勇","id_card_no":"450103195307203736","phone":"13930001502"}</t>
         </is>
       </c>
     </row>
@@ -3698,42 +4186,49 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
         <v>184</v>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
+      <c r="D71" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E71" t="inlineStr">
         <is>
           <t>net_bah_1m_dev_app</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr">
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
         <is>
           <t>net_bah_1m_dev_app=0</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>{"user_name":"董玉珍","id_card_no":"152921193102264760","phone":"14779128818"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>{"user_name":"乐桂芝","id_card_no":"420113199202166612","phone":"15912992669"}</t>
         </is>
       </c>
     </row>
@@ -3742,50 +4237,57 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
         <v>185</v>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
+      <c r="D72" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t>net_bah_1m_idc_app</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='1个月内设备或身份证或手机号申请次数过多';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1个月内身份证申请次数：32"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr">
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
         <is>
           <t>net_bah_1m_idc_app=32</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>32</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>{"user_name":"洪宁","id_card_no":"211322193508098271","phone":"14581027206"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>{"user_name":"钱宁","id_card_no":"360926196209024401","phone":"18069640346"}</t>
         </is>
       </c>
     </row>
@@ -3794,42 +4296,49 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
         <v>186</v>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
+      <c r="D73" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E73" t="inlineStr">
         <is>
           <t>net_bah_1m_idc_app</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr">
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
         <is>
           <t>net_bah_1m_idc_app=0</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>{"user_name":"乐岩","id_card_no":"421100198010167471","phone":"13253526274"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>{"user_name":"文龙","id_card_no":"32032419870606294X","phone":"13300692441"}</t>
         </is>
       </c>
     </row>
@@ -3838,50 +4347,57 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
         <v>187</v>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
+      <c r="D74" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E74" t="inlineStr">
         <is>
           <t>net_bah_1m_tel_app</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='1个月内设备或身份证或手机号申请次数过多';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1个月内手机号申请次数：17"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr">
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
         <is>
           <t>net_bah_1m_tel_app=17</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>17</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>{"user_name":"寿静","id_card_no":"440601194301105252","phone":"18012793090"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>{"user_name":"缪冬梅","id_card_no":"450301198802043102","phone":"18029708668"}</t>
         </is>
       </c>
     </row>
@@ -3890,42 +4406,49 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
         <v>188</v>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
+      <c r="D75" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>net_bah_1m_tel_app</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr">
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
         <is>
           <t>net_bah_1m_tel_app=0</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>{"user_name":"寇瑜","id_card_no":"210600194704259484","phone":"18583785391"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>{"user_name":"袁晶","id_card_no":"360902196607045450","phone":"13886955710"}</t>
         </is>
       </c>
     </row>
@@ -3934,50 +4457,57 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
         <v>189</v>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
+      <c r="D76" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>net_bah_1m_idc_rel_dev</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='1个月内设备或身份证或手机号申请次数过多';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1个月内身份证关联设备数：34"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr">
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
         <is>
           <t>net_bah_1m_idc_rel_dev=34</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>34</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>{"user_name":"禄秀云","id_card_no":"220283194208192162","phone":"15552252312"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>{"user_name":"施丽","id_card_no":"410601198011160272","phone":"13850432053"}</t>
         </is>
       </c>
     </row>
@@ -3986,42 +4516,49 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
         <v>190</v>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
+      <c r="D77" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E77" t="inlineStr">
         <is>
           <t>net_bah_1m_idc_rel_dev</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr">
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
         <is>
           <t>net_bah_1m_idc_rel_dev=0</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>{"user_name":"惠建军","id_card_no":"640122196006198805","phone":"18504035217"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>{"user_name":"丰红","id_card_no":"500236193212156808","phone":"18182224690"}</t>
         </is>
       </c>
     </row>
@@ -4030,50 +4567,57 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
         <v>191</v>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
+      <c r="D78" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E78" t="inlineStr">
         <is>
           <t>net_bah_3m_add_rel_idc</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='3个月家庭地址关联身份证数';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月家庭地址关联身份证数：1"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr">
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
         <is>
           <t>net_bah_3m_add_rel_idc=1</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>{"user_name":"寇丽华","id_card_no":"220302199112236933","phone":"18755227350"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>{"user_name":"伍娜","id_card_no":"431103196507319970","phone":"13132554400"}</t>
         </is>
       </c>
     </row>
@@ -4082,42 +4626,49 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
         <v>192</v>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
+      <c r="D79" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>net_bah_3m_add_rel_idc</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr">
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
         <is>
           <t>net_bah_3m_add_rel_idc=0</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>{"user_name":"公燕","id_card_no":"632524199401011359","phone":"18682389964"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>{"user_name":"危芳","id_card_no":"320300193401293719","phone":"13456350792"}</t>
         </is>
       </c>
     </row>
@@ -4126,50 +4677,57 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
         <v>193</v>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
+      <c r="D80" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E80" t="inlineStr">
         <is>
           <t>net_bah_3m_bcname_rel_idc</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='3个月内银行卡_姓名关联多个身份证';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月内银行卡_姓名关联多个身份证：3"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr">
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
         <is>
           <t>net_bah_3m_bcname_rel_idc=3</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>3</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>{"user_name":"莘娟","id_card_no":"511600194301163471","phone":"15879853562"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>{"user_name":"倪玉珍","id_card_no":"330300198210292064","phone":"13882472889"}</t>
         </is>
       </c>
     </row>
@@ -4178,42 +4736,49 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
         <v>194</v>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
+      <c r="D81" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t>net_bah_3m_bcname_rel_idc</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr">
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
         <is>
           <t>net_bah_3m_bcname_rel_idc=0</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>{"user_name":"俟雪","id_card_no":"340827196706165501","phone":"15320394575"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>{"user_name":"壤晶","id_card_no":"421125197804177949","phone":"15886233271"}</t>
         </is>
       </c>
     </row>
@@ -4222,50 +4787,57 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
         <v>195</v>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
+      <c r="D82" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>net_bah_3m_idc_rel_add</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='3个月身份证关联家庭地址数';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月身份证关联家庭地址数：2"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr">
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
         <is>
           <t>net_bah_3m_idc_rel_add=2</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>2</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>{"user_name":"禄洋","id_card_no":"371002196108191836","phone":"18043287816"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>{"user_name":"舒鹏","id_card_no":"230207192912280621","phone":"13835443974"}</t>
         </is>
       </c>
     </row>
@@ -4274,42 +4846,49 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
         <v>196</v>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
+      <c r="D83" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>net_bah_3m_idc_rel_add</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr">
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
         <is>
           <t>net_bah_3m_idc_rel_add=0</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>{"user_name":"姜晶","id_card_no":"410106193209183746","phone":"13234181127"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>{"user_name":"于秀云","id_card_no":"430201198704108452","phone":"13675110003"}</t>
         </is>
       </c>
     </row>
@@ -4318,50 +4897,57 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
         <v>197</v>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
+      <c r="D84" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E84" t="inlineStr">
         <is>
           <t>net_bah_3m_idc_rel_tel</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='3个月身份证关联手机号数';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月身份证关联手机号数：7"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr">
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
         <is>
           <t>net_bah_3m_idc_rel_tel=7</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>7</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>{"user_name":"邴勇","id_card_no":"350500196210214141","phone":"18906153097"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>{"user_name":"督淑英","id_card_no":"410201199110133280","phone":"18244478794"}</t>
         </is>
       </c>
     </row>
@@ -4370,42 +4956,49 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
         <v>198</v>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
+      <c r="D85" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>net_bah_3m_idc_rel_tel</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
         <is>
           <t>net_bah_3m_idc_rel_tel=0</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>{"user_name":"丰莉","id_card_no":"34012319720523352X","phone":"18532166659"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>{"user_name":"扈芳","id_card_no":"440507196708299046","phone":"18649310119"}</t>
         </is>
       </c>
     </row>
@@ -4414,50 +5007,57 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
         <v>199</v>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
+      <c r="D86" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t>net_bah_3m_idc_rel_bctel</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='3个月身份证关联银行卡预留手机号数';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月身份证关联银行卡预留手机号数：10"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
         <is>
           <t>net_bah_3m_idc_rel_bctel=10</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>10</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>{"user_name":"葛莹","id_card_no":"330624194108114703","phone":"18692833851"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>{"user_name":"房洋","id_card_no":"140400196501206534","phone":"15307286668"}</t>
         </is>
       </c>
     </row>
@@ -4466,42 +5066,49 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
         <v>200</v>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
+      <c r="D87" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E87" t="inlineStr">
         <is>
           <t>net_bah_3m_idc_rel_bctel</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr">
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
         <is>
           <t>net_bah_3m_idc_rel_bctel=0</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>{"user_name":"夏萍","id_card_no":"350902197004043539","phone":"13617074864"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>{"user_name":"利柳","id_card_no":"340207195411116291","phone":"18621913011"}</t>
         </is>
       </c>
     </row>
@@ -4510,50 +5117,57 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
         <v>201</v>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
+      <c r="D88" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>net_bah_3m_idc_rel_mail</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='3个月身份证关联邮箱数';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月身份证关联邮箱数：7"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr">
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
         <is>
           <t>net_bah_3m_idc_rel_mail=7</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>7</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>{"user_name":"伏岩","id_card_no":"431024199806092606","phone":"13461601834"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>{"user_name":"闻秀芳","id_card_no":"43010019360915988X","phone":"15650902160"}</t>
         </is>
       </c>
     </row>
@@ -4562,42 +5176,49 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
         <v>202</v>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
+      <c r="D89" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E89" t="inlineStr">
         <is>
           <t>net_bah_3m_idc_rel_mail</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
         <is>
           <t>net_bah_3m_idc_rel_mail=0</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>{"user_name":"皇红","id_card_no":"640402199205129903","phone":"13823195238"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>{"user_name":"都梅","id_card_no":"469000197511106276","phone":"13414453032"}</t>
         </is>
       </c>
     </row>
@@ -4606,50 +5227,57 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
         <v>203</v>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
+      <c r="D90" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E90" t="inlineStr">
         <is>
           <t>net_bah_3m_tel_rel_bctel</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='3个月手机号关联银行卡预留手机号数';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月手机号关联银行卡预留手机号数：10"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr">
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
         <is>
           <t>net_bah_3m_tel_rel_bctel=10</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>10</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>{"user_name":"宰鑫","id_card_no":"430225196212207544","phone":"13478426661"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>{"user_name":"暨伟","id_card_no":"350128199102019945","phone":"15393163779"}</t>
         </is>
       </c>
     </row>
@@ -4658,42 +5286,49 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
         <v>204</v>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
+      <c r="D91" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E91" t="inlineStr">
         <is>
           <t>net_bah_3m_tel_rel_bctel</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
         <is>
           <t>net_bah_3m_tel_rel_bctel=0</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>{"user_name":"聂婷婷","id_card_no":"321301195411012446","phone":"13990836637"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>{"user_name":"于璐","id_card_no":"510601194909245585","phone":"13761208461"}</t>
         </is>
       </c>
     </row>
@@ -4702,50 +5337,57 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
         <v>205</v>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
+      <c r="D92" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t>net_bah_3m_mail_rel_idc</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='3个月邮箱关联身份证数';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月邮箱关联身份证数：4"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr">
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
         <is>
           <t>net_bah_3m_mail_rel_idc=4</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>4</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>{"user_name":"石鑫","id_card_no":"230126195707138842","phone":"18202392132"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>{"user_name":"鄂秀云","id_card_no":"140922199209055432","phone":"14564542346"}</t>
         </is>
       </c>
     </row>
@@ -4754,42 +5396,49 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
         <v>206</v>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
+      <c r="D93" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>net_bah_3m_mail_rel_idc</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr">
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
         <is>
           <t>net_bah_3m_mail_rel_idc=0</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>{"user_name":"宫玉","id_card_no":"652824197203080098","phone":"15883692791"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>{"user_name":"晏金凤","id_card_no":"420111194004273921","phone":"13078745842"}</t>
         </is>
       </c>
     </row>
@@ -4798,50 +5447,57 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
         <v>207</v>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
+      <c r="D94" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E94" t="inlineStr">
         <is>
           <t>net_bah_3m_tel_rel_idc</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='3个月手机号码关联身份证数';
 info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月手机号码关联身份证数：7"}],"type":"frequency_detail"}'
 </t>
         </is>
       </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr">
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
         <is>
           <t>net_bah_3m_tel_rel_idc=7</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>{"user_name":"夏建华","id_card_no":"520301196209213894","phone":"13657347937"}</t>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>{"user_name":"良旭","id_card_no":"310101196005074722","phone":"18637468277"}</t>
         </is>
       </c>
     </row>
@@ -4850,42 +5506,49 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
         <v>208</v>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
+      <c r="D95" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t>net_bah_3m_tel_rel_idc</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr">
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
         <is>
           <t>net_bah_3m_tel_rel_idc=0</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>{"user_name":"平倩","id_card_no":"632700196205043149","phone":"15826702461"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>{"user_name":"谷丹丹","id_card_no":"350428193912249119","phone":"13531359384"}</t>
         </is>
       </c>
     </row>
@@ -4894,50 +5557,57 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
         <v>209</v>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
+      <c r="D96" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E96" t="inlineStr">
         <is>
           <t>net_apply_7d</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='多平台借贷申请检测';
 info_fraud_verification_item.item_name[0]='7天内申请人在多个平台申请借款';
 info_fraud_verification_item.item_detail[0]='{"platform_count":12,"platform_detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"platform_detail_dimension":[{"count":12,"detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"dimension":"借款人手机详情"},{"count":1,"detail":["P2P网贷:1"],"dimension":"借款人身份证详情"}],"type":"platform_detail"}'
 </t>
         </is>
       </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr">
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
         <is>
           <t>net_apply_7d=12</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>12</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>{"user_name":"牛莉","id_card_no":"210321198109258659","phone":"13563620879"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>{"user_name":"倪红梅","id_card_no":"320722193708013582","phone":"13450222746"}</t>
         </is>
       </c>
     </row>
@@ -4946,42 +5616,49 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
         <v>210</v>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
+      <c r="D97" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t>net_apply_7d</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr">
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
         <is>
           <t>net_apply_7d=0</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>{"user_name":"常利","id_card_no":"320722198910212748","phone":"18988529726"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>{"user_name":"束丹丹","id_card_no":"350601199502192920","phone":"15074350631"}</t>
         </is>
       </c>
     </row>
@@ -4990,50 +5667,57 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
         <v>211</v>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
+      <c r="D98" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E98" t="inlineStr">
         <is>
           <t>net_apply_1m</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='多平台借贷申请检测';
 info_fraud_verification_item.item_name[0]='1个月内申请人在多个平台申请借款';
 info_fraud_verification_item.item_detail[0]='{"platform_count":45,"platform_detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"platform_detail_dimension":[{"count":12,"detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"dimension":"借款人手机详情"},{"count":1,"detail":["P2P网贷:1"],"dimension":"借款人身份证详情"}],"type":"platform_detail"}'
 </t>
         </is>
       </c>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr">
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
         <is>
           <t>net_apply_1m=45</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>45</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>{"user_name":"嵇玉","id_card_no":"654000194511282840","phone":"15792573477"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>{"user_name":"于平","id_card_no":"130634199910248985","phone":"13691595744"}</t>
         </is>
       </c>
     </row>
@@ -5042,42 +5726,49 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
         <v>212</v>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
+      <c r="D99" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E99" t="inlineStr">
         <is>
           <t>net_apply_1m</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr">
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
         <is>
           <t>net_apply_1m=0</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>{"user_name":"戎林","id_card_no":"211281195111247439","phone":"15699316719"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>{"user_name":"米瑞","id_card_no":"450500197109035630","phone":"18891916070"}</t>
         </is>
       </c>
     </row>
@@ -5086,50 +5777,57 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
         <v>213</v>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
+      <c r="D100" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E100" t="inlineStr">
         <is>
           <t>net_apply_3m</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='多平台借贷申请检测';
 info_fraud_verification_item.item_name[0]='3个月内申请人在多个平台申请借款';
 info_fraud_verification_item.item_detail[0]='{"platform_count":12,"platform_detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"platform_detail_dimension":[{"count":12,"detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"dimension":"借款人手机详情"},{"count":1,"detail":["P2P网贷:1"],"dimension":"借款人身份证详情"}],"type":"platform_detail"}'
 </t>
         </is>
       </c>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr">
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
         <is>
           <t>net_apply_3m=12</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>12</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>{"user_name":"饶云","id_card_no":"542231196610013635","phone":"13667385696"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>{"user_name":"佟建华","id_card_no":"130429198706062140","phone":"18096315401"}</t>
         </is>
       </c>
     </row>
@@ -5138,42 +5836,49 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
         <v>214</v>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
+      <c r="D101" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E101" t="inlineStr">
         <is>
           <t>net_apply_3m</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr">
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
         <is>
           <t>net_apply_3m=0</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>{"user_name":"陆琳","id_card_no":"43060119650325400X","phone":"13274014814"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>{"user_name":"缪刚","id_card_no":"44088319940429631X","phone":"15214796563"}</t>
         </is>
       </c>
     </row>
@@ -5182,50 +5887,57 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
         <v>215</v>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
+      <c r="D102" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E102" t="inlineStr">
         <is>
           <t>net_apply_6m</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='多平台借贷申请检测';
 info_fraud_verification_item.item_name[0]='6个月内申请人在多个平台申请借款';
 info_fraud_verification_item.item_detail[0]='{"platform_count":12,"platform_detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"platform_detail_dimension":[{"count":12,"detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"dimension":"借款人手机详情"},{"count":1,"detail":["P2P网贷:1"],"dimension":"借款人身份证详情"}],"type":"platform_detail"}'
 </t>
         </is>
       </c>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr">
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
         <is>
           <t>net_apply_6m=12</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>12</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>{"user_name":"华兵","id_card_no":"610630194112294406","phone":"13100847838"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>{"user_name":"公淑兰","id_card_no":"371000199705244036","phone":"14739555815"}</t>
         </is>
       </c>
     </row>
@@ -5234,42 +5946,49 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
         <v>216</v>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
+      <c r="D103" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E103" t="inlineStr">
         <is>
           <t>net_apply_6m</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr">
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
         <is>
           <t>net_apply_6m=0</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>{"user_name":"童玉","id_card_no":"460205197209149739","phone":"13270766029"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>{"user_name":"尹成","id_card_no":"360731194608124275","phone":"15022677993"}</t>
         </is>
       </c>
     </row>
@@ -5278,50 +5997,57 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
         <v>217</v>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
+      <c r="D104" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E104" t="inlineStr">
         <is>
           <t>net_apply_12m</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='多平台借贷申请检测';
 info_fraud_verification_item.item_name[0]='12个月内申请人在多个平台申请借款';
 info_fraud_verification_item.item_detail[0]='{"platform_count":12,"platform_detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"platform_detail_dimension":[{"count":12,"detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"dimension":"借款人手机详情"},{"count":1,"detail":["P2P网贷:1"],"dimension":"借款人身份证详情"}],"type":"platform_detail"}'
 </t>
         </is>
       </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr">
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
         <is>
           <t>net_apply_12m=12</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>12</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>{"user_name":"殷秀芳","id_card_no":"141127194905191266","phone":"15039078304"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>{"user_name":"步淑英","id_card_no":"230701196711204670","phone":"15622058416"}</t>
         </is>
       </c>
     </row>
@@ -5330,42 +6056,49 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
         <v>218</v>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
+      <c r="D105" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E105" t="inlineStr">
         <is>
           <t>net_apply_12m</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr">
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
         <is>
           <t>net_apply_12m=0</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>{"user_name":"路平","id_card_no":"532600193005015300","phone":"14723863540"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>{"user_name":"禹建","id_card_no":"431229193404222530","phone":"15876481906"}</t>
         </is>
       </c>
     </row>
@@ -5374,48 +6107,55 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
         <v>219</v>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
+      <c r="D106" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E106" t="inlineStr">
         <is>
           <t>net_risk_age_high</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F106" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='个人基本信息核查';
 info_fraud_verification_item.item_name[0]='申请人属于高风险年龄段人群'</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr">
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
         <is>
           <t>net_risk_age_high=1</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>{"user_name":"尚建军","id_card_no":"530127196405175295","phone":"18070384479"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>{"user_name":"芮宇","id_card_no":"540127197101093182","phone":"13463239541"}</t>
         </is>
       </c>
     </row>
@@ -5424,42 +6164,49 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
         <v>220</v>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
+      <c r="D107" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E107" t="inlineStr">
         <is>
           <t>net_risk_age_high</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr">
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
         <is>
           <t>net_risk_age_high=0</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>{"user_name":"阎雪","id_card_no":"610322195408267966","phone":"18884725358"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>{"user_name":"顾淑兰","id_card_no":"320901198306275979","phone":"18525013259"}</t>
         </is>
       </c>
     </row>
@@ -5468,49 +6215,56 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
         <v>221</v>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
+      <c r="D108" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E108" t="inlineStr">
         <is>
           <t>net_idc_name_hit_dish_vague</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='身份证_姓名命中法院失信模糊名单'
 </t>
         </is>
       </c>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr">
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
         <is>
           <t>net_idc_name_hit_dish_vague=1</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>{"user_name":"滑峰","id_card_no":"150101196006198460","phone":"18754721069"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>{"user_name":"能艳","id_card_no":"370214193501286040","phone":"18767685972"}</t>
         </is>
       </c>
     </row>
@@ -5519,42 +6273,49 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
         <v>222</v>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
+      <c r="D109" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E109" t="inlineStr">
         <is>
           <t>net_idc_name_hit_dish_vague</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr">
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
         <is>
           <t>net_idc_name_hit_dish_vague=0</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>{"user_name":"牧静","id_card_no":"150100193809083587","phone":"15644116878"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>{"user_name":"松俊","id_card_no":"120116195706270851","phone":"18206417378"}</t>
         </is>
       </c>
     </row>
@@ -5563,48 +6324,55 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
         <v>223</v>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
+      <c r="D110" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E110" t="inlineStr">
         <is>
           <t>net_idc_name_hit_exec_vague</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F110" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
 info_fraud_verification_item.item_name[0]='身份证_姓名命中法院执行模糊名单'</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr">
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
         <is>
           <t>net_idc_name_hit_exec_vague=1</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>{"user_name":"段凯","id_card_no":"140121199504102887","phone":"15310481815"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>{"user_name":"淳建军","id_card_no":"44098319900512900X","phone":"13053527230"}</t>
         </is>
       </c>
     </row>
@@ -5613,42 +6381,49 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
         <v>224</v>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
+      <c r="D111" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E111" t="inlineStr">
         <is>
           <t>net_idc_name_hit_exec_vague</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr">
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
         <is>
           <t>net_idc_name_hit_exec_vague=0</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>{"user_name":"宋雪梅","id_card_no":"370812197001053337","phone":"13082859208"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>{"user_name":"鄢桂芳","id_card_no":"130431194609056666","phone":"18746690426"}</t>
         </is>
       </c>
     </row>
@@ -5657,43 +6432,50 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
         <v>225</v>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
+      <c r="D112" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E112" t="inlineStr">
         <is>
           <t>net_final_score</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>info_fraud_verification.id;
 info_fraud_verification.final_score=34</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr">
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
         <is>
           <t>net_final_score=34</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>34</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>{"user_name":"茹亮","id_card_no":"429005197909305368","phone":"15762720976"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>{"user_name":"於冬梅","id_card_no":"621122197501289159","phone":"13057900115"}</t>
         </is>
       </c>
     </row>
@@ -5702,42 +6484,47 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
         <v>226</v>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
+      <c r="D113" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E113" t="inlineStr">
         <is>
           <t>net_final_score</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr">
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
         <is>
           <t>net_final_score=</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
-          <t>{"user_name":"衡桂芳","id_card_no":"370827193308267328","phone":"18191429828"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>{"user_name":"祝雪梅","id_card_no":"140802196703017840","phone":"15367950278"}</t>
         </is>
       </c>
     </row>
@@ -5746,24 +6533,25 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
         <v>227</v>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
+      <c r="D114" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E114" t="inlineStr">
         <is>
           <t>net_applicant_idc_3m_morethan2</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F114" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_name[0]='3个月内申请人身份证作为联系人身份证出现的次数大于等于2';
@@ -5771,24 +6559,30 @@
 info_fraud_verification_item.item_name[2]='3个月内申请人身份证作为联系人身份证出现的次数大于等于3'</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr">
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
         <is>
           <t>net_applicant_idc_3m_morethan2=1</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>{"user_name":"汝静","id_card_no":"230882193608073027","phone":"13792171752"}</t>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>{"user_name":"哈萍","id_card_no":"330205196207229109","phone":"18112168926"}</t>
         </is>
       </c>
     </row>
@@ -5797,42 +6591,49 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
         <v>228</v>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
+      <c r="D115" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E115" t="inlineStr">
         <is>
           <t>net_applicant_idc_3m_morethan2</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr">
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
         <is>
           <t>net_applicant_idc_3m_morethan2=0</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>{"user_name":"嵇平","id_card_no":"62082519441014802X","phone":"18090608955"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>{"user_name":"罗勇","id_card_no":"130432196411126361","phone":"14738748184"}</t>
         </is>
       </c>
     </row>
@@ -5841,48 +6642,55 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
         <v>229</v>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
+      <c r="D116" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E116" t="inlineStr">
         <is>
           <t>net_applicant_tel_3m_morethan2</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F116" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_name[0]='3个月内申请人手机号作为联系人手机号出现的次数大于等于2';
 info_fraud_verification_item.item_name[1]='3个月内申请人手机号作为联系人手机号出现的次数大于等于2'</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr">
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
         <is>
           <t>net_applicant_tel_3m_morethan2=1</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>{"user_name":"乐桂芝","id_card_no":"610126195009120646","phone":"14722718919"}</t>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>{"user_name":"应雪梅","id_card_no":"520300194007021792","phone":"18952081556"}</t>
         </is>
       </c>
     </row>
@@ -5891,42 +6699,49 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
         <v>230</v>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
+      <c r="D117" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E117" t="inlineStr">
         <is>
           <t>net_applicant_tel_3m_morethan2</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
       <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr">
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
         <is>
           <t>net_applicant_tel_3m_morethan2=0</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>{"user_name":"延春梅","id_card_no":"621125194302207435","phone":"13216266160"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>{"user_name":"班成","id_card_no":"510901199903178202","phone":"13511582093"}</t>
         </is>
       </c>
     </row>
@@ -5935,48 +6750,55 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
         <v>231</v>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
+      <c r="D118" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E118" t="inlineStr">
         <is>
           <t>net_applicant_tel_3m_morethan2</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F118" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_name[0]='3个月内申请人手机号作为联系人手机数大于等于2';
 info_fraud_verification_item.item_name[1]='3个月内申请人手机号作为联系的次数大于等于2'</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr">
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
         <is>
           <t>net_applicant_tel_3m_morethan2=0</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>{"user_name":"台桂香","id_card_no":"130682199809117586","phone":"18889679896"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>{"user_name":"齐飞","id_card_no":"532322195811130128","phone":"13478134550"}</t>
         </is>
       </c>
     </row>
@@ -5985,24 +6807,25 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
         <v>232</v>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>17001</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
+      <c r="D119" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E119" t="inlineStr">
         <is>
           <t>net_applicant_idc_3m_morethan2</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>info_fraud_verification.id</t>
-        </is>
-      </c>
       <c r="F119" t="inlineStr">
+        <is>
+          <t>info_fraud_verification.id</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_name[0]='3个请人身份证作为联系人身份证出现的次数大于等于2';
@@ -6010,24 +6833,30 @@
 info_fraud_verification_item.item_name[2]='3个月内申请人身份证作为联系证出现的次数大于等于3'</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr">
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
         <is>
           <t>net_applicant_idc_3m_morethan2=0</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>{"user_name":"咎宁","id_card_no":"230714193802055808","phone":"13548942526"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>{"user_name":"于梅","id_card_no":"420921196607167007","phone":"18696508801"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-17001_result.xlsx
+++ b/tests/data/output/一级测试用例-17001_result.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"白志强","id_card_no":"652301196312157369","phone":"15308661321"}</t>
+          <t>{"user_name":"冉婷婷","id_card_no":"611026198708277959","phone":"13231280474"}</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"贲秀珍","id_card_no":"140721196005122321","phone":"18700891789"}</t>
+          <t>{"user_name":"冷凤英","id_card_no":"150725197105106769","phone":"13241568892"}</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"融秀珍","id_card_no":"411330195112301161","phone":"18217760899"}</t>
+          <t>{"user_name":"狐林","id_card_no":"361181195803173992","phone":"13178911497"}</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"萧玉英","id_card_no":"430902193211030695","phone":"15175793659"}</t>
+          <t>{"user_name":"冀丽娟","id_card_no":"210802193907292654","phone":"15973627915"}</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"房莉","id_card_no":"370522195007090777","phone":"13969327163"}</t>
+          <t>{"user_name":"时凤英","id_card_no":"530723196011167601","phone":"13707455834"}</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"彭磊","id_card_no":"13042119940723599X","phone":"15274168784"}</t>
+          <t>{"user_name":"关海燕","id_card_no":"440104195404107337","phone":"13652643161"}</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"宣红霞","id_card_no":"610304199405174129","phone":"13395613546"}</t>
+          <t>{"user_name":"闵瑜","id_card_no":"330603195310028764","phone":"13401984683"}</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"马洋","id_card_no":"620500192910137850","phone":"13271027984"}</t>
+          <t>{"user_name":"吉婷","id_card_no":"320211199106129132","phone":"15538186797"}</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"惠坤","id_card_no":"140702195309062950","phone":"14507755255"}</t>
+          <t>{"user_name":"江桂芝","id_card_no":"51010519990216779X","phone":"15302614304"}</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"包桂兰","id_card_no":"110102195610224455","phone":"15144179238"}</t>
+          <t>{"user_name":"粱博","id_card_no":"441402197411020073","phone":"13923384094"}</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"石峰","id_card_no":"211204195712117995","phone":"13832400598"}</t>
+          <t>{"user_name":"司杨","id_card_no":"370681196006050992","phone":"15729957426"}</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"巫红","id_card_no":"620901193112207562","phone":"15323006189"}</t>
+          <t>{"user_name":"羿红霞","id_card_no":"451100194511027968","phone":"15605648732"}</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"毕红霞","id_card_no":"130111198607146795","phone":"15144392501"}</t>
+          <t>{"user_name":"国杰","id_card_no":"610700197403191280","phone":"15824054154"}</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"祝勇","id_card_no":"520400198910038578","phone":"15331397966"}</t>
+          <t>{"user_name":"红桂香","id_card_no":"451229193304019168","phone":"13066891839"}</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"阳浩","id_card_no":"370125198401202053","phone":"18572396171"}</t>
+          <t>{"user_name":"殳帆","id_card_no":"431124197208088603","phone":"13603965991"}</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"强秀珍","id_card_no":"210727199701092680","phone":"15676364905"}</t>
+          <t>{"user_name":"霍娟","id_card_no":"610828199909025774","phone":"15822779615"}</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"红建军","id_card_no":"430681198409108314","phone":"15927681011"}</t>
+          <t>{"user_name":"孔强","id_card_no":"441721193705194236","phone":"15614286096"}</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"文艳","id_card_no":"421124193810233578","phone":"18901280560"}</t>
+          <t>{"user_name":"东桂英","id_card_no":"430723196601117686","phone":"15697270322"}</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"冉红霞","id_card_no":"429005194311230038","phone":"15153947454"}</t>
+          <t>{"user_name":"司超","id_card_no":"220106195711138346","phone":"13110539609"}</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"时杰","id_card_no":"150783197107284722","phone":"18687097095"}</t>
+          <t>{"user_name":"阳婷婷","id_card_no":"220621199302028866","phone":"15715005956"}</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"巴志强","id_card_no":"152900193711128797","phone":"18261531896"}</t>
+          <t>{"user_name":"古荣","id_card_no":"421102198203030765","phone":"18948467500"}</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"盛秀荣","id_card_no":"513437198910142344","phone":"15982252818"}</t>
+          <t>{"user_name":"辛海燕","id_card_no":"340406200104053145","phone":"13792207262"}</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"孟志强","id_card_no":"371422193809071849","phone":"18597901763"}</t>
+          <t>{"user_name":"蔺浩","id_card_no":"622900195101176216","phone":"13472484272"}</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"汝霞","id_card_no":"640122193008138909","phone":"18090210777"}</t>
+          <t>{"user_name":"万秀荣","id_card_no":"411623197107122232","phone":"18800600176"}</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"user_name":"魏晶","id_card_no":"350781197412036201","phone":"13873338959"}</t>
+          <t>{"user_name":"上莉","id_card_no":"441200197712269098","phone":"14590240128"}</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"user_name":"司丹","id_card_no":"340802198301164553","phone":"13278269299"}</t>
+          <t>{"user_name":"父玉英","id_card_no":"654322194603051147","phone":"15806824122"}</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"user_name":"有颖","id_card_no":"500243196602255366","phone":"15841926687"}</t>
+          <t>{"user_name":"仉彬","id_card_no":"450311198501227453","phone":"14578136469"}</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"user_name":"茅亮","id_card_no":"21081119390327915X","phone":"15097609051"}</t>
+          <t>{"user_name":"岑冬梅","id_card_no":"33048119510603476X","phone":"15555471633"}</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"user_name":"漆英","id_card_no":"430781195406137322","phone":"18234367294"}</t>
+          <t>{"user_name":"孙洁","id_card_no":"411422199510217604","phone":"18700723779"}</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"user_name":"靳成","id_card_no":"44090419580420659X","phone":"15820833958"}</t>
+          <t>{"user_name":"弓勇","id_card_no":"632500200007029811","phone":"18850402899"}</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"user_name":"洪丹丹","id_card_no":"330327193705168134","phone":"15325301802"}</t>
+          <t>{"user_name":"戴宁","id_card_no":"341700193804246008","phone":"15706642791"}</t>
         </is>
       </c>
     </row>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"user_name":"皇秀荣","id_card_no":"330421196007297810","phone":"15627462894"}</t>
+          <t>{"user_name":"乐磊","id_card_no":"230505193506257969","phone":"13525545091"}</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"user_name":"路志强","id_card_no":"330108196002095200","phone":"13140410450"}</t>
+          <t>{"user_name":"韦琳","id_card_no":"420526197512165265","phone":"13835843484"}</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"user_name":"那玉","id_card_no":"610900192908047178","phone":"14599333616"}</t>
+          <t>{"user_name":"辛坤","id_card_no":"350622194201249179","phone":"18689853786"}</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"user_name":"公雪梅","id_card_no":"361130197209051756","phone":"14747994438"}</t>
+          <t>{"user_name":"公燕","id_card_no":"510921194601131954","phone":"13617319802"}</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"user_name":"古岩","id_card_no":"51068319710824517X","phone":"13533213474"}</t>
+          <t>{"user_name":"鱼宁","id_card_no":"220722195101040221","phone":"13579367442"}</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
         <is>
           <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
-info_fraud_verification_item.item_name[0]='手机号命中信贷逾期后还款名单'</t>
+info_fraud_verification_item.item_name[0]='手机号命中信贷逾期名单'</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -2416,16 +2416,16 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>{"user_name":"经秀云","id_card_no":"141081196104119573","phone":"13997914549"}</t>
+          <t>{"user_name":"辕亮","id_card_no":"410822193507214043","phone":"13534050116"}</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"user_name":"木静","id_card_no":"341522194102043865","phone":"15182382981"}</t>
+          <t>{"user_name":"訾琳","id_card_no":"530181199705195724","phone":"13390176085"}</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"user_name":"岳红霞","id_card_no":"440982193102221189","phone":"13088965905"}</t>
+          <t>{"user_name":"岳玲","id_card_no":"441621196205256398","phone":"13394336003"}</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"user_name":"乐娜","id_card_no":"500226197310039424","phone":"13657942361"}</t>
+          <t>{"user_name":"岑冬梅","id_card_no":"520113195707190138","phone":"18011147578"}</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"user_name":"宋志强","id_card_no":"350402197009157028","phone":"15272941805"}</t>
+          <t>{"user_name":"羿琳","id_card_no":"411324197606018026","phone":"13057938137"}</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"user_name":"雷婷婷","id_card_no":"542121197802101855","phone":"18062178839"}</t>
+          <t>{"user_name":"易彬","id_card_no":"130207193006016651","phone":"18027875153"}</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"user_name":"于红霞","id_card_no":"632621194407137407","phone":"13493928942"}</t>
+          <t>{"user_name":"卓鹏","id_card_no":"230124198901203338","phone":"13376926518"}</t>
         </is>
       </c>
     </row>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"user_name":"景秀英","id_card_no":"620522199411184759","phone":"15537644996"}</t>
+          <t>{"user_name":"文欢","id_card_no":"360123195702063298","phone":"18095831585"}</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"user_name":"蔺莉","id_card_no":"130404193405072660","phone":"15711860908"}</t>
+          <t>{"user_name":"轩伟","id_card_no":"210423195906054397","phone":"18626346278"}</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"user_name":"边丽丽","id_card_no":"522628194204296343","phone":"13055130448"}</t>
+          <t>{"user_name":"屠秀华","id_card_no":"632621196904190451","phone":"15042624865"}</t>
         </is>
       </c>
     </row>
@@ -2937,11 +2937,10 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='1天内设备使用过多的身份证或手机号进行申请';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1天内设备关联手机号数：7"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1天内设备关联手机号数：7"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -2967,7 +2966,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>{"user_name":"龚帅","id_card_no":"410800194311306161","phone":"15037910667"}</t>
+          <t>{"user_name":"费明","id_card_no":"451026193709296112","phone":"15721212055"}</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3017,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>{"user_name":"娄琳","id_card_no":"610824194608319367","phone":"13348842158"}</t>
+          <t>{"user_name":"甄琳","id_card_no":"511502197909135568","phone":"13786631690"}</t>
         </is>
       </c>
     </row>
@@ -3047,11 +3046,10 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='1天内设备使用过多的身份证或手机号进行申请';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1天内设备关联身份证数：9"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1天内设备关联身份证数：9"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -3077,7 +3075,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>{"user_name":"湛丹","id_card_no":"37152519520403503X","phone":"14725704034"}</t>
+          <t>{"user_name":"谷亮","id_card_no":"131081196309028868","phone":"13005683492"}</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3126,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>{"user_name":"于浩","id_card_no":"371400194712110959","phone":"13596490344"}</t>
+          <t>{"user_name":"汤琳","id_card_no":"510106193804018132","phone":"13726581099"}</t>
         </is>
       </c>
     </row>
@@ -3157,11 +3155,10 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='1天内身份证使用过多设备进行申请';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1天内身份证关联设备数：19"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1天内身份证关联设备数：19"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -3187,7 +3184,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>{"user_name":"爱鑫","id_card_no":"63282119391228704X","phone":"14775154257"}</t>
+          <t>{"user_name":"阮勇","id_card_no":"542623199512304477","phone":"13187757813"}</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3235,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>{"user_name":"宫浩","id_card_no":"140200198211208708","phone":"14707258750"}</t>
+          <t>{"user_name":"符峰","id_card_no":"370523198909159729","phone":"13828643681"}</t>
         </is>
       </c>
     </row>
@@ -3267,11 +3264,10 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='1天内手机号使用过多设备进行申请';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1天内手机号关联设备数：5"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1天内手机号关联设备数：5"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -3297,7 +3293,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>{"user_name":"端斌","id_card_no":"130981194802104982","phone":"14580513875"}</t>
+          <t>{"user_name":"管敏","id_card_no":"230101193601161140","phone":"13704564812"}</t>
         </is>
       </c>
     </row>
@@ -3348,7 +3344,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>{"user_name":"桓龙","id_card_no":"36102819620503923X","phone":"15526725172"}</t>
+          <t>{"user_name":"米慧","id_card_no":"430321199907060781","phone":"13726050439"}</t>
         </is>
       </c>
     </row>
@@ -3377,11 +3373,10 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='7天内设备或身份证或手机号申请次数过多';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"7天内设备申请次数：7"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"7天内设备申请次数：7"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -3407,7 +3402,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>{"user_name":"乔欢","id_card_no":"331004197911237004","phone":"18979720539"}</t>
+          <t>{"user_name":"勾浩","id_card_no":"420504200002172728","phone":"13041576467"}</t>
         </is>
       </c>
     </row>
@@ -3458,7 +3453,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>{"user_name":"娄红","id_card_no":"610629199402141659","phone":"13184930380"}</t>
+          <t>{"user_name":"居强","id_card_no":"130526197104296179","phone":"13316312952"}</t>
         </is>
       </c>
     </row>
@@ -3487,11 +3482,10 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='7天内设备或身份证或手机号申请次数过多';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"7天内身份证申请次数：27"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"7天内身份证申请次数：27"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -3517,7 +3511,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>{"user_name":"笪军","id_card_no":"35032219980531103X","phone":"18027281234"}</t>
+          <t>{"user_name":"卢强","id_card_no":"140424195312099692","phone":"18173462317"}</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3562,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>{"user_name":"延坤","id_card_no":"510723198710168625","phone":"18835831205"}</t>
+          <t>{"user_name":"归红","id_card_no":"445322198904126130","phone":"15920064353"}</t>
         </is>
       </c>
     </row>
@@ -3597,11 +3591,10 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='7天内设备或身份证或手机号申请次数过多';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"7天内手机号申请次数：34"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"7天内手机号申请次数：34"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -3627,7 +3620,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>{"user_name":"花小红","id_card_no":"340201195301316358","phone":"18744273558"}</t>
+          <t>{"user_name":"淳浩","id_card_no":"520303197711107461","phone":"15791668570"}</t>
         </is>
       </c>
     </row>
@@ -3678,7 +3671,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>{"user_name":"燕欣","id_card_no":"310115196107296850","phone":"13986459422"}</t>
+          <t>{"user_name":"养英","id_card_no":"371727193112163733","phone":"13095276169"}</t>
         </is>
       </c>
     </row>
@@ -3707,11 +3700,10 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='7天内设备使用过多的身份证或手机号进行申请';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"7天内设备关联身份证数：65"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"7天内设备关联身份证数：65"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -3737,7 +3729,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>{"user_name":"薄建华","id_card_no":"410381193001278632","phone":"13189144474"}</t>
+          <t>{"user_name":"卞军","id_card_no":"42010020010611519X","phone":"15236609857"}</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3780,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>{"user_name":"廖杨","id_card_no":"53042419800319123X","phone":"15066423829"}</t>
+          <t>{"user_name":"武云","id_card_no":"445303197804118201","phone":"13135164624"}</t>
         </is>
       </c>
     </row>
@@ -3817,11 +3809,10 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='7天内设备使用过多的身份证或手机号进行申请';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"7天内设备关联手机号数：23"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"7天内设备关联手机号数：23"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -3847,7 +3838,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>{"user_name":"长玉华","id_card_no":"131102193510152509","phone":"13968641269"}</t>
+          <t>{"user_name":"应凤兰","id_card_no":"330824196408231549","phone":"15665605069"}</t>
         </is>
       </c>
     </row>
@@ -3898,7 +3889,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>{"user_name":"双玉兰","id_card_no":"513332198702179508","phone":"15393529980"}</t>
+          <t>{"user_name":"丘玲","id_card_no":"13082519520526023X","phone":"18694744194"}</t>
         </is>
       </c>
     </row>
@@ -3927,11 +3918,10 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='7天内身份证使用过多设备进行申请';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"7天内身份证关联设备数：45"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"7天内身份证关联设备数：45"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -3957,7 +3947,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>{"user_name":"邵桂芳","id_card_no":"430581198112117222","phone":"15005102227"}</t>
+          <t>{"user_name":"阳秀云","id_card_no":"522623194304139335","phone":"13386085406"}</t>
         </is>
       </c>
     </row>
@@ -4008,7 +3998,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>{"user_name":"洪秀芳","id_card_no":"460105195310158272","phone":"13608033739"}</t>
+          <t>{"user_name":"潘淑兰","id_card_no":"210803199206205216","phone":"18802427165"}</t>
         </is>
       </c>
     </row>
@@ -4037,11 +4027,10 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='7天内手机号使用过多设备进行申请';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"7天内手机号关联设备数：7"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"7天内手机号关联设备数：7"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -4067,7 +4056,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>{"user_name":"咸金凤","id_card_no":"110117197806068072","phone":"18722482548"}</t>
+          <t>{"user_name":"吕明","id_card_no":"522702198211226458","phone":"15778934486"}</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4107,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>{"user_name":"麻利","id_card_no":"210102195402266144","phone":"18291904553"}</t>
+          <t>{"user_name":"辛华","id_card_no":"330102198401241499","phone":"13684515136"}</t>
         </is>
       </c>
     </row>
@@ -4147,11 +4136,10 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='1个月内设备或身份证或手机号申请次数过多';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1个月内设备申请次数：7"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1个月内设备申请次数：7"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -4177,7 +4165,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>{"user_name":"石勇","id_card_no":"450103195307203736","phone":"13930001502"}</t>
+          <t>{"user_name":"刁洋","id_card_no":"370811195902023164","phone":"18578365907"}</t>
         </is>
       </c>
     </row>
@@ -4228,7 +4216,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>{"user_name":"乐桂芝","id_card_no":"420113199202166612","phone":"15912992669"}</t>
+          <t>{"user_name":"滕超","id_card_no":"513200194706014810","phone":"13984883390"}</t>
         </is>
       </c>
     </row>
@@ -4257,11 +4245,10 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='1个月内设备或身份证或手机号申请次数过多';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1个月内身份证申请次数：32"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1个月内身份证申请次数：32"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -4287,7 +4274,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>{"user_name":"钱宁","id_card_no":"360926196209024401","phone":"18069640346"}</t>
+          <t>{"user_name":"西玉珍","id_card_no":"231005198209308586","phone":"18517311729"}</t>
         </is>
       </c>
     </row>
@@ -4338,7 +4325,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>{"user_name":"文龙","id_card_no":"32032419870606294X","phone":"13300692441"}</t>
+          <t>{"user_name":"訾丹丹","id_card_no":"150924199806259964","phone":"18079266950"}</t>
         </is>
       </c>
     </row>
@@ -4367,11 +4354,10 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='1个月内设备或身份证或手机号申请次数过多';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1个月内手机号申请次数：17"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1个月内手机号申请次数：17"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -4397,7 +4383,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>{"user_name":"缪冬梅","id_card_no":"450301198802043102","phone":"18029708668"}</t>
+          <t>{"user_name":"容秀英","id_card_no":"37110119990516442X","phone":"15515991064"}</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4434,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>{"user_name":"袁晶","id_card_no":"360902196607045450","phone":"13886955710"}</t>
+          <t>{"user_name":"裘想","id_card_no":"230711196612149082","phone":"15866526114"}</t>
         </is>
       </c>
     </row>
@@ -4477,11 +4463,10 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='1个月内设备或身份证或手机号申请次数过多';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1个月内身份证关联设备数：34"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"1个月内身份证关联设备数：34"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -4507,7 +4492,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>{"user_name":"施丽","id_card_no":"410601198011160272","phone":"13850432053"}</t>
+          <t>{"user_name":"牧燕","id_card_no":"330902193312281975","phone":"13868666101"}</t>
         </is>
       </c>
     </row>
@@ -4558,7 +4543,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>{"user_name":"丰红","id_card_no":"500236193212156808","phone":"18182224690"}</t>
+          <t>{"user_name":"符磊","id_card_no":"430401196507259990","phone":"13426806440"}</t>
         </is>
       </c>
     </row>
@@ -4587,11 +4572,10 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='3个月家庭地址关联身份证数';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月家庭地址关联身份证数：1"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月家庭地址关联身份证数：1"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -4617,7 +4601,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>{"user_name":"伍娜","id_card_no":"431103196507319970","phone":"13132554400"}</t>
+          <t>{"user_name":"涂淑英","id_card_no":"53040119520819775X","phone":"13452697154"}</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4652,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>{"user_name":"危芳","id_card_no":"320300193401293719","phone":"13456350792"}</t>
+          <t>{"user_name":"翟兵","id_card_no":"230900196505099093","phone":"15719840961"}</t>
         </is>
       </c>
     </row>
@@ -4697,11 +4681,10 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='3个月内银行卡_姓名关联多个身份证';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月内银行卡_姓名关联多个身份证：3"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月内银行卡_姓名关联多个身份证：3"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -4727,7 +4710,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>{"user_name":"倪玉珍","id_card_no":"330300198210292064","phone":"13882472889"}</t>
+          <t>{"user_name":"诸红梅","id_card_no":"520522199202275773","phone":"18095071433"}</t>
         </is>
       </c>
     </row>
@@ -4778,7 +4761,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>{"user_name":"壤晶","id_card_no":"421125197804177949","phone":"15886233271"}</t>
+          <t>{"user_name":"索磊","id_card_no":"411101193110219816","phone":"15505477927"}</t>
         </is>
       </c>
     </row>
@@ -4807,11 +4790,10 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='3个月身份证关联家庭地址数';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月身份证关联家庭地址数：2"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月身份证关联家庭地址数：2"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -4837,7 +4819,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>{"user_name":"舒鹏","id_card_no":"230207192912280621","phone":"13835443974"}</t>
+          <t>{"user_name":"迟涛","id_card_no":"620801198506028193","phone":"13692958236"}</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4870,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>{"user_name":"于秀云","id_card_no":"430201198704108452","phone":"13675110003"}</t>
+          <t>{"user_name":"闵芳","id_card_no":"620900194505318659","phone":"18703787566"}</t>
         </is>
       </c>
     </row>
@@ -4917,11 +4899,10 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='3个月身份证关联手机号数';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月身份证关联手机号数：7"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月身份证关联手机号数：7"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -4947,7 +4928,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>{"user_name":"督淑英","id_card_no":"410201199110133280","phone":"18244478794"}</t>
+          <t>{"user_name":"越霞","id_card_no":"510900198011115395","phone":"13317710336"}</t>
         </is>
       </c>
     </row>
@@ -4998,7 +4979,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>{"user_name":"扈芳","id_card_no":"440507196708299046","phone":"18649310119"}</t>
+          <t>{"user_name":"迟凤英","id_card_no":"15092219630530621X","phone":"13783679668"}</t>
         </is>
       </c>
     </row>
@@ -5027,11 +5008,10 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='3个月身份证关联银行卡预留手机号数';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月身份证关联银行卡预留手机号数：10"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月身份证关联银行卡预留手机号数：10"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -5057,7 +5037,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>{"user_name":"房洋","id_card_no":"140400196501206534","phone":"15307286668"}</t>
+          <t>{"user_name":"苏秀英","id_card_no":"321182198210292817","phone":"15696599922"}</t>
         </is>
       </c>
     </row>
@@ -5108,7 +5088,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>{"user_name":"利柳","id_card_no":"340207195411116291","phone":"18621913011"}</t>
+          <t>{"user_name":"鄂桂荣","id_card_no":"511801198306103641","phone":"15870383268"}</t>
         </is>
       </c>
     </row>
@@ -5137,11 +5117,10 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='3个月身份证关联邮箱数';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月身份证关联邮箱数：7"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月身份证关联邮箱数：7"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -5167,7 +5146,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>{"user_name":"闻秀芳","id_card_no":"43010019360915988X","phone":"15650902160"}</t>
+          <t>{"user_name":"山丹丹","id_card_no":"510501193312057557","phone":"15397556166"}</t>
         </is>
       </c>
     </row>
@@ -5218,7 +5197,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>{"user_name":"都梅","id_card_no":"469000197511106276","phone":"13414453032"}</t>
+          <t>{"user_name":"和军","id_card_no":"510411196008058118","phone":"13993391840"}</t>
         </is>
       </c>
     </row>
@@ -5247,11 +5226,10 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='3个月手机号关联银行卡预留手机号数';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月手机号关联银行卡预留手机号数：10"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月手机号关联银行卡预留手机号数：10"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -5277,7 +5255,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>{"user_name":"暨伟","id_card_no":"350128199102019945","phone":"15393163779"}</t>
+          <t>{"user_name":"和成","id_card_no":"35050119480406319X","phone":"18773851145"}</t>
         </is>
       </c>
     </row>
@@ -5328,7 +5306,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>{"user_name":"于璐","id_card_no":"510601194909245585","phone":"13761208461"}</t>
+          <t>{"user_name":"劳超","id_card_no":"53092419780207717X","phone":"13065169971"}</t>
         </is>
       </c>
     </row>
@@ -5357,11 +5335,10 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='3个月邮箱关联身份证数';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月邮箱关联身份证数：4"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月邮箱关联身份证数：4"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -5387,7 +5364,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>{"user_name":"鄂秀云","id_card_no":"140922199209055432","phone":"14564542346"}</t>
+          <t>{"user_name":"缪莹","id_card_no":"653222196601244482","phone":"15643712644"}</t>
         </is>
       </c>
     </row>
@@ -5438,7 +5415,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>{"user_name":"晏金凤","id_card_no":"420111194004273921","phone":"13078745842"}</t>
+          <t>{"user_name":"席伟","id_card_no":"370113194601214864","phone":"15955894123"}</t>
         </is>
       </c>
     </row>
@@ -5467,11 +5444,10 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='客户行为检测';
 info_fraud_verification_item.item_name[0]='3个月手机号码关联身份证数';
-info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月手机号码关联身份证数：7"}],"type":"frequency_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"frequency_detail_list":[{"detail":"1月内_身份证_出现次数_本应用：7"},{"detail":"3个月手机号码关联身份证数：7"}],"type":"frequency_detail"}'</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -5488,16 +5464,16 @@
         </is>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>{"user_name":"良旭","id_card_no":"310101196005074722","phone":"18637468277"}</t>
+          <t>{"user_name":"徒云","id_card_no":"330825198004161332","phone":"13336025454"}</t>
         </is>
       </c>
     </row>
@@ -5548,7 +5524,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>{"user_name":"谷丹丹","id_card_no":"350428193912249119","phone":"13531359384"}</t>
+          <t>{"user_name":"后艳","id_card_no":"500240197007211444","phone":"18802645019"}</t>
         </is>
       </c>
     </row>
@@ -5577,11 +5553,10 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='多平台借贷申请检测';
 info_fraud_verification_item.item_name[0]='7天内申请人在多个平台申请借款';
-info_fraud_verification_item.item_detail[0]='{"platform_count":12,"platform_detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"platform_detail_dimension":[{"count":12,"detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"dimension":"借款人手机详情"},{"count":1,"detail":["P2P网贷:1"],"dimension":"借款人身份证详情"}],"type":"platform_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"platform_count":12,"platform_detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"platform_detail_dimension":[{"count":12,"detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"dimension":"借款人手机详情"},{"count":1,"detail":["P2P网贷:1"],"dimension":"借款人身份证详情"}],"type":"platform_detail"}'</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -5607,7 +5582,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>{"user_name":"倪红梅","id_card_no":"320722193708013582","phone":"13450222746"}</t>
+          <t>{"user_name":"人桂英","id_card_no":"320826193911308205","phone":"13772823694"}</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5633,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>{"user_name":"束丹丹","id_card_no":"350601199502192920","phone":"15074350631"}</t>
+          <t>{"user_name":"牟春梅","id_card_no":"410803193812146463","phone":"18025163642"}</t>
         </is>
       </c>
     </row>
@@ -5687,11 +5662,10 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='多平台借贷申请检测';
 info_fraud_verification_item.item_name[0]='1个月内申请人在多个平台申请借款';
-info_fraud_verification_item.item_detail[0]='{"platform_count":45,"platform_detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"platform_detail_dimension":[{"count":12,"detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"dimension":"借款人手机详情"},{"count":1,"detail":["P2P网贷:1"],"dimension":"借款人身份证详情"}],"type":"platform_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"platform_count":45,"platform_detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"platform_detail_dimension":[{"count":12,"detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"dimension":"借款人手机详情"},{"count":1,"detail":["P2P网贷:1"],"dimension":"借款人身份证详情"}],"type":"platform_detail"}'</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -5717,7 +5691,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>{"user_name":"于平","id_card_no":"130634199910248985","phone":"13691595744"}</t>
+          <t>{"user_name":"亢峰","id_card_no":"52262519890430346X","phone":"18501468758"}</t>
         </is>
       </c>
     </row>
@@ -5768,7 +5742,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>{"user_name":"米瑞","id_card_no":"450500197109035630","phone":"18891916070"}</t>
+          <t>{"user_name":"潘建华","id_card_no":"330703196607161566","phone":"14762619178"}</t>
         </is>
       </c>
     </row>
@@ -5797,11 +5771,10 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='多平台借贷申请检测';
 info_fraud_verification_item.item_name[0]='3个月内申请人在多个平台申请借款';
-info_fraud_verification_item.item_detail[0]='{"platform_count":12,"platform_detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"platform_detail_dimension":[{"count":12,"detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"dimension":"借款人手机详情"},{"count":1,"detail":["P2P网贷:1"],"dimension":"借款人身份证详情"}],"type":"platform_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"platform_count":12,"platform_detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"platform_detail_dimension":[{"count":12,"detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"dimension":"借款人手机详情"},{"count":1,"detail":["P2P网贷:1"],"dimension":"借款人身份证详情"}],"type":"platform_detail"}'</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -5827,7 +5800,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>{"user_name":"佟建华","id_card_no":"130429198706062140","phone":"18096315401"}</t>
+          <t>{"user_name":"惠杰","id_card_no":"371422198305133359","phone":"14580086911"}</t>
         </is>
       </c>
     </row>
@@ -5878,7 +5851,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>{"user_name":"缪刚","id_card_no":"44088319940429631X","phone":"15214796563"}</t>
+          <t>{"user_name":"贝玉梅","id_card_no":"341722195202105723","phone":"18228106707"}</t>
         </is>
       </c>
     </row>
@@ -5907,11 +5880,10 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='多平台借贷申请检测';
 info_fraud_verification_item.item_name[0]='6个月内申请人在多个平台申请借款';
-info_fraud_verification_item.item_detail[0]='{"platform_count":12,"platform_detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"platform_detail_dimension":[{"count":12,"detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"dimension":"借款人手机详情"},{"count":1,"detail":["P2P网贷:1"],"dimension":"借款人身份证详情"}],"type":"platform_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"platform_count":12,"platform_detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"platform_detail_dimension":[{"count":12,"detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"dimension":"借款人手机详情"},{"count":1,"detail":["P2P网贷:1"],"dimension":"借款人身份证详情"}],"type":"platform_detail"}'</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -5937,7 +5909,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>{"user_name":"公淑兰","id_card_no":"371000199705244036","phone":"14739555815"}</t>
+          <t>{"user_name":"巴桂英","id_card_no":"500113198802051398","phone":"18285096543"}</t>
         </is>
       </c>
     </row>
@@ -5988,7 +5960,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>{"user_name":"尹成","id_card_no":"360731194608124275","phone":"15022677993"}</t>
+          <t>{"user_name":"易杰","id_card_no":"231100197001046037","phone":"13435267885"}</t>
         </is>
       </c>
     </row>
@@ -6017,11 +5989,10 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='多平台借贷申请检测';
 info_fraud_verification_item.item_name[0]='12个月内申请人在多个平台申请借款';
-info_fraud_verification_item.item_detail[0]='{"platform_count":12,"platform_detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"platform_detail_dimension":[{"count":12,"detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"dimension":"借款人手机详情"},{"count":1,"detail":["P2P网贷:1"],"dimension":"借款人身份证详情"}],"type":"platform_detail"}'
-</t>
+info_fraud_verification_item.item_detail[0]='{"platform_count":12,"platform_detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"platform_detail_dimension":[{"count":12,"detail":["银行消费金融公司:1","直销银行:1","信用卡中心:1","网上银行:1","小额贷款公司:3","P2P网贷:3","大型消费金融公司:2"],"dimension":"借款人手机详情"},{"count":1,"detail":["P2P网贷:1"],"dimension":"借款人身份证详情"}],"type":"platform_detail"}'</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -6047,7 +6018,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>{"user_name":"步淑英","id_card_no":"230701196711204670","phone":"15622058416"}</t>
+          <t>{"user_name":"西楠","id_card_no":"621228195711173562","phone":"13976427113"}</t>
         </is>
       </c>
     </row>
@@ -6098,7 +6069,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>{"user_name":"禹建","id_card_no":"431229193404222530","phone":"15876481906"}</t>
+          <t>{"user_name":"爱楠","id_card_no":"431321194402189780","phone":"15965788970"}</t>
         </is>
       </c>
     </row>
@@ -6155,7 +6126,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>{"user_name":"芮宇","id_card_no":"540127197101093182","phone":"13463239541"}</t>
+          <t>{"user_name":"闵玉","id_card_no":"350825193207141818","phone":"13667257538"}</t>
         </is>
       </c>
     </row>
@@ -6206,7 +6177,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>{"user_name":"顾淑兰","id_card_no":"320901198306275979","phone":"18525013259"}</t>
+          <t>{"user_name":"钭畅","id_card_no":"370831196803306628","phone":"15910729563"}</t>
         </is>
       </c>
     </row>
@@ -6235,10 +6206,9 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
+          <t>info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='风险信息扫描';
-info_fraud_verification_item.item_name[0]='身份证_姓名命中法院失信模糊名单'
-</t>
+info_fraud_verification_item.item_name[0]='身份证_姓名命中法院失信模糊名单'</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
@@ -6264,7 +6234,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>{"user_name":"能艳","id_card_no":"370214193501286040","phone":"18767685972"}</t>
+          <t>{"user_name":"汝梅","id_card_no":"430701194003247109","phone":"15199669974"}</t>
         </is>
       </c>
     </row>
@@ -6315,7 +6285,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>{"user_name":"松俊","id_card_no":"120116195706270851","phone":"18206417378"}</t>
+          <t>{"user_name":"贝建国","id_card_no":"130324199307199825","phone":"15160460441"}</t>
         </is>
       </c>
     </row>
@@ -6372,7 +6342,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>{"user_name":"淳建军","id_card_no":"44098319900512900X","phone":"13053527230"}</t>
+          <t>{"user_name":"黎刚","id_card_no":"341501196001172227","phone":"15682222480"}</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6393,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>{"user_name":"鄢桂芳","id_card_no":"130431194609056666","phone":"18746690426"}</t>
+          <t>{"user_name":"勾红","id_card_no":"422822194309308645","phone":"15512679149"}</t>
         </is>
       </c>
     </row>
@@ -6475,7 +6445,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>{"user_name":"於冬梅","id_card_no":"621122197501289159","phone":"13057900115"}</t>
+          <t>{"user_name":"梁丹丹","id_card_no":"131082196510059283","phone":"13113865561"}</t>
         </is>
       </c>
     </row>
@@ -6524,7 +6494,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>{"user_name":"祝雪梅","id_card_no":"140802196703017840","phone":"15367950278"}</t>
+          <t>{"user_name":"杜林","id_card_no":"140106199401135789","phone":"15289758369"}</t>
         </is>
       </c>
     </row>
@@ -6553,8 +6523,8 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
-info_fraud_verification_item.item_name[0]='3个月内申请人身份证作为联系人身份证出现的次数大于等于2';
+          <t>info_fraud_verification_item.fraud_verification_id; info_fraud_verification_item.item_group[0]='客户行为检测'; info_fraud_verification_item.item_group[1]='客户行为检测'; info_fraud_verification_item.item_group[2]='客户行为检测';
+info_fraud_verification_item.item_name[0]='3个月内申请人身份证作为联系人身份证出现的次数大于等于1';
 info_fraud_verification_item.item_name[1]='3个月内申请人身份证作为联系人身份证出现的次数大于等于2';
 info_fraud_verification_item.item_name[2]='3个月内申请人身份证作为联系人身份证出现的次数大于等于3'</t>
         </is>
@@ -6573,16 +6543,16 @@
         </is>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>{"user_name":"哈萍","id_card_no":"330205196207229109","phone":"18112168926"}</t>
+          <t>{"user_name":"花超","id_card_no":"430821196906229948","phone":"18938337166"}</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6603,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>{"user_name":"罗勇","id_card_no":"130432196411126361","phone":"14738748184"}</t>
+          <t>{"user_name":"郏辉","id_card_no":"520603200002071567","phone":"15155857462"}</t>
         </is>
       </c>
     </row>
@@ -6662,8 +6632,8 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
-info_fraud_verification_item.item_name[0]='3个月内申请人手机号作为联系人手机号出现的次数大于等于2';
+          <t>info_fraud_verification_item.fraud_verification_id; info_fraud_verification_item.item_group[0]='客户行为检测'; info_fraud_verification_item.item_group[1]='客户行为检测'; 
+info_fraud_verification_item.item_name[0]='3个月内申请人手机号作为联系人手机号出现的次数大于等于1';
 info_fraud_verification_item.item_name[1]='3个月内申请人手机号作为联系人手机号出现的次数大于等于2'</t>
         </is>
       </c>
@@ -6681,16 +6651,16 @@
         </is>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>{"user_name":"应雪梅","id_card_no":"520300194007021792","phone":"18952081556"}</t>
+          <t>{"user_name":"娄峰","id_card_no":"421102194608091875","phone":"18098362414"}</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6711,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>{"user_name":"班成","id_card_no":"510901199903178202","phone":"13511582093"}</t>
+          <t>{"user_name":"庚丽华","id_card_no":"210782197212238875","phone":"13132867100"}</t>
         </is>
       </c>
     </row>
@@ -6768,13 +6738,7 @@
           <t>info_fraud_verification.id</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
-info_fraud_verification_item.item_name[0]='3个月内申请人手机号作为联系人手机数大于等于2';
-info_fraud_verification_item.item_name[1]='3个月内申请人手机号作为联系的次数大于等于2'</t>
-        </is>
-      </c>
+      <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
@@ -6798,7 +6762,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>{"user_name":"齐飞","id_card_no":"532322195811130128","phone":"13478134550"}</t>
+          <t>{"user_name":"孙淑华","id_card_no":"441283198505223658","phone":"18215846024"}</t>
         </is>
       </c>
     </row>
@@ -6825,14 +6789,7 @@
           <t>info_fraud_verification.id</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>info_fraud_verification_item.fraud_verification_id;
-info_fraud_verification_item.item_name[0]='3个请人身份证作为联系人身份证出现的次数大于等于2';
-info_fraud_verification_item.item_name[1]='3个月内申请人身份证作为联份证出现的次数大于等于2';
-info_fraud_verification_item.item_name[2]='3个月内申请人身份证作为联系证出现的次数大于等于3'</t>
-        </is>
-      </c>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
@@ -6856,7 +6813,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>{"user_name":"于梅","id_card_no":"420921196607167007","phone":"18696508801"}</t>
+          <t>{"user_name":"殴秀荣","id_card_no":"431025194509175046","phone":"13490948742"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-17001_result.xlsx
+++ b/tests/data/output/一级测试用例-17001_result.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"蓟红霞","id_card_no":"420984198112249355","phone":"13605730592"}</t>
+          <t>{"user_name":"杭阳","id_card_no":"532324199508199078","phone":"13907374569"}</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"门强","id_card_no":"542622193612243356","phone":"13721226781"}</t>
+          <t>{"user_name":"蒋雪","id_card_no":"320703199702163668","phone":"15341090976"}</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"解淑英","id_card_no":"360521198902076360","phone":"15089402314"}</t>
+          <t>{"user_name":"邬梅","id_card_no":"632822193004021066","phone":"15972859689"}</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"翟雪梅","id_card_no":"371526193701279278","phone":"18526167441"}</t>
+          <t>{"user_name":"秦建军","id_card_no":"421100194611089538","phone":"18866428467"}</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"阳玉珍","id_card_no":"360727196805120518","phone":"13779735344"}</t>
+          <t>{"user_name":"门丽华","id_card_no":"451228198509275516","phone":"18651867457"}</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"和华","id_card_no":"500242199412048240","phone":"18030194243"}</t>
+          <t>{"user_name":"冉桂花","id_card_no":"13020919960918112X","phone":"18819319592"}</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"高丹","id_card_no":"230800196501048082","phone":"13106885439"}</t>
+          <t>{"user_name":"薛淑珍","id_card_no":"411400195409068783","phone":"13351330335"}</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"阴玉英","id_card_no":"41172819700306467X","phone":"13345478390"}</t>
+          <t>{"user_name":"孙洋","id_card_no":"51040019610912359X","phone":"13037890032"}</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"门帅","id_card_no":"331004195105281917","phone":"13812568691"}</t>
+          <t>{"user_name":"亢倩","id_card_no":"23022419410825505X","phone":"18874289016"}</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"雷丽华","id_card_no":"130283199907079813","phone":"14578460977"}</t>
+          <t>{"user_name":"项玉梅","id_card_no":"37142619970630514X","phone":"13013927400"}</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"汝桂香","id_card_no":"530722196309175421","phone":"18923037903"}</t>
+          <t>{"user_name":"聂小红","id_card_no":"450600193709124650","phone":"13359337021"}</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"麻玉华","id_card_no":"653129197110196790","phone":"13359081842"}</t>
+          <t>{"user_name":"人玉珍","id_card_no":"620921198103288530","phone":"15934649735"}</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"霍斌","id_card_no":"130827195201306184","phone":"14708123398"}</t>
+          <t>{"user_name":"袁桂花","id_card_no":"632200200105313991","phone":"18081214485"}</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"满文","id_card_no":"341523196804277426","phone":"15752861210"}</t>
+          <t>{"user_name":"于淑兰","id_card_no":"140929198211281930","phone":"15129574523"}</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"慕涛","id_card_no":"440306198903032998","phone":"13137736690"}</t>
+          <t>{"user_name":"文婷婷","id_card_no":"150624197602235148","phone":"13299624323"}</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"温军","id_card_no":"330421194211023156","phone":"13195783612"}</t>
+          <t>{"user_name":"隆红霞","id_card_no":"34120219360408824X","phone":"14795872510"}</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"艾刚","id_card_no":"511921199608236875","phone":"15132173583"}</t>
+          <t>{"user_name":"于敏","id_card_no":"420528199202283110","phone":"14767261875"}</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"奚云","id_card_no":"411724197001306537","phone":"13279680861"}</t>
+          <t>{"user_name":"文荣","id_card_no":"533300194008255720","phone":"15625654634"}</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"上阳","id_card_no":"522727197703227177","phone":"13281656981"}</t>
+          <t>{"user_name":"巩欢","id_card_no":"330503197906237691","phone":"18541419778"}</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"农林","id_card_no":"610481199611162717","phone":"13452662687"}</t>
+          <t>{"user_name":"于飞","id_card_no":"410611195107036574","phone":"13395623293"}</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"鲜华","id_card_no":"130984199601028225","phone":"13377885716"}</t>
+          <t>{"user_name":"徐英","id_card_no":"370634195209077803","phone":"18244046649"}</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"李桂兰","id_card_no":"451227193901177516","phone":"18804572439"}</t>
+          <t>{"user_name":"蒯海燕","id_card_no":"440882199105023411","phone":"13879778330"}</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"刁红","id_card_no":"510802193007076498","phone":"13028982451"}</t>
+          <t>{"user_name":"明春梅","id_card_no":"450800195312014576","phone":"13670463326"}</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"苍桂芳","id_card_no":"632321198212276177","phone":"18100672487"}</t>
+          <t>{"user_name":"元建军","id_card_no":"429021197706178127","phone":"18293415870"}</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"user_name":"宇玉英","id_card_no":"530501197008195578","phone":"18086827765"}</t>
+          <t>{"user_name":"都秀珍","id_card_no":"411626195705316790","phone":"18114856527"}</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"user_name":"阳军","id_card_no":"611026193806070473","phone":"15524668783"}</t>
+          <t>{"user_name":"虞俊","id_card_no":"350601197108271867","phone":"15884633793"}</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"user_name":"傅静","id_card_no":"361026198411302357","phone":"13205954189"}</t>
+          <t>{"user_name":"厍萍","id_card_no":"440118197001128579","phone":"14571712387"}</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"user_name":"空淑华","id_card_no":"371427196206073613","phone":"15849383504"}</t>
+          <t>{"user_name":"费勇","id_card_no":"532523193012132774","phone":"13686128485"}</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"user_name":"闻成","id_card_no":"340401193601276484","phone":"13677844470"}</t>
+          <t>{"user_name":"庚莉","id_card_no":"141030195810077898","phone":"13475953053"}</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"user_name":"董芳","id_card_no":"51040019530219343X","phone":"13374523925"}</t>
+          <t>{"user_name":"颛建","id_card_no":"230112193607013324","phone":"13815925432"}</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"user_name":"胥秀华","id_card_no":"430523199708168427","phone":"13242750710"}</t>
+          <t>{"user_name":"方丹丹","id_card_no":"522636197804221584","phone":"13971326977"}</t>
         </is>
       </c>
     </row>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"user_name":"阙玉英","id_card_no":"445200199502063107","phone":"18036892239"}</t>
+          <t>{"user_name":"阙旭","id_card_no":"141122197201143831","phone":"15530947418"}</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"user_name":"申宇","id_card_no":"653227199211193689","phone":"13380825682"}</t>
+          <t>{"user_name":"邱桂花","id_card_no":"360602194201020629","phone":"14554904148"}</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"user_name":"韩金凤","id_card_no":"420203195001130984","phone":"13906462310"}</t>
+          <t>{"user_name":"狐慧","id_card_no":"410224193405065155","phone":"14549595199"}</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"user_name":"尉玉","id_card_no":"350801195011272945","phone":"14571014964"}</t>
+          <t>{"user_name":"扶金凤","id_card_no":"230604196810018834","phone":"13512333228"}</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"user_name":"费海燕","id_card_no":"341801196007109137","phone":"15123058146"}</t>
+          <t>{"user_name":"魏晶","id_card_no":"141023197208056029","phone":"18006026445"}</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>{"user_name":"欧凤兰","id_card_no":"610802200010119635","phone":"13949424789"}</t>
+          <t>{"user_name":"谢英","id_card_no":"421123197305023854","phone":"15377063222"}</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"user_name":"孙桂珍","id_card_no":"371725193103170365","phone":"15131466829"}</t>
+          <t>{"user_name":"石浩","id_card_no":"430424195108083932","phone":"15571118218"}</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"user_name":"喻宁","id_card_no":"350802196802268476","phone":"13078361412"}</t>
+          <t>{"user_name":"却欢","id_card_no":"230405196410137346","phone":"13340708870"}</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"user_name":"景玉","id_card_no":"513227197909097154","phone":"15668346532"}</t>
+          <t>{"user_name":"濮柳","id_card_no":"469001196905284333","phone":"15167319489"}</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"user_name":"慕帅","id_card_no":"500243196503061099","phone":"18071565763"}</t>
+          <t>{"user_name":"门畅","id_card_no":"371300196611010194","phone":"13322262452"}</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"user_name":"栾平","id_card_no":"321324193108197383","phone":"15084427995"}</t>
+          <t>{"user_name":"越岩","id_card_no":"620525193504186974","phone":"18811469418"}</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"user_name":"盛志强","id_card_no":"210782199001180043","phone":"14799731752"}</t>
+          <t>{"user_name":"逯艳","id_card_no":"210624199309042342","phone":"15687246340"}</t>
         </is>
       </c>
     </row>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"user_name":"谈桂兰","id_card_no":"640301199705307698","phone":"18052188364"}</t>
+          <t>{"user_name":"衡建华","id_card_no":"230606198511251275","phone":"13967094955"}</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"user_name":"韩秀英","id_card_no":"530300196604181293","phone":"15391897656"}</t>
+          <t>{"user_name":"洪璐","id_card_no":"632522196007192634","phone":"18194623639"}</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"user_name":"姚红霞","id_card_no":"530181199210166622","phone":"15114544513"}</t>
+          <t>{"user_name":"壤林","id_card_no":"431023193107084611","phone":"15669699697"}</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>{"user_name":"乐霞","id_card_no":"450521194207059618","phone":"13282354354"}</t>
+          <t>{"user_name":"郎健","id_card_no":"511703192908306024","phone":"13743408207"}</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>{"user_name":"羊建华","id_card_no":"623021194112021761","phone":"14528611789"}</t>
+          <t>{"user_name":"生桂英","id_card_no":"654021194908158428","phone":"14552945564"}</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>{"user_name":"羿洋","id_card_no":"140624197312169857","phone":"15392760860"}</t>
+          <t>{"user_name":"牟秀英","id_card_no":"370523194001220878","phone":"18016958528"}</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>{"user_name":"周娟","id_card_no":"360622197401199116","phone":"18535075228"}</t>
+          <t>{"user_name":"危颖","id_card_no":"210624196805102654","phone":"13645728345"}</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>{"user_name":"利帆","id_card_no":"371302196610087643","phone":"18651337675"}</t>
+          <t>{"user_name":"晏健","id_card_no":"141001196310150617","phone":"13675544999"}</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>{"user_name":"邱淑英","id_card_no":"511622194310054486","phone":"15172660330"}</t>
+          <t>{"user_name":"米欣","id_card_no":"632726197502178814","phone":"15124501160"}</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>{"user_name":"督秀珍","id_card_no":"150221198203120830","phone":"15024284817"}</t>
+          <t>{"user_name":"劳明","id_card_no":"500235193108121203","phone":"15543616797"}</t>
         </is>
       </c>
     </row>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>{"user_name":"哈博","id_card_no":"150125197805298383","phone":"13757296812"}</t>
+          <t>{"user_name":"皮军","id_card_no":"520400194506221970","phone":"13946179812"}</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>{"user_name":"衡静","id_card_no":"420114194101257527","phone":"15090067789"}</t>
+          <t>{"user_name":"禄丽丽","id_card_no":"220303195010100080","phone":"18046006903"}</t>
         </is>
       </c>
     </row>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>{"user_name":"璩丽","id_card_no":"522635196406139410","phone":"18524118589"}</t>
+          <t>{"user_name":"楚浩","id_card_no":"340404195306275241","phone":"13682561979"}</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>{"user_name":"訾慧","id_card_no":"43102719700720144X","phone":"13986459550"}</t>
+          <t>{"user_name":"巢雪梅","id_card_no":"62062219330723673X","phone":"14531873573"}</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>{"user_name":"解岩","id_card_no":"14082119430118876X","phone":"13413715156"}</t>
+          <t>{"user_name":"刁建军","id_card_no":"430923194707249283","phone":"13707704258"}</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>{"user_name":"鲍林","id_card_no":"411103194608130808","phone":"18525681748"}</t>
+          <t>{"user_name":"季玉英","id_card_no":"510521194101110178","phone":"18784135609"}</t>
         </is>
       </c>
     </row>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>{"user_name":"澹浩","id_card_no":"430623197101119369","phone":"18794195006"}</t>
+          <t>{"user_name":"尤利","id_card_no":"140702199708024407","phone":"14584056567"}</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>{"user_name":"况玉华","id_card_no":"610727198608149646","phone":"18542319191"}</t>
+          <t>{"user_name":"暴想","id_card_no":"320101197410064145","phone":"13489499284"}</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>{"user_name":"宫春梅","id_card_no":"610726193204033605","phone":"15135475662"}</t>
+          <t>{"user_name":"芮建国","id_card_no":"360103197512020514","phone":"15572735336"}</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>{"user_name":"诸桂香","id_card_no":"130827195307157797","phone":"13151174736"}</t>
+          <t>{"user_name":"长桂荣","id_card_no":"320211194202034114","phone":"15106224919"}</t>
         </is>
       </c>
     </row>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>{"user_name":"蔺玉珍","id_card_no":"532626198708047698","phone":"13347350940"}</t>
+          <t>{"user_name":"桓凤兰","id_card_no":"451228197904098906","phone":"13367273683"}</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>{"user_name":"云娜","id_card_no":"513226193612210350","phone":"18034639132"}</t>
+          <t>{"user_name":"商艳","id_card_no":"522731198605125168","phone":"13654676939"}</t>
         </is>
       </c>
     </row>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>{"user_name":"聂玉珍","id_card_no":"51343319641218888X","phone":"18822324832"}</t>
+          <t>{"user_name":"子辉","id_card_no":"230421193310231972","phone":"15693247564"}</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>{"user_name":"督博","id_card_no":"540230197611028800","phone":"15903969058"}</t>
+          <t>{"user_name":"木玉华","id_card_no":"43060219610325586X","phone":"13702507796"}</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>{"user_name":"明建华","id_card_no":"371002196404187241","phone":"13315685750"}</t>
+          <t>{"user_name":"骆琳","id_card_no":"140922194909248603","phone":"15136407943"}</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>{"user_name":"贝琴","id_card_no":"35060219451009884X","phone":"18173885374"}</t>
+          <t>{"user_name":"司超","id_card_no":"370404194704192530","phone":"13192660110"}</t>
         </is>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>{"user_name":"封梅","id_card_no":"361027194103192772","phone":"15539199621"}</t>
+          <t>{"user_name":"弓畅","id_card_no":"511825199210274740","phone":"14515600772"}</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>{"user_name":"戎建","id_card_no":"421121195202267029","phone":"15577750736"}</t>
+          <t>{"user_name":"毋桂芳","id_card_no":"130400195511131621","phone":"18232605419"}</t>
         </is>
       </c>
     </row>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>{"user_name":"蓟玲","id_card_no":"410482199201089093","phone":"14770187357"}</t>
+          <t>{"user_name":"冉桂荣","id_card_no":"410306195509060983","phone":"18621129305"}</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>{"user_name":"令冬梅","id_card_no":"330109196503258959","phone":"18567906621"}</t>
+          <t>{"user_name":"苏欢","id_card_no":"610582199012144682","phone":"13950157581"}</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>{"user_name":"慕秀云","id_card_no":"13040319721118990X","phone":"18792159351"}</t>
+          <t>{"user_name":"勾玉英","id_card_no":"422800197005248896","phone":"15226682117"}</t>
         </is>
       </c>
     </row>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>{"user_name":"壤岩","id_card_no":"360723198102201980","phone":"13316692983"}</t>
+          <t>{"user_name":"束莉","id_card_no":"340302195106306519","phone":"18041377809"}</t>
         </is>
       </c>
     </row>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>{"user_name":"蒙玲","id_card_no":"371700194103068157","phone":"18091279675"}</t>
+          <t>{"user_name":"步凤英","id_card_no":"230621195205127436","phone":"13275904962"}</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>{"user_name":"甫玲","id_card_no":"530624193804167422","phone":"18203964173"}</t>
+          <t>{"user_name":"澹秀珍","id_card_no":"410883194210222920","phone":"13782782574"}</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>{"user_name":"梁想","id_card_no":"371521196001282136","phone":"14744699959"}</t>
+          <t>{"user_name":"刁桂珍","id_card_no":"141032196201230225","phone":"14560574223"}</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>{"user_name":"郎鑫","id_card_no":"522725192911146050","phone":"13547969631"}</t>
+          <t>{"user_name":"任玉珍","id_card_no":"13080319930917757X","phone":"13225696174"}</t>
         </is>
       </c>
     </row>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>{"user_name":"隆桂芝","id_card_no":"520381194010190253","phone":"13485855925"}</t>
+          <t>{"user_name":"伍博","id_card_no":"620902193704176188","phone":"13821399821"}</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>{"user_name":"聂芳","id_card_no":"420984193510024001","phone":"13261559362"}</t>
+          <t>{"user_name":"况桂芳","id_card_no":"141100197309089103","phone":"18052716508"}</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>{"user_name":"陆丹丹","id_card_no":"440103193611269093","phone":"18799309408"}</t>
+          <t>{"user_name":"利帅","id_card_no":"440604198804071397","phone":"18027960732"}</t>
         </is>
       </c>
     </row>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>{"user_name":"鞠凯","id_card_no":"360827193303013626","phone":"18586085584"}</t>
+          <t>{"user_name":"钱璐","id_card_no":"653222193105309001","phone":"18968724067"}</t>
         </is>
       </c>
     </row>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>{"user_name":"乌雪梅","id_card_no":"150304193303021537","phone":"14596551857"}</t>
+          <t>{"user_name":"唐欢","id_card_no":"610527198812250476","phone":"15070203835"}</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>{"user_name":"阳秀华","id_card_no":"441900199804274326","phone":"13418626273"}</t>
+          <t>{"user_name":"贺淑兰","id_card_no":"350582198904289504","phone":"14787324551"}</t>
         </is>
       </c>
     </row>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>{"user_name":"苏勇","id_card_no":"410223195507025624","phone":"18629819787"}</t>
+          <t>{"user_name":"商海燕","id_card_no":"110111193907316913","phone":"14552919467"}</t>
         </is>
       </c>
     </row>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>{"user_name":"红亮","id_card_no":"421023193607287616","phone":"13415175577"}</t>
+          <t>{"user_name":"邰旭","id_card_no":"620122200001236708","phone":"13878973187"}</t>
         </is>
       </c>
     </row>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>{"user_name":"干亮","id_card_no":"620111197505027252","phone":"15774421114"}</t>
+          <t>{"user_name":"闻丽华","id_card_no":"230621195610232483","phone":"18541220200"}</t>
         </is>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>{"user_name":"毕建","id_card_no":"110100194307146813","phone":"15515035536"}</t>
+          <t>{"user_name":"苏艳","id_card_no":"150624195701021314","phone":"13874119358"}</t>
         </is>
       </c>
     </row>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>{"user_name":"何建军","id_card_no":"150525194909085962","phone":"15074323567"}</t>
+          <t>{"user_name":"闻桂芝","id_card_no":"610300193905121303","phone":"15077281690"}</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>{"user_name":"昌琴","id_card_no":"360730196802224782","phone":"13729031625"}</t>
+          <t>{"user_name":"晁利","id_card_no":"640402195502173398","phone":"13128826869"}</t>
         </is>
       </c>
     </row>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>{"user_name":"跋兵","id_card_no":"320724198103227639","phone":"15051942464"}</t>
+          <t>{"user_name":"苗兵","id_card_no":"450600197711101333","phone":"13309336862"}</t>
         </is>
       </c>
     </row>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>{"user_name":"闾丽华","id_card_no":"150526199607034560","phone":"13756413223"}</t>
+          <t>{"user_name":"潘秀珍","id_card_no":"130108195401119765","phone":"13649603177"}</t>
         </is>
       </c>
     </row>
@@ -5548,7 +5548,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>{"user_name":"空佳","id_card_no":"130723194409233863","phone":"14569914001"}</t>
+          <t>{"user_name":"胡海燕","id_card_no":"441601199001095789","phone":"15569971833"}</t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>{"user_name":"雍宁","id_card_no":"511703195201092863","phone":"15637288719"}</t>
+          <t>{"user_name":"官琳","id_card_no":"370800192910262672","phone":"13648160254"}</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>{"user_name":"朱桂珍","id_card_no":"610114198110079041","phone":"18647354287"}</t>
+          <t>{"user_name":"陈洁","id_card_no":"370303194504261229","phone":"13316303753"}</t>
         </is>
       </c>
     </row>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>{"user_name":"秋兵","id_card_no":"230804194412036393","phone":"13876802203"}</t>
+          <t>{"user_name":"鞠博","id_card_no":"420700198605218524","phone":"13810452130"}</t>
         </is>
       </c>
     </row>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>{"user_name":"闻玉珍","id_card_no":"522323199605149648","phone":"18537436417"}</t>
+          <t>{"user_name":"弓静","id_card_no":"530802194412206944","phone":"18211269137"}</t>
         </is>
       </c>
     </row>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>{"user_name":"荣宁","id_card_no":"220203199511062695","phone":"13801142108"}</t>
+          <t>{"user_name":"贡洋","id_card_no":"430781199712154137","phone":"15717504922"}</t>
         </is>
       </c>
     </row>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>{"user_name":"嵇楠","id_card_no":"610322198706149152","phone":"13201202856"}</t>
+          <t>{"user_name":"桑琳","id_card_no":"440105197311138084","phone":"15591469576"}</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>{"user_name":"乔利","id_card_no":"520524196908079247","phone":"14598099857"}</t>
+          <t>{"user_name":"益丽娟","id_card_no":"45130219560519460X","phone":"13909448049"}</t>
         </is>
       </c>
     </row>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>{"user_name":"缪建军","id_card_no":"150784196711107222","phone":"18197039866"}</t>
+          <t>{"user_name":"辛淑英","id_card_no":"420625195711289578","phone":"15654601026"}</t>
         </is>
       </c>
     </row>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>{"user_name":"澹洁","id_card_no":"640502194601271058","phone":"13331555082"}</t>
+          <t>{"user_name":"韩建","id_card_no":"360702194403291844","phone":"14714487062"}</t>
         </is>
       </c>
     </row>
@@ -6098,7 +6098,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>{"user_name":"生宁","id_card_no":"513226194309263593","phone":"13803942309"}</t>
+          <t>{"user_name":"钟博","id_card_no":"431224196404304167","phone":"13636353994"}</t>
         </is>
       </c>
     </row>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>{"user_name":"后敏","id_card_no":"51333520001019575X","phone":"18953367964"}</t>
+          <t>{"user_name":"曹淑珍","id_card_no":"371722200105256158","phone":"13581965756"}</t>
         </is>
       </c>
     </row>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>{"user_name":"辛涛","id_card_no":"520303196805307582","phone":"18965115266"}</t>
+          <t>{"user_name":"颜桂珍","id_card_no":"620201197612227770","phone":"13908261258"}</t>
         </is>
       </c>
     </row>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>{"user_name":"赏俊","id_card_no":"110100195612315104","phone":"13593580793"}</t>
+          <t>{"user_name":"别丽","id_card_no":"41150319631005759X","phone":"14744712884"}</t>
         </is>
       </c>
     </row>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>{"user_name":"施帆","id_card_no":"43112519651028923X","phone":"13402198582"}</t>
+          <t>{"user_name":"壤倩","id_card_no":"532929196910039604","phone":"13796769974"}</t>
         </is>
       </c>
     </row>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>{"user_name":"芮洋","id_card_no":"500114199505243220","phone":"18671946581"}</t>
+          <t>{"user_name":"杭雪梅","id_card_no":"210911199211169737","phone":"18985703703"}</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>{"user_name":"匡宁","id_card_no":"220701194609119612","phone":"18082598242"}</t>
+          <t>{"user_name":"跋畅","id_card_no":"540124196510026307","phone":"14543138797"}</t>
         </is>
       </c>
     </row>
@@ -6465,15 +6465,17 @@
 phone</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>34</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>{"user_name":"扈玉英","id_card_no":"360102195310140547","phone":"13260072126"}</t>
+          <t>{"user_name":"莫帆","id_card_no":"510401193802095024","phone":"15860179911"}</t>
         </is>
       </c>
     </row>
@@ -6522,7 +6524,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>{"user_name":"益杰","id_card_no":"370700197202161026","phone":"18032582762"}</t>
+          <t>{"user_name":"宇凯","id_card_no":"220402194902070504","phone":"13519065981"}</t>
         </is>
       </c>
     </row>
@@ -6580,7 +6582,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>{"user_name":"季晨","id_card_no":"150104197110218699","phone":"15563692729"}</t>
+          <t>{"user_name":"仉洋","id_card_no":"320501197705285967","phone":"18706428665"}</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6633,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>{"user_name":"边凤兰","id_card_no":"430601196906234767","phone":"18289849976"}</t>
+          <t>{"user_name":"古磊","id_card_no":"341324195909226896","phone":"18114484874"}</t>
         </is>
       </c>
     </row>
@@ -6688,7 +6690,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>{"user_name":"耿云","id_card_no":"361002195611274915","phone":"15522448051"}</t>
+          <t>{"user_name":"岑鑫","id_card_no":"511101197006101158","phone":"13486628244"}</t>
         </is>
       </c>
     </row>
@@ -6739,7 +6741,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>{"user_name":"国桂芳","id_card_no":"140921195604174357","phone":"15153961379"}</t>
+          <t>{"user_name":"强玉兰","id_card_no":"54010219431015741X","phone":"13321716570"}</t>
         </is>
       </c>
     </row>
@@ -6790,7 +6792,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>{"user_name":"蓝雪梅","id_card_no":"420114193602138441","phone":"15515265082"}</t>
+          <t>{"user_name":"贡小红","id_card_no":"530502195210234064","phone":"14502898360"}</t>
         </is>
       </c>
     </row>
@@ -6841,7 +6843,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>{"user_name":"郜雪","id_card_no":"431229194101019361","phone":"13128317371"}</t>
+          <t>{"user_name":"卢瑞","id_card_no":"450222193211019251","phone":"13654462396"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-17001_result.xlsx
+++ b/tests/data/output/一级测试用例-17001_result.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"杭阳","id_card_no":"532324199508199078","phone":"13907374569"}</t>
+          <t>{"user_name":"呼秀华","id_card_no":"511301194405277051","phone":"13115339934"}</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"蒋雪","id_card_no":"320703199702163668","phone":"15341090976"}</t>
+          <t>{"user_name":"广凯","id_card_no":"420921195105045638","phone":"18625984612"}</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"邬梅","id_card_no":"632822193004021066","phone":"15972859689"}</t>
+          <t>{"user_name":"姬萍","id_card_no":"150924196508043483","phone":"18099174955"}</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"秦建军","id_card_no":"421100194611089538","phone":"18866428467"}</t>
+          <t>{"user_name":"邹杰","id_card_no":"140106199502134005","phone":"13490087436"}</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"门丽华","id_card_no":"451228198509275516","phone":"18651867457"}</t>
+          <t>{"user_name":"阳颖","id_card_no":"451102194010242435","phone":"18821839127"}</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"冉桂花","id_card_no":"13020919960918112X","phone":"18819319592"}</t>
+          <t>{"user_name":"养梅","id_card_no":"131002194503187024","phone":"15840058470"}</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"薛淑珍","id_card_no":"411400195409068783","phone":"13351330335"}</t>
+          <t>{"user_name":"支倩","id_card_no":"320924198812268573","phone":"18911807783"}</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"孙洋","id_card_no":"51040019610912359X","phone":"13037890032"}</t>
+          <t>{"user_name":"公浩","id_card_no":"610402198104097199","phone":"15738518586"}</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"亢倩","id_card_no":"23022419410825505X","phone":"18874289016"}</t>
+          <t>{"user_name":"赫秀荣","id_card_no":"520222199602087417","phone":"18976832874"}</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"项玉梅","id_card_no":"37142619970630514X","phone":"13013927400"}</t>
+          <t>{"user_name":"尚岩","id_card_no":"210922198307135974","phone":"13004549569"}</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"聂小红","id_card_no":"450600193709124650","phone":"13359337021"}</t>
+          <t>{"user_name":"空宁","id_card_no":"431321199705184330","phone":"13307695886"}</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"人玉珍","id_card_no":"620921198103288530","phone":"15934649735"}</t>
+          <t>{"user_name":"跋秀英","id_card_no":"131128200012148351","phone":"18257648817"}</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"袁桂花","id_card_no":"632200200105313991","phone":"18081214485"}</t>
+          <t>{"user_name":"宓颖","id_card_no":"131128196811071232","phone":"14540590022"}</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"于淑兰","id_card_no":"140929198211281930","phone":"15129574523"}</t>
+          <t>{"user_name":"乌敏","id_card_no":"451200198101267401","phone":"18914080607"}</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"文婷婷","id_card_no":"150624197602235148","phone":"13299624323"}</t>
+          <t>{"user_name":"石波","id_card_no":"43112319760423344X","phone":"15773146114"}</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"隆红霞","id_card_no":"34120219360408824X","phone":"14795872510"}</t>
+          <t>{"user_name":"隆桂珍","id_card_no":"522635196509285090","phone":"18621608865"}</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"于敏","id_card_no":"420528199202283110","phone":"14767261875"}</t>
+          <t>{"user_name":"车勇","id_card_no":"360300195202283493","phone":"15196078722"}</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"文荣","id_card_no":"533300194008255720","phone":"15625654634"}</t>
+          <t>{"user_name":"隗旭","id_card_no":"610728198507015768","phone":"13147192845"}</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"巩欢","id_card_no":"330503197906237691","phone":"18541419778"}</t>
+          <t>{"user_name":"宰红","id_card_no":"441825196606113829","phone":"13915662866"}</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"于飞","id_card_no":"410611195107036574","phone":"13395623293"}</t>
+          <t>{"user_name":"养玉珍","id_card_no":"640000193712293685","phone":"13960375243"}</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"徐英","id_card_no":"370634195209077803","phone":"18244046649"}</t>
+          <t>{"user_name":"桓红梅","id_card_no":"411323193802089118","phone":"15780631885"}</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"蒯海燕","id_card_no":"440882199105023411","phone":"13879778330"}</t>
+          <t>{"user_name":"桂兰英","id_card_no":"620600198806190873","phone":"14761083154"}</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"明春梅","id_card_no":"450800195312014576","phone":"13670463326"}</t>
+          <t>{"user_name":"邬亮","id_card_no":"37068319350602575X","phone":"13697834113"}</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"元建军","id_card_no":"429021197706178127","phone":"18293415870"}</t>
+          <t>{"user_name":"翁玉梅","id_card_no":"370831198211129006","phone":"13100947293"}</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"user_name":"都秀珍","id_card_no":"411626195705316790","phone":"18114856527"}</t>
+          <t>{"user_name":"蒋玉华","id_card_no":"340503195704265953","phone":"18641139268"}</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"user_name":"虞俊","id_card_no":"350601197108271867","phone":"15884633793"}</t>
+          <t>{"user_name":"邹秀兰","id_card_no":"220112196211227950","phone":"13756656033"}</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"user_name":"厍萍","id_card_no":"440118197001128579","phone":"14571712387"}</t>
+          <t>{"user_name":"史彬","id_card_no":"451021199403069668","phone":"18578619481"}</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"user_name":"费勇","id_card_no":"532523193012132774","phone":"13686128485"}</t>
+          <t>{"user_name":"糜磊","id_card_no":"320405199412076132","phone":"15021163006"}</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"user_name":"庚莉","id_card_no":"141030195810077898","phone":"13475953053"}</t>
+          <t>{"user_name":"钭建","id_card_no":"510725195302185935","phone":"14747273992"}</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"user_name":"颛建","id_card_no":"230112193607013324","phone":"13815925432"}</t>
+          <t>{"user_name":"岑淑珍","id_card_no":"371428194205101982","phone":"14544731133"}</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"user_name":"方丹丹","id_card_no":"522636197804221584","phone":"13971326977"}</t>
+          <t>{"user_name":"程琴","id_card_no":"653100193901149527","phone":"15138178333"}</t>
         </is>
       </c>
     </row>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"user_name":"阙旭","id_card_no":"141122197201143831","phone":"15530947418"}</t>
+          <t>{"user_name":"广凯","id_card_no":"530630197610010086","phone":"13186784302"}</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"user_name":"邱桂花","id_card_no":"360602194201020629","phone":"14554904148"}</t>
+          <t>{"user_name":"迟静","id_card_no":"370100199511017489","phone":"18125395885"}</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"user_name":"狐慧","id_card_no":"410224193405065155","phone":"14549595199"}</t>
+          <t>{"user_name":"郁芳","id_card_no":"15292219621212921X","phone":"18170539955"}</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"user_name":"扶金凤","id_card_no":"230604196810018834","phone":"13512333228"}</t>
+          <t>{"user_name":"木博","id_card_no":"14020019650418347X","phone":"14541460297"}</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"user_name":"魏晶","id_card_no":"141023197208056029","phone":"18006026445"}</t>
+          <t>{"user_name":"武洋","id_card_no":"632622198701223968","phone":"18040446203"}</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>{"user_name":"谢英","id_card_no":"421123197305023854","phone":"15377063222"}</t>
+          <t>{"user_name":"贾东","id_card_no":"542624199206137216","phone":"13302794250"}</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"user_name":"石浩","id_card_no":"430424195108083932","phone":"15571118218"}</t>
+          <t>{"user_name":"宗晶","id_card_no":"440201193602271717","phone":"15812857526"}</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"user_name":"却欢","id_card_no":"230405196410137346","phone":"13340708870"}</t>
+          <t>{"user_name":"西雪","id_card_no":"340826193408019899","phone":"15589264967"}</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"user_name":"濮柳","id_card_no":"469001196905284333","phone":"15167319489"}</t>
+          <t>{"user_name":"东萍","id_card_no":"350205199708036089","phone":"15053686531"}</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"user_name":"门畅","id_card_no":"371300196611010194","phone":"13322262452"}</t>
+          <t>{"user_name":"虞欣","id_card_no":"542126195108217973","phone":"15913145001"}</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"user_name":"越岩","id_card_no":"620525193504186974","phone":"18811469418"}</t>
+          <t>{"user_name":"红丽娟","id_card_no":"34102319731212421X","phone":"15970120109"}</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"user_name":"逯艳","id_card_no":"210624199309042342","phone":"15687246340"}</t>
+          <t>{"user_name":"年志强","id_card_no":"411728198508255660","phone":"15617976267"}</t>
         </is>
       </c>
     </row>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"user_name":"衡建华","id_card_no":"230606198511251275","phone":"13967094955"}</t>
+          <t>{"user_name":"诸强","id_card_no":"654300195204205555","phone":"15917107072"}</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"user_name":"洪璐","id_card_no":"632522196007192634","phone":"18194623639"}</t>
+          <t>{"user_name":"人林","id_card_no":"150623193805292949","phone":"14585872816"}</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"user_name":"壤林","id_card_no":"431023193107084611","phone":"15669699697"}</t>
+          <t>{"user_name":"简文","id_card_no":"640500196606210971","phone":"18239372379"}</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>{"user_name":"郎健","id_card_no":"511703192908306024","phone":"13743408207"}</t>
+          <t>{"user_name":"延桂芳","id_card_no":"370211199807280061","phone":"18036796819"}</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>{"user_name":"生桂英","id_card_no":"654021194908158428","phone":"14552945564"}</t>
+          <t>{"user_name":"缪彬","id_card_no":"522625194407062433","phone":"13224698154"}</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>{"user_name":"牟秀英","id_card_no":"370523194001220878","phone":"18016958528"}</t>
+          <t>{"user_name":"穆小红","id_card_no":"530322199010103839","phone":"18702419443"}</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>{"user_name":"危颖","id_card_no":"210624196805102654","phone":"13645728345"}</t>
+          <t>{"user_name":"咎红梅","id_card_no":"513330195008081934","phone":"14562002602"}</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>{"user_name":"晏健","id_card_no":"141001196310150617","phone":"13675544999"}</t>
+          <t>{"user_name":"乜桂花","id_card_no":"520600199303111927","phone":"15177983644"}</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>{"user_name":"米欣","id_card_no":"632726197502178814","phone":"15124501160"}</t>
+          <t>{"user_name":"雍倩","id_card_no":"623021193406160965","phone":"13815535255"}</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>{"user_name":"劳明","id_card_no":"500235193108121203","phone":"15543616797"}</t>
+          <t>{"user_name":"籍兵","id_card_no":"340301197702129304","phone":"13293501959"}</t>
         </is>
       </c>
     </row>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>{"user_name":"皮军","id_card_no":"520400194506221970","phone":"13946179812"}</t>
+          <t>{"user_name":"壤秀荣","id_card_no":"451026197805050778","phone":"15349332054"}</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>{"user_name":"禄丽丽","id_card_no":"220303195010100080","phone":"18046006903"}</t>
+          <t>{"user_name":"弘丽娟","id_card_no":"511826194005159704","phone":"15635292173"}</t>
         </is>
       </c>
     </row>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>{"user_name":"楚浩","id_card_no":"340404195306275241","phone":"13682561979"}</t>
+          <t>{"user_name":"羊想","id_card_no":"371602196806281241","phone":"13660548828"}</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>{"user_name":"巢雪梅","id_card_no":"62062219330723673X","phone":"14531873573"}</t>
+          <t>{"user_name":"茅桂芳","id_card_no":"331122199101068947","phone":"13709772007"}</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>{"user_name":"刁建军","id_card_no":"430923194707249283","phone":"13707704258"}</t>
+          <t>{"user_name":"司燕","id_card_no":"500109193605042030","phone":"15337602141"}</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>{"user_name":"季玉英","id_card_no":"510521194101110178","phone":"18784135609"}</t>
+          <t>{"user_name":"冶建","id_card_no":"420101196503235678","phone":"13483124145"}</t>
         </is>
       </c>
     </row>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>{"user_name":"尤利","id_card_no":"140702199708024407","phone":"14584056567"}</t>
+          <t>{"user_name":"从金凤","id_card_no":"440804194012104018","phone":"18640274610"}</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>{"user_name":"暴想","id_card_no":"320101197410064145","phone":"13489499284"}</t>
+          <t>{"user_name":"郑欢","id_card_no":"350784196305116999","phone":"15311802028"}</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>{"user_name":"芮建国","id_card_no":"360103197512020514","phone":"15572735336"}</t>
+          <t>{"user_name":"寇强","id_card_no":"210202198411142134","phone":"15929183946"}</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>{"user_name":"长桂荣","id_card_no":"320211194202034114","phone":"15106224919"}</t>
+          <t>{"user_name":"谷帆","id_card_no":"510322199710316487","phone":"15751309642"}</t>
         </is>
       </c>
     </row>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>{"user_name":"桓凤兰","id_card_no":"451228197904098906","phone":"13367273683"}</t>
+          <t>{"user_name":"漆想","id_card_no":"632802198802099287","phone":"18273527527"}</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>{"user_name":"商艳","id_card_no":"522731198605125168","phone":"13654676939"}</t>
+          <t>{"user_name":"姜燕","id_card_no":"361125195009094938","phone":"15385722212"}</t>
         </is>
       </c>
     </row>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>{"user_name":"子辉","id_card_no":"230421193310231972","phone":"15693247564"}</t>
+          <t>{"user_name":"舒波","id_card_no":"530724198305315425","phone":"15709034618"}</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>{"user_name":"木玉华","id_card_no":"43060219610325586X","phone":"13702507796"}</t>
+          <t>{"user_name":"古健","id_card_no":"450302199807310207","phone":"18553623659"}</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>{"user_name":"骆琳","id_card_no":"140922194909248603","phone":"15136407943"}</t>
+          <t>{"user_name":"诸琴","id_card_no":"610204195707307050","phone":"18761656297"}</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>{"user_name":"司超","id_card_no":"370404194704192530","phone":"13192660110"}</t>
+          <t>{"user_name":"容梅","id_card_no":"460202196009033930","phone":"18208761622"}</t>
         </is>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>{"user_name":"弓畅","id_card_no":"511825199210274740","phone":"14515600772"}</t>
+          <t>{"user_name":"都颖","id_card_no":"230203193808141612","phone":"18936061660"}</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>{"user_name":"毋桂芳","id_card_no":"130400195511131621","phone":"18232605419"}</t>
+          <t>{"user_name":"毋洁","id_card_no":"210201193312099493","phone":"14785776096"}</t>
         </is>
       </c>
     </row>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>{"user_name":"冉桂荣","id_card_no":"410306195509060983","phone":"18621129305"}</t>
+          <t>{"user_name":"家金凤","id_card_no":"330523193107038722","phone":"13210589705"}</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>{"user_name":"苏欢","id_card_no":"610582199012144682","phone":"13950157581"}</t>
+          <t>{"user_name":"狄林","id_card_no":"511001194207137916","phone":"15351244572"}</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>{"user_name":"勾玉英","id_card_no":"422800197005248896","phone":"15226682117"}</t>
+          <t>{"user_name":"亓超","id_card_no":"610601194007228704","phone":"13809125566"}</t>
         </is>
       </c>
     </row>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>{"user_name":"束莉","id_card_no":"340302195106306519","phone":"18041377809"}</t>
+          <t>{"user_name":"舒玲","id_card_no":"320105192912070628","phone":"13246290766"}</t>
         </is>
       </c>
     </row>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>{"user_name":"步凤英","id_card_no":"230621195205127436","phone":"13275904962"}</t>
+          <t>{"user_name":"陶玉珍","id_card_no":"210500194309262645","phone":"18514723452"}</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>{"user_name":"澹秀珍","id_card_no":"410883194210222920","phone":"13782782574"}</t>
+          <t>{"user_name":"董红","id_card_no":"340222197203099645","phone":"18552237150"}</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>{"user_name":"刁桂珍","id_card_no":"141032196201230225","phone":"14560574223"}</t>
+          <t>{"user_name":"吕岩","id_card_no":"450321195601057729","phone":"18204505969"}</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>{"user_name":"任玉珍","id_card_no":"13080319930917757X","phone":"13225696174"}</t>
+          <t>{"user_name":"文涛","id_card_no":"340522199708261076","phone":"18155538269"}</t>
         </is>
       </c>
     </row>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>{"user_name":"伍博","id_card_no":"620902193704176188","phone":"13821399821"}</t>
+          <t>{"user_name":"卜晨","id_card_no":"632500195409041625","phone":"18945408732"}</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>{"user_name":"况桂芳","id_card_no":"141100197309089103","phone":"18052716508"}</t>
+          <t>{"user_name":"诸健","id_card_no":"130424194005301057","phone":"15288402893"}</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>{"user_name":"利帅","id_card_no":"440604198804071397","phone":"18027960732"}</t>
+          <t>{"user_name":"闫勇","id_card_no":"210804194605316347","phone":"18726210933"}</t>
         </is>
       </c>
     </row>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>{"user_name":"钱璐","id_card_no":"653222193105309001","phone":"18968724067"}</t>
+          <t>{"user_name":"慕桂兰","id_card_no":"445203199502058833","phone":"13621868294"}</t>
         </is>
       </c>
     </row>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>{"user_name":"唐欢","id_card_no":"610527198812250476","phone":"15070203835"}</t>
+          <t>{"user_name":"牟丹","id_card_no":"430406200106019081","phone":"18894073127"}</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>{"user_name":"贺淑兰","id_card_no":"350582198904289504","phone":"14787324551"}</t>
+          <t>{"user_name":"司波","id_card_no":"632823193012263635","phone":"13638408574"}</t>
         </is>
       </c>
     </row>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>{"user_name":"商海燕","id_card_no":"110111193907316913","phone":"14552919467"}</t>
+          <t>{"user_name":"钟兰英","id_card_no":"522326195508147254","phone":"18681777051"}</t>
         </is>
       </c>
     </row>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>{"user_name":"邰旭","id_card_no":"620122200001236708","phone":"13878973187"}</t>
+          <t>{"user_name":"殴雪梅","id_card_no":"430581195405154808","phone":"14576194689"}</t>
         </is>
       </c>
     </row>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>{"user_name":"闻丽华","id_card_no":"230621195610232483","phone":"18541220200"}</t>
+          <t>{"user_name":"庄建国","id_card_no":"450802195002243704","phone":"18527865722"}</t>
         </is>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>{"user_name":"苏艳","id_card_no":"150624195701021314","phone":"13874119358"}</t>
+          <t>{"user_name":"宫桂荣","id_card_no":"140201197307253206","phone":"18725132192"}</t>
         </is>
       </c>
     </row>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>{"user_name":"闻桂芝","id_card_no":"610300193905121303","phone":"15077281690"}</t>
+          <t>{"user_name":"邴秀荣","id_card_no":"440902194307100949","phone":"14799727657"}</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>{"user_name":"晁利","id_card_no":"640402195502173398","phone":"13128826869"}</t>
+          <t>{"user_name":"安伟","id_card_no":"120221193401200032","phone":"18851745248"}</t>
         </is>
       </c>
     </row>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>{"user_name":"苗兵","id_card_no":"450600197711101333","phone":"13309336862"}</t>
+          <t>{"user_name":"丘萍","id_card_no":"450701198712115629","phone":"18063125487"}</t>
         </is>
       </c>
     </row>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>{"user_name":"潘秀珍","id_card_no":"130108195401119765","phone":"13649603177"}</t>
+          <t>{"user_name":"张伟","id_card_no":"320000195910229734","phone":"18610891381"}</t>
         </is>
       </c>
     </row>
@@ -5548,7 +5548,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>{"user_name":"胡海燕","id_card_no":"441601199001095789","phone":"15569971833"}</t>
+          <t>{"user_name":"都晨","id_card_no":"320400199201091429","phone":"14516456453"}</t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>{"user_name":"官琳","id_card_no":"370800192910262672","phone":"13648160254"}</t>
+          <t>{"user_name":"柯云","id_card_no":"430200194706229691","phone":"15595051008"}</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>{"user_name":"陈洁","id_card_no":"370303194504261229","phone":"13316303753"}</t>
+          <t>{"user_name":"舒宇","id_card_no":"411403194806052392","phone":"15851313256"}</t>
         </is>
       </c>
     </row>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>{"user_name":"鞠博","id_card_no":"420700198605218524","phone":"13810452130"}</t>
+          <t>{"user_name":"屈帅","id_card_no":"130535196212148781","phone":"13532684224"}</t>
         </is>
       </c>
     </row>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>{"user_name":"弓静","id_card_no":"530802194412206944","phone":"18211269137"}</t>
+          <t>{"user_name":"丘秀兰","id_card_no":"510101196104267885","phone":"13502916082"}</t>
         </is>
       </c>
     </row>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>{"user_name":"贡洋","id_card_no":"430781199712154137","phone":"15717504922"}</t>
+          <t>{"user_name":"诸云","id_card_no":"532329197508299522","phone":"18761621075"}</t>
         </is>
       </c>
     </row>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>{"user_name":"桑琳","id_card_no":"440105197311138084","phone":"15591469576"}</t>
+          <t>{"user_name":"谢佳","id_card_no":"210681199308302146","phone":"15842580532"}</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>{"user_name":"益丽娟","id_card_no":"45130219560519460X","phone":"13909448049"}</t>
+          <t>{"user_name":"巫东","id_card_no":"370611196911010158","phone":"13364207681"}</t>
         </is>
       </c>
     </row>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>{"user_name":"辛淑英","id_card_no":"420625195711289578","phone":"15654601026"}</t>
+          <t>{"user_name":"荆慧","id_card_no":"532527193406263342","phone":"15950917316"}</t>
         </is>
       </c>
     </row>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>{"user_name":"韩建","id_card_no":"360702194403291844","phone":"14714487062"}</t>
+          <t>{"user_name":"乐阳","id_card_no":"120114194710079657","phone":"18074835188"}</t>
         </is>
       </c>
     </row>
@@ -6098,7 +6098,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>{"user_name":"钟博","id_card_no":"431224196404304167","phone":"13636353994"}</t>
+          <t>{"user_name":"贡帅","id_card_no":"331102195609030073","phone":"13447800990"}</t>
         </is>
       </c>
     </row>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>{"user_name":"曹淑珍","id_card_no":"371722200105256158","phone":"13581965756"}</t>
+          <t>{"user_name":"闫春梅","id_card_no":"140931199706304221","phone":"13099568930"}</t>
         </is>
       </c>
     </row>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>{"user_name":"颜桂珍","id_card_no":"620201197612227770","phone":"13908261258"}</t>
+          <t>{"user_name":"鞠秀珍","id_card_no":"420528197403049890","phone":"13885258325"}</t>
         </is>
       </c>
     </row>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>{"user_name":"别丽","id_card_no":"41150319631005759X","phone":"14744712884"}</t>
+          <t>{"user_name":"伏丽","id_card_no":"451222194307018953","phone":"18605668631"}</t>
         </is>
       </c>
     </row>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>{"user_name":"壤倩","id_card_no":"532929196910039604","phone":"13796769974"}</t>
+          <t>{"user_name":"高彬","id_card_no":"371428194005219345","phone":"15363899217"}</t>
         </is>
       </c>
     </row>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>{"user_name":"杭雪梅","id_card_no":"210911199211169737","phone":"18985703703"}</t>
+          <t>{"user_name":"房璐","id_card_no":"152527199702288372","phone":"15515459004"}</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>{"user_name":"跋畅","id_card_no":"540124196510026307","phone":"14543138797"}</t>
+          <t>{"user_name":"农林","id_card_no":"410704198910075367","phone":"18906860315"}</t>
         </is>
       </c>
     </row>
@@ -6475,7 +6475,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>{"user_name":"莫帆","id_card_no":"510401193802095024","phone":"15860179911"}</t>
+          <t>{"user_name":"连佳","id_card_no":"210501198206239738","phone":"15661486141"}</t>
         </is>
       </c>
     </row>
@@ -6524,7 +6524,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>{"user_name":"宇凯","id_card_no":"220402194902070504","phone":"13519065981"}</t>
+          <t>{"user_name":"嵇秀荣","id_card_no":"222400193307206328","phone":"13314515687"}</t>
         </is>
       </c>
     </row>
@@ -6582,7 +6582,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>{"user_name":"仉洋","id_card_no":"320501197705285967","phone":"18706428665"}</t>
+          <t>{"user_name":"牧俊","id_card_no":"440303196701038541","phone":"14550764243"}</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>{"user_name":"古磊","id_card_no":"341324195909226896","phone":"18114484874"}</t>
+          <t>{"user_name":"宋梅","id_card_no":"630105197408236735","phone":"15318610653"}</t>
         </is>
       </c>
     </row>
@@ -6690,7 +6690,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>{"user_name":"岑鑫","id_card_no":"511101197006101158","phone":"13486628244"}</t>
+          <t>{"user_name":"糜飞","id_card_no":"110112195407319662","phone":"13671660447"}</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>{"user_name":"强玉兰","id_card_no":"54010219431015741X","phone":"13321716570"}</t>
+          <t>{"user_name":"于凤英","id_card_no":"220502197306202944","phone":"15900616592"}</t>
         </is>
       </c>
     </row>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>{"user_name":"贡小红","id_card_no":"530502195210234064","phone":"14502898360"}</t>
+          <t>{"user_name":"班淑华","id_card_no":"320902199501097312","phone":"15779481123"}</t>
         </is>
       </c>
     </row>
@@ -6843,7 +6843,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>{"user_name":"卢瑞","id_card_no":"450222193211019251","phone":"13654462396"}</t>
+          <t>{"user_name":"鄂玉兰","id_card_no":"430181194204075744","phone":"13237108438"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-17001_result.xlsx
+++ b/tests/data/output/一级测试用例-17001_result.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"呼秀华","id_card_no":"511301194405277051","phone":"13115339934"}</t>
+          <t>{"user_name":"施楠","id_card_no":"370613197004108108","phone":"15712444380"}</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"广凯","id_card_no":"420921195105045638","phone":"18625984612"}</t>
+          <t>{"user_name":"墨亮","id_card_no":"13048119461111665X","phone":"18941081355"}</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"姬萍","id_card_no":"150924196508043483","phone":"18099174955"}</t>
+          <t>{"user_name":"束欢","id_card_no":"330301195811185195","phone":"18608051519"}</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"邹杰","id_card_no":"140106199502134005","phone":"13490087436"}</t>
+          <t>{"user_name":"阳秀兰","id_card_no":"211102198105225682","phone":"13892153059"}</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"阳颖","id_card_no":"451102194010242435","phone":"18821839127"}</t>
+          <t>{"user_name":"江鹏","id_card_no":"451000200004144687","phone":"13792860403"}</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"养梅","id_card_no":"131002194503187024","phone":"15840058470"}</t>
+          <t>{"user_name":"庄瑜","id_card_no":"210803197911255906","phone":"15524707633"}</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"支倩","id_card_no":"320924198812268573","phone":"18911807783"}</t>
+          <t>{"user_name":"刁桂花","id_card_no":"420881194006192516","phone":"13272210383"}</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"公浩","id_card_no":"610402198104097199","phone":"15738518586"}</t>
+          <t>{"user_name":"宁艳","id_card_no":"511922193306105975","phone":"14529577920"}</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"赫秀荣","id_card_no":"520222199602087417","phone":"18976832874"}</t>
+          <t>{"user_name":"杭成","id_card_no":"320831199910219057","phone":"14587492765"}</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"尚岩","id_card_no":"210922198307135974","phone":"13004549569"}</t>
+          <t>{"user_name":"狐畅","id_card_no":"220303193810082993","phone":"15264295096"}</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"空宁","id_card_no":"431321199705184330","phone":"13307695886"}</t>
+          <t>{"user_name":"茹楠","id_card_no":"341181193101239691","phone":"13005849985"}</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"跋秀英","id_card_no":"131128200012148351","phone":"18257648817"}</t>
+          <t>{"user_name":"羿涛","id_card_no":"650201194702254168","phone":"15653759600"}</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"宓颖","id_card_no":"131128196811071232","phone":"14540590022"}</t>
+          <t>{"user_name":"柴洁","id_card_no":"410522197107017018","phone":"15130035541"}</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"乌敏","id_card_no":"451200198101267401","phone":"18914080607"}</t>
+          <t>{"user_name":"余秀梅","id_card_no":"522323199212279548","phone":"18646294567"}</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"石波","id_card_no":"43112319760423344X","phone":"15773146114"}</t>
+          <t>{"user_name":"包春梅","id_card_no":"210681198809188498","phone":"18797548235"}</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"隆桂珍","id_card_no":"522635196509285090","phone":"18621608865"}</t>
+          <t>{"user_name":"呼亮","id_card_no":"522625196012030495","phone":"13495688024"}</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"车勇","id_card_no":"360300195202283493","phone":"15196078722"}</t>
+          <t>{"user_name":"祝强","id_card_no":"130726195303099372","phone":"15392924770"}</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"隗旭","id_card_no":"610728198507015768","phone":"13147192845"}</t>
+          <t>{"user_name":"史利","id_card_no":"220281194311084001","phone":"15654633447"}</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"宰红","id_card_no":"441825196606113829","phone":"13915662866"}</t>
+          <t>{"user_name":"诸艳","id_card_no":"654224196009215838","phone":"14591292647"}</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"养玉珍","id_card_no":"640000193712293685","phone":"13960375243"}</t>
+          <t>{"user_name":"郭欣","id_card_no":"140181199107232051","phone":"18186557851"}</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"桓红梅","id_card_no":"411323193802089118","phone":"15780631885"}</t>
+          <t>{"user_name":"于帅","id_card_no":"320623199605229784","phone":"13899378973"}</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"桂兰英","id_card_no":"620600198806190873","phone":"14761083154"}</t>
+          <t>{"user_name":"太桂花","id_card_no":"360902196905090444","phone":"15157613587"}</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"邬亮","id_card_no":"37068319350602575X","phone":"13697834113"}</t>
+          <t>{"user_name":"姚文","id_card_no":"640122194002143779","phone":"18025791896"}</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"翁玉梅","id_card_no":"370831198211129006","phone":"13100947293"}</t>
+          <t>{"user_name":"彭凤英","id_card_no":"54252619501224571X","phone":"14598736654"}</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"user_name":"蒋玉华","id_card_no":"340503195704265953","phone":"18641139268"}</t>
+          <t>{"user_name":"池凯","id_card_no":"50023319710326899X","phone":"18837493585"}</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"user_name":"邹秀兰","id_card_no":"220112196211227950","phone":"13756656033"}</t>
+          <t>{"user_name":"郝平","id_card_no":"220000199803282251","phone":"15731259826"}</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"user_name":"史彬","id_card_no":"451021199403069668","phone":"18578619481"}</t>
+          <t>{"user_name":"文桂珍","id_card_no":"350101193504059651","phone":"14778677969"}</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"user_name":"糜磊","id_card_no":"320405199412076132","phone":"15021163006"}</t>
+          <t>{"user_name":"容淑华","id_card_no":"370982196512121717","phone":"13336324014"}</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"user_name":"钭建","id_card_no":"510725195302185935","phone":"14747273992"}</t>
+          <t>{"user_name":"萧玉华","id_card_no":"140101197811302163","phone":"15368508221"}</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"user_name":"岑淑珍","id_card_no":"371428194205101982","phone":"14544731133"}</t>
+          <t>{"user_name":"单文","id_card_no":"630103196305080988","phone":"13080426357"}</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"user_name":"程琴","id_card_no":"653100193901149527","phone":"15138178333"}</t>
+          <t>{"user_name":"金兵","id_card_no":"361021194606060538","phone":"13439696678"}</t>
         </is>
       </c>
     </row>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"user_name":"广凯","id_card_no":"530630197610010086","phone":"13186784302"}</t>
+          <t>{"user_name":"生洋","id_card_no":"440802193104264521","phone":"13468610605"}</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"user_name":"迟静","id_card_no":"370100199511017489","phone":"18125395885"}</t>
+          <t>{"user_name":"连宇","id_card_no":"320982195209168199","phone":"13768900931"}</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"user_name":"郁芳","id_card_no":"15292219621212921X","phone":"18170539955"}</t>
+          <t>{"user_name":"翟云","id_card_no":"410401198304167602","phone":"13812448069"}</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"user_name":"木博","id_card_no":"14020019650418347X","phone":"14541460297"}</t>
+          <t>{"user_name":"竺秀英","id_card_no":"513338195405168997","phone":"13756560401"}</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"user_name":"武洋","id_card_no":"632622198701223968","phone":"18040446203"}</t>
+          <t>{"user_name":"干想","id_card_no":"360926193112291243","phone":"15175727399"}</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>{"user_name":"贾东","id_card_no":"542624199206137216","phone":"13302794250"}</t>
+          <t>{"user_name":"魏斌","id_card_no":"430221197504254894","phone":"15953347691"}</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"user_name":"宗晶","id_card_no":"440201193602271717","phone":"15812857526"}</t>
+          <t>{"user_name":"笪玲","id_card_no":"35092219660103288X","phone":"13035978086"}</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"user_name":"西雪","id_card_no":"340826193408019899","phone":"15589264967"}</t>
+          <t>{"user_name":"梁宇","id_card_no":"15042819810807443X","phone":"18099484554"}</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"user_name":"东萍","id_card_no":"350205199708036089","phone":"15053686531"}</t>
+          <t>{"user_name":"屠畅","id_card_no":"621124198110152646","phone":"13355266852"}</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"user_name":"虞欣","id_card_no":"542126195108217973","phone":"15913145001"}</t>
+          <t>{"user_name":"鲍桂珍","id_card_no":"370523198512102759","phone":"13755523154"}</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"user_name":"红丽娟","id_card_no":"34102319731212421X","phone":"15970120109"}</t>
+          <t>{"user_name":"拓芳","id_card_no":"361101197602292116","phone":"18568957585"}</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"user_name":"年志强","id_card_no":"411728198508255660","phone":"15617976267"}</t>
+          <t>{"user_name":"龚桂芳","id_card_no":"653223193907154423","phone":"15720186007"}</t>
         </is>
       </c>
     </row>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"user_name":"诸强","id_card_no":"654300195204205555","phone":"15917107072"}</t>
+          <t>{"user_name":"钟桂芝","id_card_no":"330183196101076961","phone":"15557897882"}</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"user_name":"人林","id_card_no":"150623193805292949","phone":"14585872816"}</t>
+          <t>{"user_name":"后伟","id_card_no":"130281198612096109","phone":"15116169651"}</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"user_name":"简文","id_card_no":"640500196606210971","phone":"18239372379"}</t>
+          <t>{"user_name":"西桂珍","id_card_no":"320211193608105416","phone":"18009592704"}</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>{"user_name":"延桂芳","id_card_no":"370211199807280061","phone":"18036796819"}</t>
+          <t>{"user_name":"相佳","id_card_no":"542427199001276288","phone":"13620934508"}</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>{"user_name":"缪彬","id_card_no":"522625194407062433","phone":"13224698154"}</t>
+          <t>{"user_name":"封秀梅","id_card_no":"120104195606264846","phone":"18860287251"}</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>{"user_name":"穆小红","id_card_no":"530322199010103839","phone":"18702419443"}</t>
+          <t>{"user_name":"顾东","id_card_no":"320621197608298636","phone":"15856649793"}</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>{"user_name":"咎红梅","id_card_no":"513330195008081934","phone":"14562002602"}</t>
+          <t>{"user_name":"裘燕","id_card_no":"511800196412295362","phone":"18784404458"}</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>{"user_name":"乜桂花","id_card_no":"520600199303111927","phone":"15177983644"}</t>
+          <t>{"user_name":"荆晨","id_card_no":"211302200012206926","phone":"14576082489"}</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>{"user_name":"雍倩","id_card_no":"623021193406160965","phone":"13815535255"}</t>
+          <t>{"user_name":"爱秀云","id_card_no":"620801196603305886","phone":"18966086329"}</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>{"user_name":"籍兵","id_card_no":"340301197702129304","phone":"13293501959"}</t>
+          <t>{"user_name":"长红霞","id_card_no":"120223194212099251","phone":"15269948912"}</t>
         </is>
       </c>
     </row>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>{"user_name":"壤秀荣","id_card_no":"451026197805050778","phone":"15349332054"}</t>
+          <t>{"user_name":"郎秀华","id_card_no":"652328193905026985","phone":"13779652886"}</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>{"user_name":"弘丽娟","id_card_no":"511826194005159704","phone":"15635292173"}</t>
+          <t>{"user_name":"哈彬","id_card_no":"231121199212165109","phone":"15684450848"}</t>
         </is>
       </c>
     </row>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>{"user_name":"羊想","id_card_no":"371602196806281241","phone":"13660548828"}</t>
+          <t>{"user_name":"毕帅","id_card_no":"321002197403219526","phone":"18751848643"}</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>{"user_name":"茅桂芳","id_card_no":"331122199101068947","phone":"13709772007"}</t>
+          <t>{"user_name":"雷辉","id_card_no":"230622196207302681","phone":"13800744818"}</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>{"user_name":"司燕","id_card_no":"500109193605042030","phone":"15337602141"}</t>
+          <t>{"user_name":"佴玲","id_card_no":"410611197406288068","phone":"13860502126"}</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>{"user_name":"冶建","id_card_no":"420101196503235678","phone":"13483124145"}</t>
+          <t>{"user_name":"霍桂英","id_card_no":"441700198112100856","phone":"13299100932"}</t>
         </is>
       </c>
     </row>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>{"user_name":"从金凤","id_card_no":"440804194012104018","phone":"18640274610"}</t>
+          <t>{"user_name":"浦彬","id_card_no":"430104196009053976","phone":"15860058047"}</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>{"user_name":"郑欢","id_card_no":"350784196305116999","phone":"15311802028"}</t>
+          <t>{"user_name":"白琴","id_card_no":"140925193901069410","phone":"15112651896"}</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>{"user_name":"寇强","id_card_no":"210202198411142134","phone":"15929183946"}</t>
+          <t>{"user_name":"延桂芝","id_card_no":"411025197502071818","phone":"15821335881"}</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>{"user_name":"谷帆","id_card_no":"510322199710316487","phone":"15751309642"}</t>
+          <t>{"user_name":"姬鹏","id_card_no":"350421195606092293","phone":"18639822226"}</t>
         </is>
       </c>
     </row>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>{"user_name":"漆想","id_card_no":"632802198802099287","phone":"18273527527"}</t>
+          <t>{"user_name":"亢凤英","id_card_no":"140623196109294969","phone":"18256814222"}</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>{"user_name":"姜燕","id_card_no":"361125195009094938","phone":"15385722212"}</t>
+          <t>{"user_name":"蔺超","id_card_no":"640501196812264272","phone":"15556077450"}</t>
         </is>
       </c>
     </row>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>{"user_name":"舒波","id_card_no":"530724198305315425","phone":"15709034618"}</t>
+          <t>{"user_name":"黄冬梅","id_card_no":"532523193308064491","phone":"15562812878"}</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>{"user_name":"古健","id_card_no":"450302199807310207","phone":"18553623659"}</t>
+          <t>{"user_name":"苗亮","id_card_no":"360121199603144362","phone":"15776021943"}</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>{"user_name":"诸琴","id_card_no":"610204195707307050","phone":"18761656297"}</t>
+          <t>{"user_name":"步建","id_card_no":"441322197507139327","phone":"13852979166"}</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>{"user_name":"容梅","id_card_no":"460202196009033930","phone":"18208761622"}</t>
+          <t>{"user_name":"满强","id_card_no":"511923199802234470","phone":"18852388895"}</t>
         </is>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>{"user_name":"都颖","id_card_no":"230203193808141612","phone":"18936061660"}</t>
+          <t>{"user_name":"蒯慧","id_card_no":"440306193501201469","phone":"15150398665"}</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>{"user_name":"毋洁","id_card_no":"210201193312099493","phone":"14785776096"}</t>
+          <t>{"user_name":"栾桂香","id_card_no":"420502194207247796","phone":"13971834767"}</t>
         </is>
       </c>
     </row>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>{"user_name":"家金凤","id_card_no":"330523193107038722","phone":"13210589705"}</t>
+          <t>{"user_name":"粱建","id_card_no":"130435196308177573","phone":"18275058449"}</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>{"user_name":"狄林","id_card_no":"511001194207137916","phone":"15351244572"}</t>
+          <t>{"user_name":"有秀珍","id_card_no":"411602197612163500","phone":"13438653295"}</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>{"user_name":"亓超","id_card_no":"610601194007228704","phone":"13809125566"}</t>
+          <t>{"user_name":"申桂珍","id_card_no":"469006196503295752","phone":"14555456514"}</t>
         </is>
       </c>
     </row>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>{"user_name":"舒玲","id_card_no":"320105192912070628","phone":"13246290766"}</t>
+          <t>{"user_name":"郁志强","id_card_no":"522702197305161849","phone":"13845615713"}</t>
         </is>
       </c>
     </row>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>{"user_name":"陶玉珍","id_card_no":"210500194309262645","phone":"18514723452"}</t>
+          <t>{"user_name":"匡玉梅","id_card_no":"450203198112158778","phone":"18092140369"}</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>{"user_name":"董红","id_card_no":"340222197203099645","phone":"18552237150"}</t>
+          <t>{"user_name":"臧坤","id_card_no":"441203196801103860","phone":"18230780918"}</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>{"user_name":"吕岩","id_card_no":"450321195601057729","phone":"18204505969"}</t>
+          <t>{"user_name":"胥晨","id_card_no":"130430195512306487","phone":"13698394988"}</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>{"user_name":"文涛","id_card_no":"340522199708261076","phone":"18155538269"}</t>
+          <t>{"user_name":"养刚","id_card_no":"211303194008088056","phone":"15537741741"}</t>
         </is>
       </c>
     </row>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>{"user_name":"卜晨","id_card_no":"632500195409041625","phone":"18945408732"}</t>
+          <t>{"user_name":"桓淑珍","id_card_no":"110109197207019834","phone":"18552921961"}</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>{"user_name":"诸健","id_card_no":"130424194005301057","phone":"15288402893"}</t>
+          <t>{"user_name":"巫欢","id_card_no":"620824199911015395","phone":"14755654842"}</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>{"user_name":"闫勇","id_card_no":"210804194605316347","phone":"18726210933"}</t>
+          <t>{"user_name":"丘芳","id_card_no":"340222198908104111","phone":"13442138335"}</t>
         </is>
       </c>
     </row>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>{"user_name":"慕桂兰","id_card_no":"445203199502058833","phone":"13621868294"}</t>
+          <t>{"user_name":"木丹","id_card_no":"450224200105180039","phone":"15298095466"}</t>
         </is>
       </c>
     </row>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>{"user_name":"牟丹","id_card_no":"430406200106019081","phone":"18894073127"}</t>
+          <t>{"user_name":"闾健","id_card_no":"440100193607195707","phone":"14599259925"}</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>{"user_name":"司波","id_card_no":"632823193012263635","phone":"13638408574"}</t>
+          <t>{"user_name":"通欢","id_card_no":"150522199201162452","phone":"13801640316"}</t>
         </is>
       </c>
     </row>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>{"user_name":"钟兰英","id_card_no":"522326195508147254","phone":"18681777051"}</t>
+          <t>{"user_name":"蔺刚","id_card_no":"210423198609171339","phone":"15832252106"}</t>
         </is>
       </c>
     </row>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>{"user_name":"殴雪梅","id_card_no":"430581195405154808","phone":"14576194689"}</t>
+          <t>{"user_name":"黄敏","id_card_no":"140825193004289098","phone":"15143488736"}</t>
         </is>
       </c>
     </row>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>{"user_name":"庄建国","id_card_no":"450802195002243704","phone":"18527865722"}</t>
+          <t>{"user_name":"柯龙","id_card_no":"421100197407234535","phone":"13632519979"}</t>
         </is>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>{"user_name":"宫桂荣","id_card_no":"140201197307253206","phone":"18725132192"}</t>
+          <t>{"user_name":"敖佳","id_card_no":"530700194304282669","phone":"13458270268"}</t>
         </is>
       </c>
     </row>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>{"user_name":"邴秀荣","id_card_no":"440902194307100949","phone":"14799727657"}</t>
+          <t>{"user_name":"家静","id_card_no":"420505195010135022","phone":"18666311284"}</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>{"user_name":"安伟","id_card_no":"120221193401200032","phone":"18851745248"}</t>
+          <t>{"user_name":"彭彬","id_card_no":"35072419470720497X","phone":"13478720625"}</t>
         </is>
       </c>
     </row>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>{"user_name":"丘萍","id_card_no":"450701198712115629","phone":"18063125487"}</t>
+          <t>{"user_name":"越峰","id_card_no":"441424193806029232","phone":"15822495719"}</t>
         </is>
       </c>
     </row>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>{"user_name":"张伟","id_card_no":"320000195910229734","phone":"18610891381"}</t>
+          <t>{"user_name":"晏秀芳","id_card_no":"451228195604138129","phone":"18195139538"}</t>
         </is>
       </c>
     </row>
@@ -5548,7 +5548,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>{"user_name":"都晨","id_card_no":"320400199201091429","phone":"14516456453"}</t>
+          <t>{"user_name":"孔淑珍","id_card_no":"220201196603267368","phone":"15321478279"}</t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>{"user_name":"柯云","id_card_no":"430200194706229691","phone":"15595051008"}</t>
+          <t>{"user_name":"邢桂花","id_card_no":"610401196204093907","phone":"14524467930"}</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>{"user_name":"舒宇","id_card_no":"411403194806052392","phone":"15851313256"}</t>
+          <t>{"user_name":"嵇玉英","id_card_no":"441800195806020641","phone":"18583178536"}</t>
         </is>
       </c>
     </row>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>{"user_name":"屈帅","id_card_no":"130535196212148781","phone":"13532684224"}</t>
+          <t>{"user_name":"唐建军","id_card_no":"440500193110217562","phone":"13765160576"}</t>
         </is>
       </c>
     </row>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>{"user_name":"丘秀兰","id_card_no":"510101196104267885","phone":"13502916082"}</t>
+          <t>{"user_name":"俟颖","id_card_no":"450103199506088345","phone":"15185974563"}</t>
         </is>
       </c>
     </row>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>{"user_name":"诸云","id_card_no":"532329197508299522","phone":"18761621075"}</t>
+          <t>{"user_name":"余建","id_card_no":"230805195210214551","phone":"18710903033"}</t>
         </is>
       </c>
     </row>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>{"user_name":"谢佳","id_card_no":"210681199308302146","phone":"15842580532"}</t>
+          <t>{"user_name":"封洁","id_card_no":"610626197710213011","phone":"14549038964"}</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>{"user_name":"巫东","id_card_no":"370611196911010158","phone":"13364207681"}</t>
+          <t>{"user_name":"连萍","id_card_no":"320621197506151270","phone":"13836805512"}</t>
         </is>
       </c>
     </row>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>{"user_name":"荆慧","id_card_no":"532527193406263342","phone":"15950917316"}</t>
+          <t>{"user_name":"倪秀珍","id_card_no":"610631199601286211","phone":"15267435701"}</t>
         </is>
       </c>
     </row>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>{"user_name":"乐阳","id_card_no":"120114194710079657","phone":"18074835188"}</t>
+          <t>{"user_name":"弓丽娟","id_card_no":"530629196604236812","phone":"15530756575"}</t>
         </is>
       </c>
     </row>
@@ -6098,7 +6098,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>{"user_name":"贡帅","id_card_no":"331102195609030073","phone":"13447800990"}</t>
+          <t>{"user_name":"匡雷","id_card_no":"532823197508047607","phone":"18193962289"}</t>
         </is>
       </c>
     </row>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>{"user_name":"闫春梅","id_card_no":"140931199706304221","phone":"13099568930"}</t>
+          <t>{"user_name":"水荣","id_card_no":"231225193103060491","phone":"15838491295"}</t>
         </is>
       </c>
     </row>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>{"user_name":"鞠秀珍","id_card_no":"420528197403049890","phone":"13885258325"}</t>
+          <t>{"user_name":"邴莉","id_card_no":"610500193701188267","phone":"15637037579"}</t>
         </is>
       </c>
     </row>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>{"user_name":"伏丽","id_card_no":"451222194307018953","phone":"18605668631"}</t>
+          <t>{"user_name":"佘亮","id_card_no":"51342620000503757X","phone":"15702599523"}</t>
         </is>
       </c>
     </row>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>{"user_name":"高彬","id_card_no":"371428194005219345","phone":"15363899217"}</t>
+          <t>{"user_name":"戴瑞","id_card_no":"532800196810063190","phone":"14577829291"}</t>
         </is>
       </c>
     </row>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>{"user_name":"房璐","id_card_no":"152527199702288372","phone":"15515459004"}</t>
+          <t>{"user_name":"汤凯","id_card_no":"320923193505196814","phone":"13866081633"}</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>{"user_name":"农林","id_card_no":"410704198910075367","phone":"18906860315"}</t>
+          <t>{"user_name":"刘淑兰","id_card_no":"140202200006258987","phone":"18912307527"}</t>
         </is>
       </c>
     </row>
@@ -6475,7 +6475,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>{"user_name":"连佳","id_card_no":"210501198206239738","phone":"15661486141"}</t>
+          <t>{"user_name":"郏云","id_card_no":"140725195103214730","phone":"13405484257"}</t>
         </is>
       </c>
     </row>
@@ -6524,7 +6524,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>{"user_name":"嵇秀荣","id_card_no":"222400193307206328","phone":"13314515687"}</t>
+          <t>{"user_name":"申帆","id_card_no":"220281193701028369","phone":"15158495693"}</t>
         </is>
       </c>
     </row>
@@ -6582,7 +6582,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>{"user_name":"牧俊","id_card_no":"440303196701038541","phone":"14550764243"}</t>
+          <t>{"user_name":"羊琳","id_card_no":"520111196808272767","phone":"14575066824"}</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>{"user_name":"宋梅","id_card_no":"630105197408236735","phone":"15318610653"}</t>
+          <t>{"user_name":"公淑英","id_card_no":"360403194209164059","phone":"13834993411"}</t>
         </is>
       </c>
     </row>
@@ -6690,7 +6690,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>{"user_name":"糜飞","id_card_no":"110112195407319662","phone":"13671660447"}</t>
+          <t>{"user_name":"汝成","id_card_no":"130132195606095875","phone":"13358684947"}</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>{"user_name":"于凤英","id_card_no":"220502197306202944","phone":"15900616592"}</t>
+          <t>{"user_name":"良璐","id_card_no":"321102193805225934","phone":"13855741234"}</t>
         </is>
       </c>
     </row>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>{"user_name":"班淑华","id_card_no":"320902199501097312","phone":"15779481123"}</t>
+          <t>{"user_name":"曾建国","id_card_no":"370827197903037621","phone":"14774475057"}</t>
         </is>
       </c>
     </row>
@@ -6843,7 +6843,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>{"user_name":"鄂玉兰","id_card_no":"430181194204075744","phone":"13237108438"}</t>
+          <t>{"user_name":"诸斌","id_card_no":"410804198803013844","phone":"18714319986"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-17001_result.xlsx
+++ b/tests/data/output/一级测试用例-17001_result.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"施楠","id_card_no":"370613197004108108","phone":"15712444380"}</t>
+          <t>{"user_name":"年云","id_card_no":"320400195902129022","phone":"15720634103"}</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"墨亮","id_card_no":"13048119461111665X","phone":"18941081355"}</t>
+          <t>{"user_name":"司丹丹","id_card_no":"500243198602214969","phone":"13787943938"}</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"束欢","id_card_no":"330301195811185195","phone":"18608051519"}</t>
+          <t>{"user_name":"水丹丹","id_card_no":"532528199211258133","phone":"18847793520"}</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"阳秀兰","id_card_no":"211102198105225682","phone":"13892153059"}</t>
+          <t>{"user_name":"良荣","id_card_no":"150203196501313858","phone":"18166159150"}</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"江鹏","id_card_no":"451000200004144687","phone":"13792860403"}</t>
+          <t>{"user_name":"韦亮","id_card_no":"130602198804261777","phone":"18657293181"}</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"庄瑜","id_card_no":"210803197911255906","phone":"15524707633"}</t>
+          <t>{"user_name":"滑杨","id_card_no":"451100198202165521","phone":"14766261297"}</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"刁桂花","id_card_no":"420881194006192516","phone":"13272210383"}</t>
+          <t>{"user_name":"暴淑珍","id_card_no":"450423200106202097","phone":"15693160108"}</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"宁艳","id_card_no":"511922193306105975","phone":"14529577920"}</t>
+          <t>{"user_name":"钟龙","id_card_no":"652924198005137858","phone":"13933513823"}</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"杭成","id_card_no":"320831199910219057","phone":"14587492765"}</t>
+          <t>{"user_name":"郁帆","id_card_no":"210903193303115181","phone":"13409031010"}</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"狐畅","id_card_no":"220303193810082993","phone":"15264295096"}</t>
+          <t>{"user_name":"危健","id_card_no":"441201193704083953","phone":"13182828330"}</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"茹楠","id_card_no":"341181193101239691","phone":"13005849985"}</t>
+          <t>{"user_name":"人秀英","id_card_no":"23100019370827489X","phone":"13146498405"}</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"羿涛","id_card_no":"650201194702254168","phone":"15653759600"}</t>
+          <t>{"user_name":"佘颖","id_card_no":"411528194011135728","phone":"15358787104"}</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"柴洁","id_card_no":"410522197107017018","phone":"15130035541"}</t>
+          <t>{"user_name":"晋颖","id_card_no":"370983198009102207","phone":"18122472044"}</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"余秀梅","id_card_no":"522323199212279548","phone":"18646294567"}</t>
+          <t>{"user_name":"爱兰英","id_card_no":"53292619860714433X","phone":"14787741182"}</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"包春梅","id_card_no":"210681198809188498","phone":"18797548235"}</t>
+          <t>{"user_name":"南秀梅","id_card_no":"50010919760315757X","phone":"13878589092"}</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"呼亮","id_card_no":"522625196012030495","phone":"13495688024"}</t>
+          <t>{"user_name":"淳玉英","id_card_no":"220581196502106969","phone":"13624600237"}</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"祝强","id_card_no":"130726195303099372","phone":"15392924770"}</t>
+          <t>{"user_name":"浦健","id_card_no":"360681194701101113","phone":"13137526096"}</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"史利","id_card_no":"220281194311084001","phone":"15654633447"}</t>
+          <t>{"user_name":"冀梅","id_card_no":"150105199604111264","phone":"15895504634"}</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"诸艳","id_card_no":"654224196009215838","phone":"14591292647"}</t>
+          <t>{"user_name":"别霞","id_card_no":"431228199008219103","phone":"13351171604"}</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"郭欣","id_card_no":"140181199107232051","phone":"18186557851"}</t>
+          <t>{"user_name":"巩玉兰","id_card_no":"310100197110110228","phone":"15848793038"}</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"于帅","id_card_no":"320623199605229784","phone":"13899378973"}</t>
+          <t>{"user_name":"宦伟","id_card_no":"320201199912232991","phone":"15566618936"}</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"太桂花","id_card_no":"360902196905090444","phone":"15157613587"}</t>
+          <t>{"user_name":"乐鹏","id_card_no":"350102194301145227","phone":"18778110768"}</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"姚文","id_card_no":"640122194002143779","phone":"18025791896"}</t>
+          <t>{"user_name":"娄兰英","id_card_no":"110102196110126327","phone":"18880284955"}</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"彭凤英","id_card_no":"54252619501224571X","phone":"14598736654"}</t>
+          <t>{"user_name":"韦健","id_card_no":"220524197107188949","phone":"15105966296"}</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"user_name":"池凯","id_card_no":"50023319710326899X","phone":"18837493585"}</t>
+          <t>{"user_name":"厉帆","id_card_no":"37152119641205164X","phone":"13695058457"}</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"user_name":"郝平","id_card_no":"220000199803282251","phone":"15731259826"}</t>
+          <t>{"user_name":"龚晶","id_card_no":"230227200007203653","phone":"14548943836"}</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"user_name":"文桂珍","id_card_no":"350101193504059651","phone":"14778677969"}</t>
+          <t>{"user_name":"雷凤英","id_card_no":"621022194811178543","phone":"15893150016"}</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"user_name":"容淑华","id_card_no":"370982196512121717","phone":"13336324014"}</t>
+          <t>{"user_name":"韩玉","id_card_no":"511621199209272207","phone":"14776229972"}</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"user_name":"萧玉华","id_card_no":"140101197811302163","phone":"15368508221"}</t>
+          <t>{"user_name":"酆秀荣","id_card_no":"210903197807106842","phone":"13625164235"}</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"user_name":"单文","id_card_no":"630103196305080988","phone":"13080426357"}</t>
+          <t>{"user_name":"乌瑞","id_card_no":"130521193311254908","phone":"18994026243"}</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"user_name":"金兵","id_card_no":"361021194606060538","phone":"13439696678"}</t>
+          <t>{"user_name":"钱云","id_card_no":"512001194107178172","phone":"18953515912"}</t>
         </is>
       </c>
     </row>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"user_name":"生洋","id_card_no":"440802193104264521","phone":"13468610605"}</t>
+          <t>{"user_name":"西玉英","id_card_no":"371424196011174992","phone":"13094233499"}</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"user_name":"连宇","id_card_no":"320982195209168199","phone":"13768900931"}</t>
+          <t>{"user_name":"竺雷","id_card_no":"512021193708254071","phone":"18651935629"}</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"user_name":"翟云","id_card_no":"410401198304167602","phone":"13812448069"}</t>
+          <t>{"user_name":"庄岩","id_card_no":"150602199108210149","phone":"15942691010"}</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"user_name":"竺秀英","id_card_no":"513338195405168997","phone":"13756560401"}</t>
+          <t>{"user_name":"郭玉","id_card_no":"64052119740910202X","phone":"15500227847"}</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"user_name":"干想","id_card_no":"360926193112291243","phone":"15175727399"}</t>
+          <t>{"user_name":"阳旭","id_card_no":"140822194005274598","phone":"13586826200"}</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>{"user_name":"魏斌","id_card_no":"430221197504254894","phone":"15953347691"}</t>
+          <t>{"user_name":"荆俊","id_card_no":"500107195612179429","phone":"13315689665"}</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"user_name":"笪玲","id_card_no":"35092219660103288X","phone":"13035978086"}</t>
+          <t>{"user_name":"雕娟","id_card_no":"371581200011156155","phone":"18206155343"}</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"user_name":"梁宇","id_card_no":"15042819810807443X","phone":"18099484554"}</t>
+          <t>{"user_name":"钱桂兰","id_card_no":"330400193710044692","phone":"18187300827"}</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"user_name":"屠畅","id_card_no":"621124198110152646","phone":"13355266852"}</t>
+          <t>{"user_name":"余岩","id_card_no":"542425198405309640","phone":"13597878295"}</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"user_name":"鲍桂珍","id_card_no":"370523198512102759","phone":"13755523154"}</t>
+          <t>{"user_name":"舒颖","id_card_no":"623023199801032189","phone":"15514357389"}</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"user_name":"拓芳","id_card_no":"361101197602292116","phone":"18568957585"}</t>
+          <t>{"user_name":"扈斌","id_card_no":"130281193611087304","phone":"15288588669"}</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"user_name":"龚桂芳","id_card_no":"653223193907154423","phone":"15720186007"}</t>
+          <t>{"user_name":"鲜东","id_card_no":"361101193503054691","phone":"15762774171"}</t>
         </is>
       </c>
     </row>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"user_name":"钟桂芝","id_card_no":"330183196101076961","phone":"15557897882"}</t>
+          <t>{"user_name":"汝欣","id_card_no":"410802198506231105","phone":"15605409080"}</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"user_name":"后伟","id_card_no":"130281198612096109","phone":"15116169651"}</t>
+          <t>{"user_name":"苍洋","id_card_no":"420527197806111517","phone":"13974344214"}</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"user_name":"西桂珍","id_card_no":"320211193608105416","phone":"18009592704"}</t>
+          <t>{"user_name":"谈颖","id_card_no":"44142619700411716X","phone":"13900292618"}</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>{"user_name":"相佳","id_card_no":"542427199001276288","phone":"13620934508"}</t>
+          <t>{"user_name":"魏帆","id_card_no":"540236194905114469","phone":"18608020860"}</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>{"user_name":"封秀梅","id_card_no":"120104195606264846","phone":"18860287251"}</t>
+          <t>{"user_name":"离丽娟","id_card_no":"51052419660614227X","phone":"14509771726"}</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>{"user_name":"顾东","id_card_no":"320621197608298636","phone":"15856649793"}</t>
+          <t>{"user_name":"汲玉兰","id_card_no":"130528198507072679","phone":"18154844301"}</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>{"user_name":"裘燕","id_card_no":"511800196412295362","phone":"18784404458"}</t>
+          <t>{"user_name":"叔桂芳","id_card_no":"320118196208095776","phone":"15290075373"}</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>{"user_name":"荆晨","id_card_no":"211302200012206926","phone":"14576082489"}</t>
+          <t>{"user_name":"公建军","id_card_no":"42092119300713921X","phone":"15791030275"}</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>{"user_name":"爱秀云","id_card_no":"620801196603305886","phone":"18966086329"}</t>
+          <t>{"user_name":"祝军","id_card_no":"140522193009119156","phone":"15030289416"}</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>{"user_name":"长红霞","id_card_no":"120223194212099251","phone":"15269948912"}</t>
+          <t>{"user_name":"桓金凤","id_card_no":"140225194607251744","phone":"13150057416"}</t>
         </is>
       </c>
     </row>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>{"user_name":"郎秀华","id_card_no":"652328193905026985","phone":"13779652886"}</t>
+          <t>{"user_name":"政秀荣","id_card_no":"230822197405270380","phone":"15950567332"}</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>{"user_name":"哈彬","id_card_no":"231121199212165109","phone":"15684450848"}</t>
+          <t>{"user_name":"澹丹丹","id_card_no":"411103199410021115","phone":"15038162854"}</t>
         </is>
       </c>
     </row>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>{"user_name":"毕帅","id_card_no":"321002197403219526","phone":"18751848643"}</t>
+          <t>{"user_name":"巩成","id_card_no":"420504198204074050","phone":"18146346232"}</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>{"user_name":"雷辉","id_card_no":"230622196207302681","phone":"13800744818"}</t>
+          <t>{"user_name":"应峰","id_card_no":"440105200006137098","phone":"18930930681"}</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>{"user_name":"佴玲","id_card_no":"410611197406288068","phone":"13860502126"}</t>
+          <t>{"user_name":"郁建","id_card_no":"510422199904216092","phone":"15607555765"}</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>{"user_name":"霍桂英","id_card_no":"441700198112100856","phone":"13299100932"}</t>
+          <t>{"user_name":"顾帆","id_card_no":"510903193210036506","phone":"14730904675"}</t>
         </is>
       </c>
     </row>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>{"user_name":"浦彬","id_card_no":"430104196009053976","phone":"15860058047"}</t>
+          <t>{"user_name":"黄建国","id_card_no":"210301199507108102","phone":"13605136198"}</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>{"user_name":"白琴","id_card_no":"140925193901069410","phone":"15112651896"}</t>
+          <t>{"user_name":"雕倩","id_card_no":"210404197004146049","phone":"18227517426"}</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>{"user_name":"延桂芝","id_card_no":"411025197502071818","phone":"15821335881"}</t>
+          <t>{"user_name":"万静","id_card_no":"430112193007170518","phone":"15236404637"}</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>{"user_name":"姬鹏","id_card_no":"350421195606092293","phone":"18639822226"}</t>
+          <t>{"user_name":"蒋建华","id_card_no":"451121198008141499","phone":"15819178261"}</t>
         </is>
       </c>
     </row>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>{"user_name":"亢凤英","id_card_no":"140623196109294969","phone":"18256814222"}</t>
+          <t>{"user_name":"羊雪梅","id_card_no":"120221193010067641","phone":"18086609066"}</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>{"user_name":"蔺超","id_card_no":"640501196812264272","phone":"15556077450"}</t>
+          <t>{"user_name":"於秀珍","id_card_no":"430981199808304057","phone":"18817196725"}</t>
         </is>
       </c>
     </row>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>{"user_name":"黄冬梅","id_card_no":"532523193308064491","phone":"15562812878"}</t>
+          <t>{"user_name":"钦婷婷","id_card_no":"621122194610293823","phone":"13487875631"}</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>{"user_name":"苗亮","id_card_no":"360121199603144362","phone":"15776021943"}</t>
+          <t>{"user_name":"别超","id_card_no":"220524198408127589","phone":"13626181432"}</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>{"user_name":"步建","id_card_no":"441322197507139327","phone":"13852979166"}</t>
+          <t>{"user_name":"淳桂芳","id_card_no":"231281196308251915","phone":"14578104410"}</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>{"user_name":"满强","id_card_no":"511923199802234470","phone":"18852388895"}</t>
+          <t>{"user_name":"封磊","id_card_no":"63022319430519213X","phone":"14566284172"}</t>
         </is>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>{"user_name":"蒯慧","id_card_no":"440306193501201469","phone":"15150398665"}</t>
+          <t>{"user_name":"官建","id_card_no":"131003198706018495","phone":"14546827249"}</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>{"user_name":"栾桂香","id_card_no":"420502194207247796","phone":"13971834767"}</t>
+          <t>{"user_name":"商梅","id_card_no":"320324198708232391","phone":"15143047406"}</t>
         </is>
       </c>
     </row>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>{"user_name":"粱建","id_card_no":"130435196308177573","phone":"18275058449"}</t>
+          <t>{"user_name":"童玲","id_card_no":"430103193003030589","phone":"18980512731"}</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>{"user_name":"有秀珍","id_card_no":"411602197612163500","phone":"13438653295"}</t>
+          <t>{"user_name":"燕柳","id_card_no":"320924199505175734","phone":"13228347219"}</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>{"user_name":"申桂珍","id_card_no":"469006196503295752","phone":"14555456514"}</t>
+          <t>{"user_name":"东柳","id_card_no":"130925198809131622","phone":"15995992129"}</t>
         </is>
       </c>
     </row>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>{"user_name":"郁志强","id_card_no":"522702197305161849","phone":"13845615713"}</t>
+          <t>{"user_name":"乜凤兰","id_card_no":"522623195605068678","phone":"18175550913"}</t>
         </is>
       </c>
     </row>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>{"user_name":"匡玉梅","id_card_no":"450203198112158778","phone":"18092140369"}</t>
+          <t>{"user_name":"窦荣","id_card_no":"130130197306109725","phone":"15202446174"}</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>{"user_name":"臧坤","id_card_no":"441203196801103860","phone":"18230780918"}</t>
+          <t>{"user_name":"祖玉梅","id_card_no":"530627194503128132","phone":"15251789667"}</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>{"user_name":"胥晨","id_card_no":"130430195512306487","phone":"13698394988"}</t>
+          <t>{"user_name":"钭燕","id_card_no":"341023199104027588","phone":"15619970114"}</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>{"user_name":"养刚","id_card_no":"211303194008088056","phone":"15537741741"}</t>
+          <t>{"user_name":"花军","id_card_no":"510131195604189258","phone":"15501453471"}</t>
         </is>
       </c>
     </row>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>{"user_name":"桓淑珍","id_card_no":"110109197207019834","phone":"18552921961"}</t>
+          <t>{"user_name":"甫艳","id_card_no":"411322193406208350","phone":"15854043303"}</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>{"user_name":"巫欢","id_card_no":"620824199911015395","phone":"14755654842"}</t>
+          <t>{"user_name":"海玉华","id_card_no":"530801199109224986","phone":"15030067358"}</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>{"user_name":"丘芳","id_card_no":"340222198908104111","phone":"13442138335"}</t>
+          <t>{"user_name":"容倩","id_card_no":"530722193302154093","phone":"18524706496"}</t>
         </is>
       </c>
     </row>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>{"user_name":"木丹","id_card_no":"450224200105180039","phone":"15298095466"}</t>
+          <t>{"user_name":"俟帅","id_card_no":"210381196103128105","phone":"18247660276"}</t>
         </is>
       </c>
     </row>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>{"user_name":"闾健","id_card_no":"440100193607195707","phone":"14599259925"}</t>
+          <t>{"user_name":"俟畅","id_card_no":"320701195207301102","phone":"18073948661"}</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>{"user_name":"通欢","id_card_no":"150522199201162452","phone":"13801640316"}</t>
+          <t>{"user_name":"富楠","id_card_no":"23020019541002888X","phone":"15293697232"}</t>
         </is>
       </c>
     </row>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>{"user_name":"蔺刚","id_card_no":"210423198609171339","phone":"15832252106"}</t>
+          <t>{"user_name":"孙龙","id_card_no":"522729197112081375","phone":"18033066228"}</t>
         </is>
       </c>
     </row>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>{"user_name":"黄敏","id_card_no":"140825193004289098","phone":"15143488736"}</t>
+          <t>{"user_name":"韦敏","id_card_no":"150301195512128058","phone":"13937305425"}</t>
         </is>
       </c>
     </row>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>{"user_name":"柯龙","id_card_no":"421100197407234535","phone":"13632519979"}</t>
+          <t>{"user_name":"仰红梅","id_card_no":"532929199806097883","phone":"15703796734"}</t>
         </is>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>{"user_name":"敖佳","id_card_no":"530700194304282669","phone":"13458270268"}</t>
+          <t>{"user_name":"亓丹","id_card_no":"210505199704293139","phone":"15637244427"}</t>
         </is>
       </c>
     </row>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>{"user_name":"家静","id_card_no":"420505195010135022","phone":"18666311284"}</t>
+          <t>{"user_name":"危洁","id_card_no":"23082219880325476X","phone":"13100343190"}</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>{"user_name":"彭彬","id_card_no":"35072419470720497X","phone":"13478720625"}</t>
+          <t>{"user_name":"陈博","id_card_no":"540223193902263067","phone":"15844201250"}</t>
         </is>
       </c>
     </row>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>{"user_name":"越峰","id_card_no":"441424193806029232","phone":"15822495719"}</t>
+          <t>{"user_name":"禄霞","id_card_no":"220502199009101652","phone":"18554989806"}</t>
         </is>
       </c>
     </row>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>{"user_name":"晏秀芳","id_card_no":"451228195604138129","phone":"18195139538"}</t>
+          <t>{"user_name":"闫峰","id_card_no":"500103195203275086","phone":"18701858588"}</t>
         </is>
       </c>
     </row>
@@ -5548,7 +5548,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>{"user_name":"孔淑珍","id_card_no":"220201196603267368","phone":"15321478279"}</t>
+          <t>{"user_name":"颛秀兰","id_card_no":"341126199301237167","phone":"15854182153"}</t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>{"user_name":"邢桂花","id_card_no":"610401196204093907","phone":"14524467930"}</t>
+          <t>{"user_name":"薄洁","id_card_no":"53052419551207018X","phone":"18221677225"}</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>{"user_name":"嵇玉英","id_card_no":"441800195806020641","phone":"18583178536"}</t>
+          <t>{"user_name":"郦华","id_card_no":"341102193407200890","phone":"15525022691"}</t>
         </is>
       </c>
     </row>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>{"user_name":"唐建军","id_card_no":"440500193110217562","phone":"13765160576"}</t>
+          <t>{"user_name":"终桂兰","id_card_no":"370983196010319199","phone":"18657981385"}</t>
         </is>
       </c>
     </row>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>{"user_name":"俟颖","id_card_no":"450103199506088345","phone":"15185974563"}</t>
+          <t>{"user_name":"仰飞","id_card_no":"451229199106254885","phone":"15210662935"}</t>
         </is>
       </c>
     </row>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>{"user_name":"余建","id_card_no":"230805195210214551","phone":"18710903033"}</t>
+          <t>{"user_name":"冯慧","id_card_no":"220103199405117722","phone":"13336983371"}</t>
         </is>
       </c>
     </row>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>{"user_name":"封洁","id_card_no":"610626197710213011","phone":"14549038964"}</t>
+          <t>{"user_name":"公璐","id_card_no":"431229200008020702","phone":"13613285856"}</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>{"user_name":"连萍","id_card_no":"320621197506151270","phone":"13836805512"}</t>
+          <t>{"user_name":"唐英","id_card_no":"513222196808141594","phone":"13069906328"}</t>
         </is>
       </c>
     </row>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>{"user_name":"倪秀珍","id_card_no":"610631199601286211","phone":"15267435701"}</t>
+          <t>{"user_name":"利雷","id_card_no":"430400196803083292","phone":"13311678060"}</t>
         </is>
       </c>
     </row>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>{"user_name":"弓丽娟","id_card_no":"530629196604236812","phone":"15530756575"}</t>
+          <t>{"user_name":"田志强","id_card_no":"511025197411198307","phone":"15832281221"}</t>
         </is>
       </c>
     </row>
@@ -6098,7 +6098,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>{"user_name":"匡雷","id_card_no":"532823197508047607","phone":"18193962289"}</t>
+          <t>{"user_name":"辛秀云","id_card_no":"340506194910121998","phone":"18200126164"}</t>
         </is>
       </c>
     </row>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>{"user_name":"水荣","id_card_no":"231225193103060491","phone":"15838491295"}</t>
+          <t>{"user_name":"邰利","id_card_no":"222406197002188786","phone":"15743466395"}</t>
         </is>
       </c>
     </row>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>{"user_name":"邴莉","id_card_no":"610500193701188267","phone":"15637037579"}</t>
+          <t>{"user_name":"仲玲","id_card_no":"622924193605192676","phone":"18547428119"}</t>
         </is>
       </c>
     </row>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>{"user_name":"佘亮","id_card_no":"51342620000503757X","phone":"15702599523"}</t>
+          <t>{"user_name":"阳旭","id_card_no":"522722194907129127","phone":"18523199131"}</t>
         </is>
       </c>
     </row>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>{"user_name":"戴瑞","id_card_no":"532800196810063190","phone":"14577829291"}</t>
+          <t>{"user_name":"通萍","id_card_no":"320724198009081039","phone":"14718526378"}</t>
         </is>
       </c>
     </row>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>{"user_name":"汤凯","id_card_no":"320923193505196814","phone":"13866081633"}</t>
+          <t>{"user_name":"孙玲","id_card_no":"140581193907151334","phone":"15349765670"}</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>{"user_name":"刘淑兰","id_card_no":"140202200006258987","phone":"18912307527"}</t>
+          <t>{"user_name":"赫帅","id_card_no":"421281199303208685","phone":"13956725563"}</t>
         </is>
       </c>
     </row>
@@ -6475,7 +6475,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>{"user_name":"郏云","id_card_no":"140725195103214730","phone":"13405484257"}</t>
+          <t>{"user_name":"车浩","id_card_no":"533421197505070496","phone":"18809800555"}</t>
         </is>
       </c>
     </row>
@@ -6524,7 +6524,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>{"user_name":"申帆","id_card_no":"220281193701028369","phone":"15158495693"}</t>
+          <t>{"user_name":"勾阳","id_card_no":"150425195501276940","phone":"15132839846"}</t>
         </is>
       </c>
     </row>
@@ -6582,7 +6582,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>{"user_name":"羊琳","id_card_no":"520111196808272767","phone":"14575066824"}</t>
+          <t>{"user_name":"庞晶","id_card_no":"450325195210020764","phone":"18859124440"}</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>{"user_name":"公淑英","id_card_no":"360403194209164059","phone":"13834993411"}</t>
+          <t>{"user_name":"赫柳","id_card_no":"652925197904251795","phone":"15917937737"}</t>
         </is>
       </c>
     </row>
@@ -6690,7 +6690,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>{"user_name":"汝成","id_card_no":"130132195606095875","phone":"13358684947"}</t>
+          <t>{"user_name":"郦丽","id_card_no":"520400196512280458","phone":"15729562781"}</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>{"user_name":"良璐","id_card_no":"321102193805225934","phone":"13855741234"}</t>
+          <t>{"user_name":"双秀云","id_card_no":"431129195011112991","phone":"18910378421"}</t>
         </is>
       </c>
     </row>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>{"user_name":"曾建国","id_card_no":"370827197903037621","phone":"14774475057"}</t>
+          <t>{"user_name":"芮丹丹","id_card_no":"610625199202108250","phone":"13077367464"}</t>
         </is>
       </c>
     </row>
@@ -6843,7 +6843,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>{"user_name":"诸斌","id_card_no":"410804198803013844","phone":"18714319986"}</t>
+          <t>{"user_name":"寇晶","id_card_no":"210521197501279549","phone":"15287521743"}</t>
         </is>
       </c>
     </row>
